--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\GRFStuff\UK Finescale Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD60A6E-5C6E-4DD9-9420-2A7883238B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC725AB7-76EB-488A-8347-589753AD309D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37095" yWindow="2250" windowWidth="19965" windowHeight="12675" activeTab="1" xr2:uid="{857BF7F3-4843-4495-BC2D-6D08C3451E58}"/>
+    <workbookView xWindow="37095" yWindow="2250" windowWidth="19965" windowHeight="12675" activeTab="2" xr2:uid="{857BF7F3-4843-4495-BC2D-6D08C3451E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Name Stuff" sheetId="4" r:id="rId1"/>
@@ -1976,111 +1976,6 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2101,7 +1996,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2127,7 +2022,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2590,6 +2485,111 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2604,38 +2604,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7575EDDE-3AAA-4483-ACE3-DCAE8EA3E8E7}" name="Table2" displayName="Table2" ref="A1:R101" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7575EDDE-3AAA-4483-ACE3-DCAE8EA3E8E7}" name="Table2" displayName="Table2" ref="A1:R101" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:R101" xr:uid="{36D57E6B-8B33-4ACF-A7F0-0856AF37967D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R101">
     <sortCondition ref="A1:A101"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{68CBBF4D-117B-46E6-B7A4-54509CD6E6FB}" name="ID" dataDxfId="32"/>
-    <tableColumn id="19" xr3:uid="{03AC1107-CE99-4984-A642-BF90BC17A239}" name="UKRS Name" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{BF20BF4A-0C5E-449A-ACE9-902DD6F25C69}" name="Weight" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{6F02F023-E63F-47BD-8453-9990FFD54AA5}" name="Speed" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{93D71C14-746F-4DF8-A137-B414A2B01F0B}" name="Power" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{4B59892B-E1F2-4F5C-BD85-8447BA247813}" name="TE" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{AC10C65A-66CC-4985-B3F7-B0FB085872AF}" name="TE Coeff" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{68CBBF4D-117B-46E6-B7A4-54509CD6E6FB}" name="ID" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{03AC1107-CE99-4984-A642-BF90BC17A239}" name="UKRS Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BF20BF4A-0C5E-449A-ACE9-902DD6F25C69}" name="Weight" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{6F02F023-E63F-47BD-8453-9990FFD54AA5}" name="Speed" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{93D71C14-746F-4DF8-A137-B414A2B01F0B}" name="Power" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{4B59892B-E1F2-4F5C-BD85-8447BA247813}" name="TE" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{AC10C65A-66CC-4985-B3F7-B0FB085872AF}" name="TE Coeff" dataDxfId="11">
       <calculatedColumnFormula>F2/10/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCBBFAF-1597-42B4-A0E0-8848B36F3A85}" name="Cost" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{A935D94E-3872-4036-A743-42E97F0A5706}" name="Cost Factor" dataDxfId="24">
+    <tableColumn id="8" xr3:uid="{7CCBBFAF-1597-42B4-A0E0-8848B36F3A85}" name="Cost" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{A935D94E-3872-4036-A743-42E97F0A5706}" name="Cost Factor" dataDxfId="9">
       <calculatedColumnFormula>ROUNDDOWN(H2/1171,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{025F4854-003D-4C1D-86DE-3CE439FE9C7E}" name="RC Factor?" dataDxfId="23">
+    <tableColumn id="11" xr3:uid="{025F4854-003D-4C1D-86DE-3CE439FE9C7E}" name="RC Factor?" dataDxfId="8">
       <calculatedColumnFormula>Table2[[#This Row],[RunCost]]/(23400/255)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5BCDCD29-35DE-42FD-B065-4D759BF7D38E}" name="New RC" dataDxfId="22">
+    <tableColumn id="14" xr3:uid="{5BCDCD29-35DE-42FD-B065-4D759BF7D38E}" name="New RC" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4EF97444-7DF2-4C1C-9399-2AF176D2421D}" name="RunCost" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{1BC97C8C-0238-41D7-8180-11A9FE8439B0}" name="Intro Year" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{5B6AB601-40E1-4161-8BD3-27417D3EF971}" name="Propulsion" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{3DD9EBC7-6915-4B09-94B8-EB93AD555BB9}" name="Length" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{6FAB79C9-0044-4515-B975-0FECD4FE0705}" name="Whistle" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{7544EFBE-4B04-489D-B161-77017965D88F}" name="Name" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{AB5CB6B3-E247-433B-9AAE-1FAD1BCAC333}" name="FullName" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{4EF97444-7DF2-4C1C-9399-2AF176D2421D}" name="RunCost" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{1BC97C8C-0238-41D7-8180-11A9FE8439B0}" name="Intro Year" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{5B6AB601-40E1-4161-8BD3-27417D3EF971}" name="Propulsion" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{3DD9EBC7-6915-4B09-94B8-EB93AD555BB9}" name="Length" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{6FAB79C9-0044-4515-B975-0FECD4FE0705}" name="Whistle" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7544EFBE-4B04-489D-B161-77017965D88F}" name="Name" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{AB5CB6B3-E247-433B-9AAE-1FAD1BCAC333}" name="FullName" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5288,7 +5288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D8F614-8F67-461D-B4C9-7B9798EA7994}">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
@@ -5403,14 +5403,14 @@
         <v>11</v>
       </c>
       <c r="G2" s="23">
-        <f>F2/10/C2</f>
+        <f t="shared" ref="G2:G33" si="0">F2/10/C2</f>
         <v>7.8571428571428584E-2</v>
       </c>
       <c r="H2" s="24">
         <v>7031</v>
       </c>
       <c r="I2" s="21">
-        <f>ROUNDDOWN(H2/1171,0)</f>
+        <f t="shared" ref="I2:I33" si="1">ROUNDDOWN(H2/1171,0)</f>
         <v>6</v>
       </c>
       <c r="J2" s="22">
@@ -5473,14 +5473,14 @@
         <v>43</v>
       </c>
       <c r="G3" s="23">
-        <f>F3/10/C3</f>
+        <f t="shared" si="0"/>
         <v>0.11621621621621621</v>
       </c>
       <c r="H3" s="24">
         <v>12890</v>
       </c>
       <c r="I3" s="21">
-        <f>ROUNDDOWN(H3/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J3" s="22">
@@ -5543,14 +5543,14 @@
         <v>21</v>
       </c>
       <c r="G4" s="23">
-        <f>F4/10/C4</f>
+        <f t="shared" si="0"/>
         <v>4.4680851063829789E-2</v>
       </c>
       <c r="H4" s="24">
         <v>16406</v>
       </c>
       <c r="I4" s="21">
-        <f>ROUNDDOWN(H4/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J4" s="22">
@@ -5613,14 +5613,14 @@
         <v>62</v>
       </c>
       <c r="G5" s="23">
-        <f>F5/10/C5</f>
+        <f t="shared" si="0"/>
         <v>0.14761904761904762</v>
       </c>
       <c r="H5" s="24">
         <v>15234</v>
       </c>
       <c r="I5" s="21">
-        <f>ROUNDDOWN(H5/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J5" s="22">
@@ -5683,14 +5683,14 @@
         <v>79</v>
       </c>
       <c r="G6" s="23">
-        <f>F6/10/C6</f>
+        <f t="shared" si="0"/>
         <v>0.22571428571428573</v>
       </c>
       <c r="H6" s="24">
         <v>8203</v>
       </c>
       <c r="I6" s="21">
-        <f>ROUNDDOWN(H6/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J6" s="22">
@@ -5753,14 +5753,14 @@
         <v>39</v>
       </c>
       <c r="G7" s="23">
-        <f>F7/10/C7</f>
+        <f t="shared" si="0"/>
         <v>0.13928571428571429</v>
       </c>
       <c r="H7" s="24">
         <v>9375</v>
       </c>
       <c r="I7" s="21">
-        <f>ROUNDDOWN(H7/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J7" s="22">
@@ -5823,14 +5823,14 @@
         <v>104</v>
       </c>
       <c r="G8" s="23">
-        <f>F8/10/C8</f>
+        <f t="shared" si="0"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="H8" s="24">
         <v>12890</v>
       </c>
       <c r="I8" s="21">
-        <f>ROUNDDOWN(H8/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J8" s="22">
@@ -5893,14 +5893,14 @@
         <v>55</v>
       </c>
       <c r="G9" s="23">
-        <f>F9/10/C9</f>
+        <f t="shared" si="0"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="H9" s="24">
         <v>12890</v>
       </c>
       <c r="I9" s="21">
-        <f>ROUNDDOWN(H9/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J9" s="22">
@@ -5963,14 +5963,14 @@
         <v>55</v>
       </c>
       <c r="G10" s="23">
-        <f>F10/10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.15277777777777779</v>
       </c>
       <c r="H10" s="24">
         <v>12890</v>
       </c>
       <c r="I10" s="21">
-        <f>ROUNDDOWN(H10/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J10" s="22">
@@ -6033,14 +6033,14 @@
         <v>57</v>
       </c>
       <c r="G11" s="23">
-        <f>F11/10/C11</f>
+        <f t="shared" si="0"/>
         <v>0.114</v>
       </c>
       <c r="H11" s="24">
         <v>17578</v>
       </c>
       <c r="I11" s="21">
-        <f>ROUNDDOWN(H11/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J11" s="22">
@@ -6103,14 +6103,14 @@
         <v>88</v>
       </c>
       <c r="G12" s="23">
-        <f>F12/10/C12</f>
+        <f t="shared" si="0"/>
         <v>0.17600000000000002</v>
       </c>
       <c r="H12" s="24">
         <v>17578</v>
       </c>
       <c r="I12" s="21">
-        <f>ROUNDDOWN(H12/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J12" s="22">
@@ -6173,14 +6173,14 @@
         <v>88</v>
       </c>
       <c r="G13" s="23">
-        <f>F13/10/C13</f>
+        <f t="shared" si="0"/>
         <v>0.17600000000000002</v>
       </c>
       <c r="H13" s="24">
         <v>17578</v>
       </c>
       <c r="I13" s="21">
-        <f>ROUNDDOWN(H13/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J13" s="22">
@@ -6243,14 +6243,14 @@
         <v>78</v>
       </c>
       <c r="G14" s="23">
-        <f>F14/10/C14</f>
+        <f t="shared" si="0"/>
         <v>0.12580645161290321</v>
       </c>
       <c r="H14" s="24">
         <v>18750</v>
       </c>
       <c r="I14" s="21">
-        <f>ROUNDDOWN(H14/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J14" s="22">
@@ -6313,14 +6313,14 @@
         <v>93</v>
       </c>
       <c r="G15" s="23">
-        <f>F15/10/C15</f>
+        <f t="shared" si="0"/>
         <v>0.16315789473684211</v>
       </c>
       <c r="H15" s="24">
         <v>19921</v>
       </c>
       <c r="I15" s="21">
-        <f>ROUNDDOWN(H15/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="J15" s="22">
@@ -6383,14 +6383,14 @@
         <v>40</v>
       </c>
       <c r="G16" s="23">
-        <f>F16/10/C16</f>
+        <f t="shared" si="0"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="H16" s="24">
         <v>16406</v>
       </c>
       <c r="I16" s="21">
-        <f>ROUNDDOWN(H16/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J16" s="22">
@@ -6453,14 +6453,14 @@
         <v>45</v>
       </c>
       <c r="G17" s="23">
-        <f>F17/10/C17</f>
+        <f t="shared" si="0"/>
         <v>8.0357142857142863E-2</v>
       </c>
       <c r="H17" s="24">
         <v>19921</v>
       </c>
       <c r="I17" s="21">
-        <f>ROUNDDOWN(H17/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="J17" s="22">
@@ -6523,14 +6523,14 @@
         <v>78</v>
       </c>
       <c r="G18" s="23">
-        <f>F18/10/C18</f>
+        <f t="shared" si="0"/>
         <v>0.10985915492957746</v>
       </c>
       <c r="H18" s="24">
         <v>24609</v>
       </c>
       <c r="I18" s="21">
-        <f>ROUNDDOWN(H18/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="J18" s="22">
@@ -6594,14 +6594,14 @@
         <v>70</v>
       </c>
       <c r="G19" s="23">
-        <f>F19/10/C19</f>
+        <f t="shared" si="0"/>
         <v>6.4814814814814811E-2</v>
       </c>
       <c r="H19" s="24">
         <v>31640</v>
       </c>
       <c r="I19" s="21">
-        <f>ROUNDDOWN(H19/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="J19" s="22">
@@ -6664,14 +6664,14 @@
         <v>97</v>
       </c>
       <c r="G20" s="23">
-        <f>F20/10/C20</f>
+        <f t="shared" si="0"/>
         <v>9.509803921568627E-2</v>
       </c>
       <c r="H20" s="24">
         <v>30468</v>
       </c>
       <c r="I20" s="21">
-        <f>ROUNDDOWN(H20/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J20" s="22">
@@ -6734,14 +6734,14 @@
         <v>110</v>
       </c>
       <c r="G21" s="23">
-        <f>F21/10/C21</f>
+        <f t="shared" si="0"/>
         <v>0.12222222222222222</v>
       </c>
       <c r="H21" s="24">
         <v>26953</v>
       </c>
       <c r="I21" s="21">
-        <f>ROUNDDOWN(H21/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="J21" s="22">
@@ -6804,14 +6804,14 @@
         <v>112</v>
       </c>
       <c r="G22" s="23">
-        <f>F22/10/C22</f>
+        <f t="shared" si="0"/>
         <v>0.10666666666666666</v>
       </c>
       <c r="H22" s="24">
         <v>30468</v>
       </c>
       <c r="I22" s="21">
-        <f>ROUNDDOWN(H22/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J22" s="22">
@@ -6874,14 +6874,14 @@
         <v>122</v>
       </c>
       <c r="G23" s="23">
-        <f>F23/10/C23</f>
+        <f t="shared" si="0"/>
         <v>0.12978723404255318</v>
       </c>
       <c r="H23" s="24">
         <v>28125</v>
       </c>
       <c r="I23" s="21">
-        <f>ROUNDDOWN(H23/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="J23" s="22">
@@ -6944,14 +6944,14 @@
         <v>190</v>
       </c>
       <c r="G24" s="23">
-        <f>F24/10/C24</f>
+        <f t="shared" si="0"/>
         <v>0.17924528301886791</v>
       </c>
       <c r="H24" s="24">
         <v>31640</v>
       </c>
       <c r="I24" s="21">
-        <f>ROUNDDOWN(H24/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="J24" s="22">
@@ -7015,14 +7015,14 @@
         <v>105</v>
       </c>
       <c r="G25" s="23">
-        <f>F25/10/C25</f>
+        <f t="shared" si="0"/>
         <v>7.6086956521739135E-2</v>
       </c>
       <c r="H25" s="24">
         <v>41015</v>
       </c>
       <c r="I25" s="21">
-        <f>ROUNDDOWN(H25/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="J25" s="22">
@@ -7086,14 +7086,14 @@
         <v>99</v>
       </c>
       <c r="G26" s="23">
-        <f>F26/10/C26</f>
+        <f t="shared" si="0"/>
         <v>0.20204081632653062</v>
       </c>
       <c r="H26" s="24">
         <v>17578</v>
       </c>
       <c r="I26" s="21">
-        <f>ROUNDDOWN(H26/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J26" s="22">
@@ -7156,14 +7156,14 @@
         <v>98</v>
       </c>
       <c r="G27" s="23">
-        <f>F27/10/C27</f>
+        <f t="shared" si="0"/>
         <v>0.17818181818181819</v>
       </c>
       <c r="H27" s="24">
         <v>19921</v>
       </c>
       <c r="I27" s="21">
-        <f>ROUNDDOWN(H27/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="J27" s="22">
@@ -7226,14 +7226,14 @@
         <v>75</v>
       </c>
       <c r="G28" s="23">
-        <f>F28/10/C28</f>
+        <f t="shared" si="0"/>
         <v>0.1171875</v>
       </c>
       <c r="H28" s="24">
         <v>22265</v>
       </c>
       <c r="I28" s="21">
-        <f>ROUNDDOWN(H28/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="J28" s="22">
@@ -7297,14 +7297,14 @@
         <v>107</v>
       </c>
       <c r="G29" s="23">
-        <f>F29/10/C29</f>
+        <f t="shared" si="0"/>
         <v>0.12159090909090908</v>
       </c>
       <c r="H29" s="24">
         <v>30468</v>
       </c>
       <c r="I29" s="21">
-        <f>ROUNDDOWN(H29/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J29" s="22">
@@ -7367,14 +7367,14 @@
         <v>130</v>
       </c>
       <c r="G30" s="23">
-        <f>F30/10/C30</f>
+        <f t="shared" si="0"/>
         <v>0.14444444444444443</v>
       </c>
       <c r="H30" s="24">
         <v>23437</v>
       </c>
       <c r="I30" s="21">
-        <f>ROUNDDOWN(H30/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J30" s="22">
@@ -7437,14 +7437,14 @@
         <v>95</v>
       </c>
       <c r="G31" s="23">
-        <f>F31/10/C31</f>
+        <f t="shared" si="0"/>
         <v>7.9831932773109238E-2</v>
       </c>
       <c r="H31" s="24">
         <v>35156</v>
       </c>
       <c r="I31" s="21">
-        <f>ROUNDDOWN(H31/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J31" s="22">
@@ -7507,14 +7507,14 @@
         <v>110</v>
       </c>
       <c r="G32" s="23">
-        <f>F32/10/C32</f>
+        <f t="shared" si="0"/>
         <v>8.0291970802919707E-2</v>
       </c>
       <c r="H32" s="24">
         <v>39843</v>
       </c>
       <c r="I32" s="21">
-        <f>ROUNDDOWN(H32/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="J32" s="22">
@@ -7577,14 +7577,14 @@
         <v>202</v>
       </c>
       <c r="G33" s="23">
-        <f>F33/10/C33</f>
+        <f t="shared" si="0"/>
         <v>0.1337748344370861</v>
       </c>
       <c r="H33" s="24">
         <v>44531</v>
       </c>
       <c r="I33" s="21">
-        <f>ROUNDDOWN(H33/1171,0)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J33" s="22">
@@ -7647,14 +7647,14 @@
         <v>142</v>
       </c>
       <c r="G34" s="23">
-        <f>F34/10/C34</f>
+        <f t="shared" ref="G34:G65" si="2">F34/10/C34</f>
         <v>0.11093749999999999</v>
       </c>
       <c r="H34" s="24">
         <v>37500</v>
       </c>
       <c r="I34" s="21">
-        <f>ROUNDDOWN(H34/1171,0)</f>
+        <f t="shared" ref="I34:I65" si="3">ROUNDDOWN(H34/1171,0)</f>
         <v>32</v>
       </c>
       <c r="J34" s="22">
@@ -7717,14 +7717,14 @@
         <v>115</v>
       </c>
       <c r="G35" s="23">
-        <f>F35/10/C35</f>
+        <f t="shared" si="2"/>
         <v>9.1269841269841265E-2</v>
       </c>
       <c r="H35" s="24">
         <v>37500</v>
       </c>
       <c r="I35" s="21">
-        <f>ROUNDDOWN(H35/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="J35" s="22">
@@ -7787,14 +7787,14 @@
         <v>148</v>
       </c>
       <c r="G36" s="23">
-        <f>F36/10/C36</f>
+        <f t="shared" si="2"/>
         <v>0.10277777777777779</v>
       </c>
       <c r="H36" s="24">
         <v>42187</v>
       </c>
       <c r="I36" s="21">
-        <f>ROUNDDOWN(H36/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="J36" s="22">
@@ -7857,14 +7857,14 @@
         <v>132</v>
       </c>
       <c r="G37" s="23">
-        <f>F37/10/C37</f>
+        <f t="shared" si="2"/>
         <v>8.7417218543046349E-2</v>
       </c>
       <c r="H37" s="24">
         <v>44531</v>
       </c>
       <c r="I37" s="21">
-        <f>ROUNDDOWN(H37/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J37" s="22">
@@ -7928,14 +7928,14 @@
         <v>158</v>
       </c>
       <c r="G38" s="23">
-        <f>F38/10/C38</f>
+        <f t="shared" si="2"/>
         <v>9.5180722891566275E-2</v>
       </c>
       <c r="H38" s="24">
         <v>49218</v>
       </c>
       <c r="I38" s="21">
-        <f>ROUNDDOWN(H38/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="J38" s="22">
@@ -7999,14 +7999,14 @@
         <v>182</v>
       </c>
       <c r="G39" s="23">
-        <f>F39/10/C39</f>
+        <f t="shared" si="2"/>
         <v>0.11097560975609756</v>
       </c>
       <c r="H39" s="24">
         <v>48046</v>
       </c>
       <c r="I39" s="21">
-        <f>ROUNDDOWN(H39/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="J39" s="22">
@@ -8069,14 +8069,14 @@
         <v>165</v>
       </c>
       <c r="G40" s="23">
-        <f>F40/10/C40</f>
+        <f t="shared" si="2"/>
         <v>0.11458333333333333</v>
       </c>
       <c r="H40" s="24">
         <v>42187</v>
       </c>
       <c r="I40" s="21">
-        <f>ROUNDDOWN(H40/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="J40" s="22">
@@ -8139,14 +8139,14 @@
         <v>136</v>
       </c>
       <c r="G41" s="23">
-        <f>F41/10/C41</f>
+        <f t="shared" si="2"/>
         <v>0.10303030303030303</v>
       </c>
       <c r="H41" s="24">
         <v>38671</v>
       </c>
       <c r="I41" s="21">
-        <f>ROUNDDOWN(H41/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="J41" s="22">
@@ -8209,14 +8209,14 @@
         <v>204</v>
       </c>
       <c r="G42" s="23">
-        <f>F42/10/C42</f>
+        <f t="shared" si="2"/>
         <v>0.15692307692307692</v>
       </c>
       <c r="H42" s="24">
         <v>45703</v>
       </c>
       <c r="I42" s="21">
-        <f>ROUNDDOWN(H42/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="J42" s="22">
@@ -8280,14 +8280,14 @@
         <v>143</v>
       </c>
       <c r="G43" s="23">
-        <f>F43/10/C43</f>
+        <f t="shared" si="2"/>
         <v>9.9305555555555564E-2</v>
       </c>
       <c r="H43" s="24">
         <v>42187</v>
       </c>
       <c r="I43" s="21">
-        <f>ROUNDDOWN(H43/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="J43" s="22">
@@ -8351,14 +8351,14 @@
         <v>178</v>
       </c>
       <c r="G44" s="23">
-        <f>F44/10/C44</f>
+        <f t="shared" si="2"/>
         <v>0.12624113475177307</v>
       </c>
       <c r="H44" s="24">
         <v>41015</v>
       </c>
       <c r="I44" s="21">
-        <f>ROUNDDOWN(H44/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="J44" s="22">
@@ -8423,14 +8423,14 @@
         <v>169</v>
       </c>
       <c r="G45" s="23">
-        <f>F45/10/C45</f>
+        <f t="shared" si="2"/>
         <v>0.13739837398373983</v>
       </c>
       <c r="H45" s="24">
         <v>72656</v>
       </c>
       <c r="I45" s="21">
-        <f>ROUNDDOWN(H45/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="J45" s="22">
@@ -8490,14 +8490,14 @@
         <v>155</v>
       </c>
       <c r="G46" s="29">
-        <f>F46/10/C46</f>
+        <f t="shared" si="2"/>
         <v>0.31</v>
       </c>
       <c r="H46" s="30">
         <v>8203</v>
       </c>
       <c r="I46" s="27">
-        <f>ROUNDDOWN(H46/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="J46" s="28">
@@ -8561,14 +8561,14 @@
         <v>135</v>
       </c>
       <c r="G47" s="29">
-        <f>F47/10/C47</f>
+        <f t="shared" si="2"/>
         <v>0.28125</v>
       </c>
       <c r="H47" s="30">
         <v>9375</v>
       </c>
       <c r="I47" s="27">
-        <f>ROUNDDOWN(H47/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J47" s="28">
@@ -8632,14 +8632,14 @@
         <v>187</v>
       </c>
       <c r="G48" s="29">
-        <f>F48/10/C48</f>
+        <f t="shared" si="2"/>
         <v>0.25616438356164384</v>
       </c>
       <c r="H48" s="30">
         <v>17578</v>
       </c>
       <c r="I48" s="27">
-        <f>ROUNDDOWN(H48/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="J48" s="28">
@@ -8703,14 +8703,14 @@
         <v>176</v>
       </c>
       <c r="G49" s="29">
-        <f>F49/10/C49</f>
+        <f t="shared" si="2"/>
         <v>0.25507246376811599</v>
       </c>
       <c r="H49" s="30">
         <v>12890</v>
       </c>
       <c r="I49" s="27">
-        <f>ROUNDDOWN(H49/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="J49" s="28">
@@ -8774,14 +8774,14 @@
         <v>187</v>
       </c>
       <c r="G50" s="29">
-        <f>F50/10/C50</f>
+        <f t="shared" si="2"/>
         <v>0.25972222222222219</v>
       </c>
       <c r="H50" s="30">
         <v>21093</v>
       </c>
       <c r="I50" s="27">
-        <f>ROUNDDOWN(H50/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="J50" s="28">
@@ -8845,14 +8845,14 @@
         <v>192</v>
       </c>
       <c r="G51" s="29">
-        <f>F51/10/C51</f>
+        <f t="shared" si="2"/>
         <v>0.25945945945945947</v>
       </c>
       <c r="H51" s="30">
         <v>18750</v>
       </c>
       <c r="I51" s="27">
-        <f>ROUNDDOWN(H51/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="J51" s="28">
@@ -8916,14 +8916,14 @@
         <v>184</v>
       </c>
       <c r="G52" s="29">
-        <f>F52/10/C52</f>
+        <f t="shared" si="2"/>
         <v>0.14153846153846153</v>
       </c>
       <c r="H52" s="30">
         <v>42187</v>
       </c>
       <c r="I52" s="27">
-        <f>ROUNDDOWN(H52/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="J52" s="28">
@@ -8987,14 +8987,14 @@
         <v>253</v>
       </c>
       <c r="G53" s="29">
-        <f>F53/10/C53</f>
+        <f t="shared" si="2"/>
         <v>0.23644859813084113</v>
       </c>
       <c r="H53" s="30">
         <v>32812</v>
       </c>
       <c r="I53" s="27">
-        <f>ROUNDDOWN(H53/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="J53" s="28">
@@ -9058,14 +9058,14 @@
         <v>212</v>
       </c>
       <c r="G54" s="29">
-        <f>F54/10/C54</f>
+        <f t="shared" si="2"/>
         <v>0.27179487179487177</v>
       </c>
       <c r="H54" s="30">
         <v>35156</v>
       </c>
       <c r="I54" s="27">
-        <f>ROUNDDOWN(H54/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J54" s="28">
@@ -9129,14 +9129,14 @@
         <v>297</v>
       </c>
       <c r="G55" s="29">
-        <f>F55/10/C55</f>
+        <f t="shared" si="2"/>
         <v>0.27499999999999997</v>
       </c>
       <c r="H55" s="30">
         <v>59765</v>
       </c>
       <c r="I55" s="27">
-        <f>ROUNDDOWN(H55/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="J55" s="28">
@@ -9200,14 +9200,14 @@
         <v>248</v>
       </c>
       <c r="G56" s="29">
-        <f>F56/10/C56</f>
+        <f t="shared" si="2"/>
         <v>0.1837037037037037</v>
       </c>
       <c r="H56" s="30">
         <v>53906</v>
       </c>
       <c r="I56" s="27">
-        <f>ROUNDDOWN(H56/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="J56" s="28">
@@ -9271,14 +9271,14 @@
         <v>266</v>
       </c>
       <c r="G57" s="29">
-        <f>F57/10/C57</f>
+        <f t="shared" si="2"/>
         <v>0.22166666666666668</v>
       </c>
       <c r="H57" s="30">
         <v>45703</v>
       </c>
       <c r="I57" s="27">
-        <f>ROUNDDOWN(H57/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="J57" s="28">
@@ -9342,14 +9342,14 @@
         <v>220</v>
       </c>
       <c r="G58" s="29">
-        <f>F58/10/C58</f>
+        <f t="shared" si="2"/>
         <v>0.21782178217821782</v>
       </c>
       <c r="H58" s="30">
         <v>78515</v>
       </c>
       <c r="I58" s="27">
-        <f>ROUNDDOWN(H58/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="J58" s="28">
@@ -9413,14 +9413,14 @@
         <v>271</v>
       </c>
       <c r="G59" s="29">
-        <f>F59/10/C59</f>
+        <f t="shared" si="2"/>
         <v>0.21007751937984498</v>
       </c>
       <c r="H59" s="30">
         <v>50390</v>
       </c>
       <c r="I59" s="27">
-        <f>ROUNDDOWN(H59/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="J59" s="28">
@@ -9484,14 +9484,14 @@
         <v>474</v>
       </c>
       <c r="G60" s="29">
-        <f>F60/10/C60</f>
+        <f t="shared" si="2"/>
         <v>0.36744186046511629</v>
       </c>
       <c r="H60" s="30">
         <v>46875</v>
       </c>
       <c r="I60" s="27">
-        <f>ROUNDDOWN(H60/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="J60" s="28">
@@ -9555,14 +9555,14 @@
         <v>411</v>
       </c>
       <c r="G61" s="29">
-        <f>F61/10/C61</f>
+        <f t="shared" si="2"/>
         <v>0.32109375000000001</v>
       </c>
       <c r="H61" s="30">
         <v>49218</v>
       </c>
       <c r="I61" s="27">
-        <f>ROUNDDOWN(H61/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="J61" s="28">
@@ -9626,14 +9626,14 @@
         <v>144</v>
       </c>
       <c r="G62" s="29">
-        <f>F62/10/C62</f>
+        <f t="shared" si="2"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="H62" s="30">
         <v>43359</v>
       </c>
       <c r="I62" s="27">
-        <f>ROUNDDOWN(H62/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="J62" s="28">
@@ -9697,14 +9697,14 @@
         <v>533</v>
       </c>
       <c r="G63" s="29">
-        <f>F63/10/C63</f>
+        <f t="shared" si="2"/>
         <v>0.41317829457364341</v>
       </c>
       <c r="H63" s="30">
         <v>56250</v>
       </c>
       <c r="I63" s="27">
-        <f>ROUNDDOWN(H63/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="J63" s="28">
@@ -9768,14 +9768,14 @@
         <v>176</v>
       </c>
       <c r="G64" s="20">
-        <f>F64/10/C64</f>
+        <f t="shared" si="2"/>
         <v>0.22857142857142859</v>
       </c>
       <c r="H64" s="18">
         <v>25781</v>
       </c>
       <c r="I64" s="13">
-        <f>ROUNDDOWN(H64/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="J64" s="15">
@@ -9840,14 +9840,14 @@
         <v>177</v>
       </c>
       <c r="G65" s="20">
-        <f>F65/10/C65</f>
+        <f t="shared" si="2"/>
         <v>0.17524752475247524</v>
       </c>
       <c r="H65" s="18">
         <v>43359</v>
       </c>
       <c r="I65" s="13">
-        <f>ROUNDDOWN(H65/1171,0)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="J65" s="15">
@@ -9912,14 +9912,14 @@
         <v>194</v>
       </c>
       <c r="G66" s="20">
-        <f>F66/10/C66</f>
+        <f t="shared" ref="G66:G97" si="4">F66/10/C66</f>
         <v>0.24871794871794869</v>
       </c>
       <c r="H66" s="18">
         <v>35156</v>
       </c>
       <c r="I66" s="13">
-        <f>ROUNDDOWN(H66/1171,0)</f>
+        <f t="shared" ref="I66:I97" si="5">ROUNDDOWN(H66/1171,0)</f>
         <v>30</v>
       </c>
       <c r="J66" s="15">
@@ -9984,14 +9984,14 @@
         <v>118</v>
       </c>
       <c r="G67" s="20">
-        <f>F67/10/C67</f>
+        <f t="shared" si="4"/>
         <v>0.15945945945945947</v>
       </c>
       <c r="H67" s="18">
         <v>31640</v>
       </c>
       <c r="I67" s="13">
-        <f>ROUNDDOWN(H67/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="J67" s="15">
@@ -10056,14 +10056,14 @@
         <v>117</v>
       </c>
       <c r="G68" s="20">
-        <f>F68/10/C68</f>
+        <f t="shared" si="4"/>
         <v>0.10636363636363635</v>
       </c>
       <c r="H68" s="18">
         <v>77343</v>
       </c>
       <c r="I68" s="13">
-        <f>ROUNDDOWN(H68/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="J68" s="15">
@@ -10128,14 +10128,14 @@
         <v>199</v>
       </c>
       <c r="G69" s="20">
-        <f>F69/10/C69</f>
+        <f t="shared" si="4"/>
         <v>0.22873563218390802</v>
       </c>
       <c r="H69" s="18">
         <v>35156</v>
       </c>
       <c r="I69" s="13">
-        <f>ROUNDDOWN(H69/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="J69" s="15">
@@ -10200,14 +10200,14 @@
         <v>199</v>
       </c>
       <c r="G70" s="20">
-        <f>F70/10/C70</f>
+        <f t="shared" si="4"/>
         <v>0.19134615384615383</v>
       </c>
       <c r="H70" s="18">
         <v>76171</v>
       </c>
       <c r="I70" s="13">
-        <f>ROUNDDOWN(H70/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="J70" s="15">
@@ -10272,14 +10272,14 @@
         <v>220</v>
       </c>
       <c r="G71" s="20">
-        <f>F71/10/C71</f>
+        <f t="shared" si="4"/>
         <v>0.27848101265822783</v>
       </c>
       <c r="H71" s="18">
         <v>37500</v>
       </c>
       <c r="I71" s="13">
-        <f>ROUNDDOWN(H71/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="J71" s="15">
@@ -10344,14 +10344,14 @@
         <v>257</v>
       </c>
       <c r="G72" s="20">
-        <f>F72/10/C72</f>
+        <f t="shared" si="4"/>
         <v>0.31728395061728393</v>
       </c>
       <c r="H72" s="18">
         <v>42187</v>
       </c>
       <c r="I72" s="13">
-        <f>ROUNDDOWN(H72/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="J72" s="15">
@@ -10416,14 +10416,14 @@
         <v>204</v>
       </c>
       <c r="G73" s="20">
-        <f>F73/10/C73</f>
+        <f t="shared" si="4"/>
         <v>0.19428571428571428</v>
       </c>
       <c r="H73" s="18">
         <v>107812</v>
       </c>
       <c r="I73" s="13">
-        <f>ROUNDDOWN(H73/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="J73" s="15">
@@ -10488,14 +10488,14 @@
         <v>257</v>
       </c>
       <c r="G74" s="20">
-        <f>F74/10/C74</f>
+        <f t="shared" si="4"/>
         <v>0.30595238095238092</v>
       </c>
       <c r="H74" s="18">
         <v>73828</v>
       </c>
       <c r="I74" s="13">
-        <f>ROUNDDOWN(H74/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="J74" s="15">
@@ -10560,14 +10560,14 @@
         <v>356</v>
       </c>
       <c r="G75" s="20">
-        <f>F75/10/C75</f>
+        <f t="shared" si="4"/>
         <v>0.28253968253968254</v>
       </c>
       <c r="H75" s="18">
         <v>132421</v>
       </c>
       <c r="I75" s="13">
-        <f>ROUNDDOWN(H75/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="J75" s="15">
@@ -10632,14 +10632,14 @@
         <v>218</v>
       </c>
       <c r="G76" s="20">
-        <f>F76/10/C76</f>
+        <f t="shared" si="4"/>
         <v>0.32537313432835824</v>
       </c>
       <c r="H76" s="18">
         <v>18750</v>
       </c>
       <c r="I76" s="13">
-        <f>ROUNDDOWN(H76/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="J76" s="15">
@@ -10704,14 +10704,14 @@
         <v>380</v>
       </c>
       <c r="G77" s="20">
-        <f>F77/10/C77</f>
+        <f t="shared" si="4"/>
         <v>0.27142857142857141</v>
       </c>
       <c r="H77" s="18">
         <v>131250</v>
       </c>
       <c r="I77" s="13">
-        <f>ROUNDDOWN(H77/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="J77" s="15">
@@ -10776,14 +10776,14 @@
         <v>222</v>
       </c>
       <c r="G78" s="20">
-        <f>F78/10/C78</f>
+        <f t="shared" si="4"/>
         <v>0.19473684210526315</v>
       </c>
       <c r="H78" s="18">
         <v>92578</v>
       </c>
       <c r="I78" s="13">
-        <f>ROUNDDOWN(H78/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="J78" s="15">
@@ -10848,14 +10848,14 @@
         <v>348</v>
       </c>
       <c r="G79" s="20">
-        <f>F79/10/C79</f>
+        <f t="shared" si="4"/>
         <v>0.25217391304347825</v>
       </c>
       <c r="H79" s="18">
         <v>298828</v>
       </c>
       <c r="I79" s="13">
-        <f>ROUNDDOWN(H79/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="J79" s="15">
@@ -10920,14 +10920,14 @@
         <v>19</v>
       </c>
       <c r="G80" s="20">
-        <f>F80/10/C80</f>
+        <f t="shared" si="4"/>
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H80" s="18">
         <v>12890</v>
       </c>
       <c r="I80" s="13">
-        <f>ROUNDDOWN(H80/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="J80" s="15">
@@ -10992,14 +10992,14 @@
         <v>19</v>
       </c>
       <c r="G81" s="20">
-        <f>F81/10/C81</f>
+        <f t="shared" si="4"/>
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="H81" s="18">
         <v>3515</v>
       </c>
       <c r="I81" s="13">
-        <f>ROUNDDOWN(H81/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J81" s="15">
@@ -11064,14 +11064,14 @@
         <v>34</v>
       </c>
       <c r="G82" s="20">
-        <f>F82/10/C82</f>
+        <f t="shared" si="4"/>
         <v>0.11724137931034483</v>
       </c>
       <c r="H82" s="18">
         <v>7031</v>
       </c>
       <c r="I82" s="13">
-        <f>ROUNDDOWN(H82/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J82" s="15">
@@ -11136,14 +11136,14 @@
         <v>80</v>
       </c>
       <c r="G83" s="20">
-        <f>F83/10/C83</f>
+        <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
       <c r="H83" s="18">
         <v>22265</v>
       </c>
       <c r="I83" s="13">
-        <f>ROUNDDOWN(H83/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="J83" s="15">
@@ -11208,14 +11208,14 @@
         <v>90</v>
       </c>
       <c r="G84" s="20">
-        <f>F84/10/C84</f>
+        <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
       <c r="H84" s="18">
         <v>24609</v>
       </c>
       <c r="I84" s="13">
-        <f>ROUNDDOWN(H84/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="J84" s="15">
@@ -11280,14 +11280,14 @@
         <v>98</v>
       </c>
       <c r="G85" s="20">
-        <f>F85/10/C85</f>
+        <f t="shared" si="4"/>
         <v>0.12894736842105264</v>
       </c>
       <c r="H85" s="18">
         <v>26953</v>
       </c>
       <c r="I85" s="13">
-        <f>ROUNDDOWN(H85/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="J85" s="15">
@@ -11352,14 +11352,14 @@
         <v>141</v>
       </c>
       <c r="G86" s="20">
-        <f>F86/10/C86</f>
+        <f t="shared" si="4"/>
         <v>0.15666666666666668</v>
       </c>
       <c r="H86" s="18">
         <v>39843</v>
       </c>
       <c r="I86" s="13">
-        <f>ROUNDDOWN(H86/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="J86" s="15">
@@ -11424,14 +11424,14 @@
         <v>158</v>
       </c>
       <c r="G87" s="20">
-        <f>F87/10/C87</f>
+        <f t="shared" si="4"/>
         <v>0.18372093023255814</v>
       </c>
       <c r="H87" s="18">
         <v>60937</v>
       </c>
       <c r="I87" s="13">
-        <f>ROUNDDOWN(H87/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="J87" s="15">
@@ -11496,14 +11496,14 @@
         <v>160</v>
       </c>
       <c r="G88" s="20">
-        <f>F88/10/C88</f>
+        <f t="shared" si="4"/>
         <v>0.11428571428571428</v>
       </c>
       <c r="H88" s="18">
         <v>73828</v>
       </c>
       <c r="I88" s="13">
-        <f>ROUNDDOWN(H88/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="J88" s="15">
@@ -11568,14 +11568,14 @@
         <v>83</v>
       </c>
       <c r="G89" s="20">
-        <f>F89/10/C89</f>
+        <f t="shared" si="4"/>
         <v>0.12205882352941178</v>
       </c>
       <c r="H89" s="18">
         <v>29296</v>
       </c>
       <c r="I89" s="13">
-        <f>ROUNDDOWN(H89/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="J89" s="15">
@@ -11640,14 +11640,14 @@
         <v>68</v>
       </c>
       <c r="G90" s="20">
-        <f>F90/10/C90</f>
+        <f t="shared" si="4"/>
         <v>8.9473684210526316E-2</v>
       </c>
       <c r="H90" s="18">
         <v>26953</v>
       </c>
       <c r="I90" s="13">
-        <f>ROUNDDOWN(H90/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="J90" s="15">
@@ -11712,14 +11712,14 @@
         <v>135</v>
       </c>
       <c r="G91" s="20">
-        <f>F91/10/C91</f>
+        <f t="shared" si="4"/>
         <v>0.1875</v>
       </c>
       <c r="H91" s="18">
         <v>24609</v>
       </c>
       <c r="I91" s="13">
-        <f>ROUNDDOWN(H91/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="J91" s="15">
@@ -11784,14 +11784,14 @@
         <v>140</v>
       </c>
       <c r="G92" s="20">
-        <f>F92/10/C92</f>
+        <f t="shared" si="4"/>
         <v>0.17948717948717949</v>
       </c>
       <c r="H92" s="18">
         <v>31640</v>
       </c>
       <c r="I92" s="13">
-        <f>ROUNDDOWN(H92/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="J92" s="15">
@@ -11856,14 +11856,14 @@
         <v>130</v>
       </c>
       <c r="G93" s="20">
-        <f>F93/10/C93</f>
+        <f t="shared" si="4"/>
         <v>0.14130434782608695</v>
       </c>
       <c r="H93" s="18">
         <v>26953</v>
       </c>
       <c r="I93" s="13">
-        <f>ROUNDDOWN(H93/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="J93" s="15">
@@ -11928,14 +11928,14 @@
         <v>126</v>
       </c>
       <c r="G94" s="20">
-        <f>F94/10/C94</f>
+        <f t="shared" si="4"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="H94" s="18">
         <v>21093</v>
       </c>
       <c r="I94" s="13">
-        <f>ROUNDDOWN(H94/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="J94" s="15">
@@ -12000,14 +12000,14 @@
         <v>147</v>
       </c>
       <c r="G95" s="20">
-        <f>F95/10/C95</f>
+        <f t="shared" si="4"/>
         <v>0.17926829268292682</v>
       </c>
       <c r="H95" s="18">
         <v>29296</v>
       </c>
       <c r="I95" s="13">
-        <f>ROUNDDOWN(H95/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="J95" s="15">
@@ -12072,14 +12072,14 @@
         <v>131</v>
       </c>
       <c r="G96" s="20">
-        <f>F96/10/C96</f>
+        <f t="shared" si="4"/>
         <v>0.15975609756097561</v>
       </c>
       <c r="H96" s="18">
         <v>24609</v>
       </c>
       <c r="I96" s="13">
-        <f>ROUNDDOWN(H96/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="J96" s="15">
@@ -12144,14 +12144,14 @@
         <v>179</v>
       </c>
       <c r="G97" s="20">
-        <f>F97/10/C97</f>
+        <f t="shared" si="4"/>
         <v>0.17899999999999999</v>
       </c>
       <c r="H97" s="18">
         <v>35156</v>
       </c>
       <c r="I97" s="13">
-        <f>ROUNDDOWN(H97/1171,0)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="J97" s="15">
@@ -12216,14 +12216,14 @@
         <v>238</v>
       </c>
       <c r="G98" s="20">
-        <f>F98/10/C98</f>
+        <f t="shared" ref="G98:G129" si="6">F98/10/C98</f>
         <v>0.22884615384615387</v>
       </c>
       <c r="H98" s="18">
         <v>166406</v>
       </c>
       <c r="I98" s="13">
-        <f>ROUNDDOWN(H98/1171,0)</f>
+        <f t="shared" ref="I98:I129" si="7">ROUNDDOWN(H98/1171,0)</f>
         <v>142</v>
       </c>
       <c r="J98" s="15">
@@ -12288,14 +12288,14 @@
         <v>228</v>
       </c>
       <c r="G99" s="20">
-        <f>F99/10/C99</f>
+        <f t="shared" si="6"/>
         <v>0.23265306122448981</v>
       </c>
       <c r="H99" s="18">
         <v>203906</v>
       </c>
       <c r="I99" s="13">
-        <f>ROUNDDOWN(H99/1171,0)</f>
+        <f t="shared" si="7"/>
         <v>174</v>
       </c>
       <c r="J99" s="15">
@@ -12360,14 +12360,14 @@
         <v>119</v>
       </c>
       <c r="G100" s="23">
-        <f>F100/10/C100</f>
+        <f t="shared" si="6"/>
         <v>8.380281690140845E-2</v>
       </c>
       <c r="H100" s="24">
         <v>37500</v>
       </c>
       <c r="I100" s="21">
-        <f>ROUNDDOWN(H100/1171,0)</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="J100" s="22">
@@ -12425,14 +12425,14 @@
         <v>172</v>
       </c>
       <c r="G101" s="23">
-        <f>F101/10/C101</f>
+        <f t="shared" si="6"/>
         <v>0.11096774193548387</v>
       </c>
       <c r="H101" s="24">
         <v>42187</v>
       </c>
       <c r="I101" s="21">
-        <f>ROUNDDOWN(H101/1171,0)</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="J101" s="22">
@@ -12529,19 +12529,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N99 P102:Q1048576">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12576,19 +12576,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N100">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12623,19 +12623,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N101">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12650,8 +12650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7172A816-79DD-4357-AD25-A7860CFF91DA}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M11" activeCellId="1" sqref="M14 M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\GRFStuff\UK Finescale Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC725AB7-76EB-488A-8347-589753AD309D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41813EB0-688C-4A49-A953-2DF427FC03E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37095" yWindow="2250" windowWidth="19965" windowHeight="12675" activeTab="2" xr2:uid="{857BF7F3-4843-4495-BC2D-6D08C3451E58}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{857BF7F3-4843-4495-BC2D-6D08C3451E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Name Stuff" sheetId="4" r:id="rId1"/>
@@ -5288,9 +5288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D8F614-8F67-461D-B4C9-7B9798EA7994}">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
+      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8470,73 +8470,73 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+    <row r="46" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
         <v>45</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="21">
         <v>50</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="21">
         <v>25</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="21">
         <v>350</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="21">
         <v>155</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="23">
         <f t="shared" si="2"/>
         <v>0.31</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="24">
         <v>8203</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="21">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>4.9910256410256411</v>
       </c>
-      <c r="K46" s="30" cm="1">
+      <c r="K46" s="24" cm="1">
         <f t="array" ref="K46">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>53.309803921568623</v>
       </c>
-      <c r="L46" s="30">
+      <c r="L46" s="24">
         <v>458</v>
       </c>
-      <c r="M46" s="27">
+      <c r="M46" s="21">
         <v>1939</v>
       </c>
-      <c r="N46" s="27" t="s">
+      <c r="N46" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O46" s="27">
+      <c r="O46" s="21">
         <v>4</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="Q46" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="R46" s="27" t="str">
+      <c r="R46" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 08 'Gronk' - (EE Shunter)</v>
       </c>
-      <c r="S46" s="27">
+      <c r="S46" s="21">
         <v>7.01</v>
       </c>
-      <c r="T46" s="27">
+      <c r="T46" s="21">
         <v>57.25</v>
       </c>
-      <c r="V46" s="27" t="s">
+      <c r="V46" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="X46" s="31" t="str">
+      <c r="X46" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V46,")")</f>
         <v>Class 08 'Gronk' (EE Shunter)</v>
       </c>
@@ -8612,2077 +8612,2064 @@
         <v>Class 14 'Teddy Bear' (BR Class 14)</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
+    <row r="48" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
         <v>47</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="21">
         <v>73</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="21">
         <v>75</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="21">
         <v>1000</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="21">
         <v>187</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="23">
         <f t="shared" si="2"/>
         <v>0.25616438356164384</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="24">
         <v>17578</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="21">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="J48" s="28">
+      <c r="J48" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>19.288461538461537</v>
       </c>
-      <c r="K48" s="30" cm="1">
+      <c r="K48" s="24" cm="1">
         <f t="array" ref="K48">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>114.23529411764706</v>
       </c>
-      <c r="L48" s="30">
+      <c r="L48" s="24">
         <v>1770</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="21">
         <v>1957</v>
       </c>
-      <c r="N48" s="27" t="s">
+      <c r="N48" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O48" s="27">
+      <c r="O48" s="21">
         <v>6</v>
       </c>
-      <c r="Q48" s="27" t="s">
+      <c r="Q48" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="R48" s="27" t="str">
+      <c r="R48" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 20 'Chopper' - (EE Type 1)</v>
       </c>
-      <c r="S48" s="27">
+      <c r="S48" s="21">
         <v>15.023999999999999</v>
       </c>
-      <c r="T48" s="27">
+      <c r="T48" s="21">
         <v>221.25</v>
       </c>
-      <c r="V48" s="27" t="s">
+      <c r="V48" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="X48" s="31" t="str">
+      <c r="X48" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V48,")")</f>
         <v>Class 20 'Chopper' (EE Type 1)</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
+    <row r="49" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
         <v>48</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="21">
         <v>69</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="21">
         <v>60</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="21">
         <v>900</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49" s="21">
         <v>176</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="23">
         <f t="shared" si="2"/>
         <v>0.25507246376811599</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="24">
         <v>12890</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="21">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J49" s="28">
+      <c r="J49" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>15.714102564102564</v>
       </c>
-      <c r="K49" s="30" cm="1">
+      <c r="K49" s="24" cm="1">
         <f t="array" ref="K49">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>83.772549019607837</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="24">
         <v>1442</v>
       </c>
-      <c r="M49" s="27">
+      <c r="M49" s="21">
         <v>1962</v>
       </c>
-      <c r="N49" s="27" t="s">
+      <c r="N49" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="27">
+      <c r="O49" s="21">
         <v>6</v>
       </c>
-      <c r="Q49" s="27" t="s">
+      <c r="Q49" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="R49" s="27" t="str">
+      <c r="R49" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 17 - (Clayton Type 1)</v>
       </c>
-      <c r="S49" s="27">
+      <c r="S49" s="21">
         <v>11.016999999999999</v>
       </c>
-      <c r="T49" s="27">
+      <c r="T49" s="21">
         <v>180.25</v>
       </c>
-      <c r="V49" s="27" t="s">
+      <c r="V49" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="X49" s="31" t="str">
+      <c r="X49" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V49,")")</f>
         <v>Class 17 (Clayton Type 1)</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+    <row r="50" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
         <v>49</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="21">
         <v>72</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="21">
         <v>90</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="21">
         <v>1250</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="21">
         <v>187</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="23">
         <f t="shared" si="2"/>
         <v>0.25972222222222219</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="24">
         <v>21093</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="21">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>25.02051282051282</v>
       </c>
-      <c r="K50" s="30" cm="1">
+      <c r="K50" s="24" cm="1">
         <f t="array" ref="K50">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>137.08235294117645</v>
       </c>
-      <c r="L50" s="30">
+      <c r="L50" s="24">
         <v>2296</v>
       </c>
-      <c r="M50" s="27">
+      <c r="M50" s="21">
         <v>1958</v>
       </c>
-      <c r="N50" s="27" t="s">
+      <c r="N50" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O50" s="21">
         <v>7</v>
       </c>
-      <c r="Q50" s="27" t="s">
+      <c r="Q50" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="R50" s="27" t="str">
+      <c r="R50" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 24 'Rat' - (Sulzer Type 2)</v>
       </c>
-      <c r="S50" s="27">
+      <c r="S50" s="21">
         <v>18.027000000000001</v>
       </c>
-      <c r="T50" s="27">
+      <c r="T50" s="21">
         <v>287</v>
       </c>
-      <c r="V50" s="27" t="s">
+      <c r="V50" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="X50" s="31" t="str">
+      <c r="X50" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V50,")")</f>
         <v>Class 24 'Rat' (Sulzer Type 2)</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
+    <row r="51" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
         <v>50</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="21">
         <v>74</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="21">
         <v>75</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="21">
         <v>1100</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51" s="21">
         <v>192</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="23">
         <f t="shared" si="2"/>
         <v>0.25945945945945947</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="24">
         <v>18750</v>
       </c>
-      <c r="I51" s="27">
+      <c r="I51" s="21">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="J51" s="28">
+      <c r="J51" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>20.726923076923075</v>
       </c>
-      <c r="K51" s="30" cm="1">
+      <c r="K51" s="24" cm="1">
         <f t="array" ref="K51">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>121.85098039215686</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L51" s="24">
         <v>1902</v>
       </c>
-      <c r="M51" s="27">
+      <c r="M51" s="21">
         <v>1959</v>
       </c>
-      <c r="N51" s="27" t="s">
+      <c r="N51" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O51" s="27">
+      <c r="O51" s="21">
         <v>7</v>
       </c>
-      <c r="Q51" s="27" t="s">
+      <c r="Q51" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="R51" s="27" t="str">
+      <c r="R51" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 23 'Baby Deltic' - (EE Baby Deltic)</v>
       </c>
-      <c r="S51" s="27">
+      <c r="S51" s="21">
         <v>16.026</v>
       </c>
-      <c r="T51" s="27">
+      <c r="T51" s="21">
         <v>237.75</v>
       </c>
-      <c r="V51" s="27" t="s">
+      <c r="V51" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="X51" s="31" t="str">
+      <c r="X51" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V51,")")</f>
         <v>Class 23 'Baby Deltic' (EE Baby Deltic)</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
+    <row r="52" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
         <v>51</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="21">
         <v>130</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="21">
         <v>90</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="21">
         <v>1600</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F52" s="21">
         <v>184</v>
       </c>
-      <c r="G52" s="29">
+      <c r="G52" s="23">
         <f t="shared" si="2"/>
         <v>0.14153846153846153</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H52" s="24">
         <v>42187</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="21">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="J52" s="28">
+      <c r="J52" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>41.475641025641025</v>
       </c>
-      <c r="K52" s="30" cm="1">
+      <c r="K52" s="24" cm="1">
         <f t="array" ref="K52">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>274.16470588235291</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="24">
         <v>3806</v>
       </c>
-      <c r="M52" s="27">
+      <c r="M52" s="21">
         <v>1948</v>
       </c>
-      <c r="N52" s="27" t="s">
+      <c r="N52" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O52" s="27">
+      <c r="O52" s="21">
         <v>8</v>
       </c>
-      <c r="Q52" s="27" t="s">
+      <c r="Q52" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="R52" s="27" t="str">
+      <c r="R52" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class D16 'LMS 10000' - (EE 10000)</v>
       </c>
-      <c r="S52" s="27">
+      <c r="S52" s="21">
         <v>36.055999999999997</v>
       </c>
-      <c r="T52" s="27">
+      <c r="T52" s="21">
         <v>475.75</v>
       </c>
-      <c r="V52" s="27" t="s">
+      <c r="V52" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="X52" s="31" t="str">
+      <c r="X52" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V52,")")</f>
         <v>Class D16 'LMS 10000' (EE 10000)</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
+    <row r="53" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
         <v>52</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="21">
         <v>107</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="21">
         <v>80</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="21">
         <v>1750</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53" s="21">
         <v>253</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G53" s="23">
         <f t="shared" si="2"/>
         <v>0.23644859813084113</v>
       </c>
-      <c r="H53" s="30">
+      <c r="H53" s="24">
         <v>32812</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="21">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="J53" s="28">
+      <c r="J53" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>32.169230769230772</v>
       </c>
-      <c r="K53" s="30" cm="1">
+      <c r="K53" s="24" cm="1">
         <f t="array" ref="K53">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>213.23921568627449</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="24">
         <v>2952</v>
       </c>
-      <c r="M53" s="27">
+      <c r="M53" s="21">
         <v>1960</v>
       </c>
-      <c r="N53" s="27" t="s">
+      <c r="N53" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O53" s="27">
+      <c r="O53" s="21">
         <v>8</v>
       </c>
-      <c r="Q53" s="27" t="s">
+      <c r="Q53" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="R53" s="27" t="str">
+      <c r="R53" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 37 'Tractor' - (EE Type 3)</v>
       </c>
-      <c r="S53" s="27">
+      <c r="S53" s="21">
         <v>28.044</v>
       </c>
-      <c r="T53" s="27">
+      <c r="T53" s="21">
         <v>369</v>
       </c>
-      <c r="V53" s="27" t="s">
+      <c r="V53" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="X53" s="31" t="str">
+      <c r="X53" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V53,")")</f>
         <v>Class 37 'Tractor' (EE Type 3)</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+    <row r="54" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="21">
         <v>53</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="21">
         <v>78</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="21">
         <v>90</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="21">
         <v>2200</v>
       </c>
-      <c r="F54" s="27">
+      <c r="F54" s="21">
         <v>212</v>
       </c>
-      <c r="G54" s="29">
+      <c r="G54" s="23">
         <f t="shared" si="2"/>
         <v>0.27179487179487177</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H54" s="24">
         <v>35156</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="21">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="J54" s="28">
+      <c r="J54" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>43.611538461538458</v>
       </c>
-      <c r="K54" s="30" cm="1">
+      <c r="K54" s="24" cm="1">
         <f t="array" ref="K54">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>228.47058823529412</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="24">
         <v>4002</v>
       </c>
-      <c r="M54" s="27">
+      <c r="M54" s="21">
         <v>1958</v>
       </c>
-      <c r="N54" s="27" t="s">
+      <c r="N54" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O54" s="27">
+      <c r="O54" s="21">
         <v>7</v>
       </c>
-      <c r="Q54" s="27" t="s">
+      <c r="Q54" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="R54" s="27" t="str">
+      <c r="R54" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 41 'Warship' - (WR Warship)</v>
       </c>
-      <c r="S54" s="27">
+      <c r="S54" s="21">
         <v>30.047999999999998</v>
       </c>
-      <c r="T54" s="27">
+      <c r="T54" s="21">
         <v>500.25</v>
       </c>
-      <c r="V54" s="27" t="s">
+      <c r="V54" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="X54" s="31" t="str">
+      <c r="X54" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V54,")")</f>
         <v>Class 41 'Warship' (WR Warship)</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="27">
+    <row r="55" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
         <v>54</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="21">
         <v>108</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="21">
         <v>90</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="21">
         <v>2700</v>
       </c>
-      <c r="F55" s="27">
+      <c r="F55" s="21">
         <v>297</v>
       </c>
-      <c r="G55" s="29">
+      <c r="G55" s="23">
         <f t="shared" si="2"/>
         <v>0.27499999999999997</v>
       </c>
-      <c r="H55" s="30">
+      <c r="H55" s="24">
         <v>59765</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="21">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="J55" s="28">
+      <c r="J55" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>53.615384615384613</v>
       </c>
-      <c r="K55" s="30" cm="1">
+      <c r="K55" s="24" cm="1">
         <f t="array" ref="K55">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>388.4</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="24">
         <v>4920</v>
       </c>
-      <c r="M55" s="27">
+      <c r="M55" s="21">
         <v>1962</v>
       </c>
-      <c r="N55" s="27" t="s">
+      <c r="N55" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O55" s="27">
+      <c r="O55" s="21">
         <v>8</v>
       </c>
-      <c r="Q55" s="27" t="s">
+      <c r="Q55" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="R55" s="27" t="str">
+      <c r="R55" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 52 'Western' - (WR Western)</v>
       </c>
-      <c r="S55" s="27">
+      <c r="S55" s="21">
         <v>51.08</v>
       </c>
-      <c r="T55" s="27">
+      <c r="T55" s="21">
         <v>615</v>
       </c>
-      <c r="V55" s="27" t="s">
+      <c r="V55" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X55" s="31" t="str">
+      <c r="X55" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V55,")")</f>
         <v>Class 52 'Western' (WR Western)</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="27">
+    <row r="56" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
         <v>55</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="21">
         <v>135</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="21">
         <v>90</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="21">
         <v>2500</v>
       </c>
-      <c r="F56" s="27">
+      <c r="F56" s="21">
         <v>248</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G56" s="23">
         <f t="shared" si="2"/>
         <v>0.1837037037037037</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="24">
         <v>53906</v>
       </c>
-      <c r="I56" s="27">
+      <c r="I56" s="21">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="J56" s="28">
+      <c r="J56" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>49.343589743589746</v>
       </c>
-      <c r="K56" s="30" cm="1">
+      <c r="K56" s="24" cm="1">
         <f t="array" ref="K56">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>350.32156862745097</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="24">
         <v>4528</v>
       </c>
-      <c r="M56" s="27">
+      <c r="M56" s="21">
         <v>1959</v>
       </c>
-      <c r="N56" s="27" t="s">
+      <c r="N56" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O56" s="27">
+      <c r="O56" s="21">
         <v>8</v>
       </c>
-      <c r="Q56" s="27" t="s">
+      <c r="Q56" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="R56" s="27" t="str">
+      <c r="R56" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 44 'Peak' - (Sulzer Type 4)</v>
       </c>
-      <c r="S56" s="27">
+      <c r="S56" s="21">
         <v>46.073999999999998</v>
       </c>
-      <c r="T56" s="27">
+      <c r="T56" s="21">
         <v>566</v>
       </c>
-      <c r="V56" s="27" t="s">
+      <c r="V56" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="X56" s="31" t="str">
+      <c r="X56" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V56,")")</f>
         <v>Class 44 'Peak' (Sulzer Type 4)</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="27">
+    <row r="57" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="21">
         <v>56</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="21">
         <v>120</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="21">
         <v>95</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="21">
         <v>2580</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F57" s="21">
         <v>266</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="23">
         <f t="shared" si="2"/>
         <v>0.22166666666666668</v>
       </c>
-      <c r="H57" s="30">
+      <c r="H57" s="24">
         <v>45703</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="21">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>50.76025641025641</v>
       </c>
-      <c r="K57" s="30" cm="1">
+      <c r="K57" s="24" cm="1">
         <f t="array" ref="K57">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>297.01176470588234</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="24">
         <v>4658</v>
       </c>
-      <c r="M57" s="27">
+      <c r="M57" s="21">
         <v>1962</v>
       </c>
-      <c r="N57" s="27" t="s">
+      <c r="N57" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O57" s="27">
+      <c r="O57" s="21">
         <v>8</v>
       </c>
-      <c r="Q57" s="27" t="s">
+      <c r="Q57" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="R57" s="27" t="str">
+      <c r="R57" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 47 'Spoon' - (Brush Type 4)</v>
       </c>
-      <c r="S57" s="27">
+      <c r="S57" s="21">
         <v>39.061999999999998</v>
       </c>
-      <c r="T57" s="27">
+      <c r="T57" s="21">
         <v>582.25</v>
       </c>
-      <c r="V57" s="27" t="s">
+      <c r="V57" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="X57" s="31" t="str">
+      <c r="X57" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V57,")")</f>
         <v>Class 47 'Spoon' (Brush Type 4)</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+    <row r="58" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="21">
         <v>57</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="21">
         <v>101</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58" s="21">
         <v>100</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E58" s="21">
         <v>3300</v>
       </c>
-      <c r="F58" s="27">
+      <c r="F58" s="21">
         <v>220</v>
       </c>
-      <c r="G58" s="29">
+      <c r="G58" s="23">
         <f t="shared" si="2"/>
         <v>0.21782178217821782</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="24">
         <v>78515</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I58" s="21">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="J58" s="28">
+      <c r="J58" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>75.802564102564105</v>
       </c>
-      <c r="K58" s="30" cm="1">
+      <c r="K58" s="24" cm="1">
         <f t="array" ref="K58">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>510.25098039215686</v>
       </c>
-      <c r="L58" s="30">
+      <c r="L58" s="24">
         <v>6956</v>
       </c>
-      <c r="M58" s="27">
+      <c r="M58" s="21">
         <v>1956</v>
       </c>
-      <c r="N58" s="27" t="s">
+      <c r="N58" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O58" s="27">
+      <c r="O58" s="21">
         <v>8</v>
       </c>
-      <c r="Q58" s="27" t="s">
+      <c r="Q58" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="R58" s="27" t="str">
+      <c r="R58" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 55 'Deltic' - (EE Deltic)</v>
       </c>
-      <c r="S58" s="27">
+      <c r="S58" s="21">
         <v>67.105999999999995</v>
       </c>
-      <c r="T58" s="27">
+      <c r="T58" s="21">
         <v>869.5</v>
       </c>
-      <c r="V58" s="27" t="s">
+      <c r="V58" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="X58" s="31" t="str">
+      <c r="X58" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V58,")")</f>
         <v>Class 55 'Deltic' (EE Deltic)</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="27">
+    <row r="59" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="21">
         <v>58</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="21">
         <v>129</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="21">
         <v>80</v>
       </c>
-      <c r="E59" s="27">
+      <c r="E59" s="21">
         <v>3300</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F59" s="21">
         <v>271</v>
       </c>
-      <c r="G59" s="29">
+      <c r="G59" s="23">
         <f t="shared" si="2"/>
         <v>0.21007751937984498</v>
       </c>
-      <c r="H59" s="30">
+      <c r="H59" s="24">
         <v>50390</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="21">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="J59" s="28">
+      <c r="J59" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>50.041025641025641</v>
       </c>
-      <c r="K59" s="30" cm="1">
+      <c r="K59" s="24" cm="1">
         <f t="array" ref="K59">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>327.47450980392153</v>
       </c>
-      <c r="L59" s="30">
+      <c r="L59" s="24">
         <v>4592</v>
       </c>
-      <c r="M59" s="27">
+      <c r="M59" s="21">
         <v>1983</v>
       </c>
-      <c r="N59" s="27" t="s">
+      <c r="N59" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O59" s="27">
+      <c r="O59" s="21">
         <v>8</v>
       </c>
-      <c r="Q59" s="27" t="s">
+      <c r="Q59" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="R59" s="27" t="str">
+      <c r="R59" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 58 'Bone' - (BREL Class 58)</v>
       </c>
-      <c r="S59" s="27">
+      <c r="S59" s="21">
         <v>43.067999999999998</v>
       </c>
-      <c r="T59" s="27">
+      <c r="T59" s="21">
         <v>574</v>
       </c>
-      <c r="V59" s="27" t="s">
+      <c r="V59" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="X59" s="31" t="str">
+      <c r="X59" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V59,")")</f>
         <v>Class 58 'Bone' (BREL Class 58)</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="27">
+    <row r="60" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="21">
         <v>59</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="21">
         <v>129</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="21">
         <v>60</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="21">
         <v>3100</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F60" s="21">
         <v>474</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="23">
         <f t="shared" si="2"/>
         <v>0.36744186046511629</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="24">
         <v>46875</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="21">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="J60" s="28">
+      <c r="J60" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>40.037179487179486</v>
       </c>
-      <c r="K60" s="30" cm="1">
+      <c r="K60" s="24" cm="1">
         <f t="array" ref="K60">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>304.62745098039215</v>
       </c>
-      <c r="L60" s="30">
+      <c r="L60" s="24">
         <v>3674</v>
       </c>
-      <c r="M60" s="27">
+      <c r="M60" s="21">
         <v>1990</v>
       </c>
-      <c r="N60" s="27" t="s">
+      <c r="N60" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O60" s="27">
+      <c r="O60" s="21">
         <v>8</v>
       </c>
-      <c r="Q60" s="27" t="s">
+      <c r="Q60" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="R60" s="27" t="str">
+      <c r="R60" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 60 'Tug' - (Brush Type 5)</v>
       </c>
-      <c r="S60" s="27">
+      <c r="S60" s="21">
         <v>40.063000000000002</v>
       </c>
-      <c r="T60" s="27">
+      <c r="T60" s="21">
         <v>459.25</v>
       </c>
-      <c r="V60" s="27" t="s">
+      <c r="V60" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="X60" s="31" t="str">
+      <c r="X60" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V60,")")</f>
         <v>Class 60 'Tug' (Brush Type 5)</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="27">
+    <row r="61" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
         <v>60</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="21">
         <v>128</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="21">
         <v>75</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="21">
         <v>3300</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="21">
         <v>411</v>
       </c>
-      <c r="G61" s="29">
+      <c r="G61" s="23">
         <f t="shared" si="2"/>
         <v>0.32109375000000001</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="24">
         <v>49218</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="21">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>44.330769230769228</v>
       </c>
-      <c r="K61" s="30" cm="1">
+      <c r="K61" s="24" cm="1">
         <f t="array" ref="K61">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>319.85882352941172</v>
       </c>
-      <c r="L61" s="30">
+      <c r="L61" s="24">
         <v>4068</v>
       </c>
-      <c r="M61" s="27">
+      <c r="M61" s="21">
         <v>1998</v>
       </c>
-      <c r="N61" s="27" t="s">
+      <c r="N61" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O61" s="27">
+      <c r="O61" s="21">
         <v>8</v>
       </c>
-      <c r="Q61" s="27" t="s">
+      <c r="Q61" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="R61" s="27" t="str">
+      <c r="R61" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 66 - (EMD Class 66)</v>
       </c>
-      <c r="S61" s="27">
+      <c r="S61" s="21">
         <v>42.067</v>
       </c>
-      <c r="T61" s="27">
+      <c r="T61" s="21">
         <v>508.5</v>
       </c>
-      <c r="V61" s="27" t="s">
+      <c r="V61" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="X61" s="31" t="str">
+      <c r="X61" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V61,")")</f>
         <v>Class 66 (EMD Class 66)</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
+    <row r="62" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="21">
         <v>61</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="21">
         <v>88</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="21">
         <v>125</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="21">
         <v>3200</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62" s="21">
         <v>144</v>
       </c>
-      <c r="G62" s="29">
+      <c r="G62" s="23">
         <f t="shared" si="2"/>
         <v>0.16363636363636364</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H62" s="24">
         <v>43359</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="21">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="J62" s="28">
+      <c r="J62" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>60.066666666666663</v>
       </c>
-      <c r="K62" s="30" cm="1">
+      <c r="K62" s="24" cm="1">
         <f t="array" ref="K62">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>281.78039215686272</v>
       </c>
-      <c r="L62" s="30">
+      <c r="L62" s="24">
         <v>5512</v>
       </c>
-      <c r="M62" s="27">
+      <c r="M62" s="21">
         <v>1999</v>
       </c>
-      <c r="N62" s="27" t="s">
+      <c r="N62" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O62" s="27">
+      <c r="O62" s="21">
         <v>8</v>
       </c>
-      <c r="Q62" s="27" t="s">
+      <c r="Q62" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="R62" s="27" t="str">
+      <c r="R62" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 67 'Skip' - (EMD Class 67)</v>
       </c>
-      <c r="S62" s="27">
+      <c r="S62" s="21">
         <v>37.058</v>
       </c>
-      <c r="T62" s="27">
+      <c r="T62" s="21">
         <v>689</v>
       </c>
-      <c r="V62" s="27" t="s">
+      <c r="V62" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="X62" s="31" t="str">
+      <c r="X62" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V62,")")</f>
         <v>Class 67 'Skip' (EMD Class 67)</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
+    <row r="63" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="21">
         <v>62</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="21">
         <v>129</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="21">
         <v>75</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="21">
         <v>3700</v>
       </c>
-      <c r="F63" s="27">
+      <c r="F63" s="21">
         <v>533</v>
       </c>
-      <c r="G63" s="29">
+      <c r="G63" s="23">
         <f t="shared" si="2"/>
         <v>0.41317829457364341</v>
       </c>
-      <c r="H63" s="30">
+      <c r="H63" s="24">
         <v>56250</v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="21">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="J63" s="28">
+      <c r="J63" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>50.041025641025641</v>
       </c>
-      <c r="K63" s="30" cm="1">
+      <c r="K63" s="24" cm="1">
         <f t="array" ref="K63">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>365.55294117647054</v>
       </c>
-      <c r="L63" s="30">
+      <c r="L63" s="24">
         <v>4592</v>
       </c>
-      <c r="M63" s="27">
+      <c r="M63" s="21">
         <v>2010</v>
       </c>
-      <c r="N63" s="27" t="s">
+      <c r="N63" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O63" s="27">
+      <c r="O63" s="21">
         <v>8</v>
       </c>
-      <c r="Q63" s="27" t="s">
+      <c r="Q63" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="R63" s="27" t="str">
+      <c r="R63" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 70 (II) - (GE PowerHaul)</v>
       </c>
-      <c r="S63" s="27">
+      <c r="S63" s="21">
         <v>48.076999999999998</v>
       </c>
-      <c r="T63" s="27">
+      <c r="T63" s="21">
         <v>574</v>
       </c>
-      <c r="V63" s="27" t="s">
+      <c r="V63" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="X63" s="31" t="str">
+      <c r="X63" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V63,")")</f>
         <v>Class 70 (II) (GE PowerHaul)</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+    <row r="64" spans="1:24" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
         <v>63</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="21">
         <v>77</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="21">
         <v>90</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="21">
         <v>1420</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="21">
         <v>176</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="23">
         <f t="shared" si="2"/>
         <v>0.22857142857142859</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="24">
         <v>25781</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="21">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>20.726923076923075</v>
       </c>
-      <c r="K64" s="18" cm="1">
+      <c r="K64" s="24" cm="1">
         <f t="array" ref="K64">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>154.60392156862744</v>
       </c>
-      <c r="L64" s="18">
+      <c r="L64" s="24">
         <v>1902</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="21">
         <v>1965</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N64" s="21">
         <v>3</v>
       </c>
-      <c r="O64" s="13">
+      <c r="O64" s="21">
         <v>7</v>
       </c>
-      <c r="Q64" s="13" t="s">
+      <c r="Q64" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="R64" s="13" t="str">
+      <c r="R64" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 73 (JB) - (BR Type JB)</v>
       </c>
-      <c r="S64" s="13">
+      <c r="S64" s="21">
         <v>22.033999999999999</v>
       </c>
-      <c r="T64" s="13">
+      <c r="T64" s="21">
         <v>237.75</v>
       </c>
-      <c r="V64" s="13" t="s">
+      <c r="V64" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="X64" s="19" t="str">
+      <c r="X64" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V64,")")</f>
         <v>Class 73 (JB) (BR Type JB)</v>
       </c>
-      <c r="AB64" s="13"/>
-    </row>
-    <row r="65" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+    </row>
+    <row r="65" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
         <v>64</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="21">
         <v>101</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="21">
         <v>75</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="21">
         <v>1470</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="21">
         <v>177</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G65" s="23">
         <f t="shared" si="2"/>
         <v>0.17524752475247524</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="24">
         <v>43359</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="21">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>23.582051282051282</v>
       </c>
-      <c r="K65" s="18" cm="1">
+      <c r="K65" s="24" cm="1">
         <f t="array" ref="K65">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>260.01568627450979</v>
       </c>
-      <c r="L65" s="18">
+      <c r="L65" s="24">
         <v>2164</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="21">
         <v>1941</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N65" s="21">
         <v>3</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="21">
         <v>7</v>
       </c>
-      <c r="Q65" s="13" t="s">
+      <c r="Q65" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="R65" s="13" t="str">
+      <c r="R65" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 70 (I) - (SR CC)</v>
       </c>
-      <c r="S65" s="13">
+      <c r="S65" s="21">
         <v>37.058</v>
       </c>
-      <c r="T65" s="13">
+      <c r="T65" s="21">
         <v>270.5</v>
       </c>
-      <c r="V65" s="13" t="s">
+      <c r="V65" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="X65" s="19" t="str">
+      <c r="X65" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V65,")")</f>
         <v>Class 70 (I) (SR CC)</v>
       </c>
-      <c r="AB65" s="13"/>
-    </row>
-    <row r="66" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+    </row>
+    <row r="66" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
         <v>65</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="21">
         <v>78</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="21">
         <v>90</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="21">
         <v>2300</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="21">
         <v>194</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="23">
         <f t="shared" ref="G66:G97" si="4">F66/10/C66</f>
         <v>0.24871794871794869</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="24">
         <v>35156</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="21">
         <f t="shared" ref="I66:I97" si="5">ROUNDDOWN(H66/1171,0)</f>
         <v>30</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>37.901282051282053</v>
       </c>
-      <c r="K66" s="18" cm="1">
+      <c r="K66" s="24" cm="1">
         <f t="array" ref="K66">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>210.8235294117647</v>
       </c>
-      <c r="L66" s="18">
+      <c r="L66" s="24">
         <v>3478</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="21">
         <v>1958</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N66" s="21">
         <v>3</v>
       </c>
-      <c r="O66" s="13">
+      <c r="O66" s="21">
         <v>7</v>
       </c>
-      <c r="Q66" s="13" t="s">
+      <c r="Q66" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="R66" s="13" t="str">
+      <c r="R66" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 71 (HA) - (BR Type HA)</v>
       </c>
-      <c r="S66" s="13">
+      <c r="S66" s="21">
         <v>30.047999999999998</v>
       </c>
-      <c r="T66" s="13">
+      <c r="T66" s="21">
         <v>434.75</v>
       </c>
-      <c r="V66" s="13" t="s">
+      <c r="V66" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="X66" s="19" t="str">
+      <c r="X66" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V66,")")</f>
         <v>Class 71 (HA) (BR Type HA)</v>
       </c>
-      <c r="AB66" s="13"/>
-    </row>
-    <row r="67" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+    </row>
+    <row r="67" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
         <v>66</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="21">
         <v>74</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="21">
         <v>45</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="21">
         <v>1100</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="21">
         <v>118</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G67" s="23">
         <f t="shared" si="4"/>
         <v>0.15945945945945947</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="24">
         <v>31640</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="21">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J67" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>15.016666666666666</v>
       </c>
-      <c r="K67" s="18" cm="1">
+      <c r="K67" s="24" cm="1">
         <f t="array" ref="K67">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>189.74117647058824</v>
       </c>
-      <c r="L67" s="18">
+      <c r="L67" s="24">
         <v>1378</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M67" s="21">
         <v>1914</v>
       </c>
-      <c r="N67" s="13" t="s">
+      <c r="N67" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O67" s="13">
+      <c r="O67" s="21">
         <v>5</v>
       </c>
-      <c r="Q67" s="13" t="s">
+      <c r="Q67" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="R67" s="13" t="str">
+      <c r="R67" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>NER EF1 - (NER EF1)</v>
       </c>
-      <c r="S67" s="13">
+      <c r="S67" s="21">
         <v>27.042999999999999</v>
       </c>
-      <c r="T67" s="13">
+      <c r="T67" s="21">
         <v>172.25</v>
       </c>
-      <c r="V67" s="13" t="s">
+      <c r="V67" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="X67" s="19" t="str">
+      <c r="X67" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V67,")")</f>
         <v>NER EF1 (NER EF1)</v>
       </c>
-      <c r="AB67" s="13"/>
-    </row>
-    <row r="68" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+    </row>
+    <row r="68" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="21">
         <v>67</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="21">
         <v>110</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="21">
         <v>80</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="21">
         <v>1800</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="21">
         <v>117</v>
       </c>
-      <c r="G68" s="20">
+      <c r="G68" s="23">
         <f t="shared" si="4"/>
         <v>0.10636363636363635</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="24">
         <v>77343</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="21">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>32.169230769230772</v>
       </c>
-      <c r="K68" s="18" cm="1">
+      <c r="K68" s="24" cm="1">
         <f t="array" ref="K68">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>463.81176470588235</v>
       </c>
-      <c r="L68" s="18">
+      <c r="L68" s="24">
         <v>2952</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="21">
         <v>1920</v>
       </c>
-      <c r="N68" s="13" t="s">
+      <c r="N68" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O68" s="21">
         <v>7</v>
       </c>
-      <c r="Q68" s="13" t="s">
+      <c r="Q68" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="R68" s="13" t="str">
+      <c r="R68" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>NER EE1 - (NER EE1)</v>
       </c>
-      <c r="S68" s="13">
+      <c r="S68" s="21">
         <v>66.103999999999999</v>
       </c>
-      <c r="T68" s="13">
+      <c r="T68" s="21">
         <v>369</v>
       </c>
-      <c r="V68" s="13" t="s">
+      <c r="V68" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="X68" s="19" t="str">
+      <c r="X68" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V68,")")</f>
         <v>NER EE1 (NER EE1)</v>
       </c>
-      <c r="AB68" s="13"/>
-    </row>
-    <row r="69" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+    </row>
+    <row r="69" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="21">
         <v>68</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="21">
         <v>87</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="21">
         <v>65</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="21">
         <v>1360</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="21">
         <v>199</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G69" s="23">
         <f t="shared" si="4"/>
         <v>0.22873563218390802</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="24">
         <v>35156</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="21">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>21.446153846153845</v>
       </c>
-      <c r="K69" s="18" cm="1">
+      <c r="K69" s="24" cm="1">
         <f t="array" ref="K69">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>210.8235294117647</v>
       </c>
-      <c r="L69" s="18">
+      <c r="L69" s="24">
         <v>1968</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M69" s="21">
         <v>1941</v>
       </c>
-      <c r="N69" s="13" t="s">
+      <c r="N69" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O69" s="13">
+      <c r="O69" s="21">
         <v>6</v>
       </c>
-      <c r="Q69" s="13" t="s">
+      <c r="Q69" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="R69" s="13" t="str">
+      <c r="R69" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 76 'EM1' - (Metrovick EM1)</v>
       </c>
-      <c r="S69" s="13">
+      <c r="S69" s="21">
         <v>30.047999999999998</v>
       </c>
-      <c r="T69" s="13">
+      <c r="T69" s="21">
         <v>246</v>
       </c>
-      <c r="V69" s="13" t="s">
+      <c r="V69" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="X69" s="19" t="str">
+      <c r="X69" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V69,")")</f>
         <v>Class 76 'EM1' (Metrovick EM1)</v>
       </c>
-      <c r="AB69" s="13"/>
-    </row>
-    <row r="70" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+    </row>
+    <row r="70" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="21">
         <v>69</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="21">
         <v>104</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="21">
         <v>90</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="21">
         <v>2490</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="21">
         <v>199</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="23">
         <f t="shared" si="4"/>
         <v>0.19134615384615383</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="24">
         <v>76171</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="21">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>48.624358974358977</v>
       </c>
-      <c r="K70" s="18" cm="1">
+      <c r="K70" s="24" cm="1">
         <f t="array" ref="K70">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>456.78431372549016</v>
       </c>
-      <c r="L70" s="18">
+      <c r="L70" s="24">
         <v>4462</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M70" s="21">
         <v>1953</v>
       </c>
-      <c r="N70" s="13" t="s">
+      <c r="N70" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O70" s="13">
+      <c r="O70" s="21">
         <v>7</v>
       </c>
-      <c r="Q70" s="13" t="s">
+      <c r="Q70" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="R70" s="13" t="str">
+      <c r="R70" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 77 'EM2' - (Metrovick EM2)</v>
       </c>
-      <c r="S70" s="13">
+      <c r="S70" s="21">
         <v>65.102999999999994</v>
       </c>
-      <c r="T70" s="13">
+      <c r="T70" s="21">
         <v>557.75</v>
       </c>
-      <c r="V70" s="13" t="s">
+      <c r="V70" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="X70" s="19" t="str">
+      <c r="X70" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V70,")")</f>
         <v>Class 77 'EM2' (Metrovick EM2)</v>
       </c>
-      <c r="AB70" s="13"/>
-    </row>
-    <row r="71" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+    </row>
+    <row r="71" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="21">
         <v>70</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="21">
         <v>79</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="21">
         <v>100</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="21">
         <v>3200</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="21">
         <v>220</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G71" s="23">
         <f t="shared" si="4"/>
         <v>0.27848101265822783</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="24">
         <v>37500</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="21">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>52.917948717948718</v>
       </c>
-      <c r="K71" s="18" cm="1">
+      <c r="K71" s="24" cm="1">
         <f t="array" ref="K71">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>224.87843137254902</v>
       </c>
-      <c r="L71" s="18">
+      <c r="L71" s="24">
         <v>4856</v>
       </c>
-      <c r="M71" s="13">
+      <c r="M71" s="21">
         <v>1959</v>
       </c>
-      <c r="N71" s="13" t="s">
+      <c r="N71" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O71" s="13">
+      <c r="O71" s="21">
         <v>7</v>
       </c>
-      <c r="Q71" s="13" t="s">
+      <c r="Q71" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="R71" s="13" t="str">
+      <c r="R71" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 81 'AL1' - (AEI AL1)</v>
       </c>
-      <c r="S71" s="13">
+      <c r="S71" s="21">
         <v>32.051000000000002</v>
       </c>
-      <c r="T71" s="13">
+      <c r="T71" s="21">
         <v>607</v>
       </c>
-      <c r="V71" s="13" t="s">
+      <c r="V71" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="X71" s="19" t="str">
+      <c r="X71" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V71,")")</f>
         <v>Class 81 'AL1' (AEI AL1)</v>
       </c>
-      <c r="AB71" s="13"/>
-    </row>
-    <row r="72" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+    </row>
+    <row r="72" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
         <v>71</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="21">
         <v>81</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="21">
         <v>100</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="21">
         <v>3600</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="21">
         <v>257</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G72" s="23">
         <f t="shared" si="4"/>
         <v>0.31728395061728393</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="24">
         <v>42187</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="21">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>55.053846153846152</v>
       </c>
-      <c r="K72" s="18" cm="1">
+      <c r="K72" s="24" cm="1">
         <f t="array" ref="K72">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>252.98823529411766</v>
       </c>
-      <c r="L72" s="18">
+      <c r="L72" s="24">
         <v>5052</v>
       </c>
-      <c r="M72" s="13">
+      <c r="M72" s="21">
         <v>1965</v>
       </c>
-      <c r="N72" s="13" t="s">
+      <c r="N72" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O72" s="13">
+      <c r="O72" s="21">
         <v>7</v>
       </c>
-      <c r="Q72" s="13" t="s">
+      <c r="Q72" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="R72" s="13" t="str">
+      <c r="R72" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 86 'AL6' - (EE AL6)</v>
       </c>
-      <c r="S72" s="13">
+      <c r="S72" s="21">
         <v>36.055999999999997</v>
       </c>
-      <c r="T72" s="13">
+      <c r="T72" s="21">
         <v>631.5</v>
       </c>
-      <c r="V72" s="13" t="s">
+      <c r="V72" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="X72" s="19" t="str">
+      <c r="X72" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V72,")")</f>
         <v>Class 86 'AL6' (EE AL6)</v>
       </c>
-      <c r="AB72" s="13"/>
-    </row>
-    <row r="73" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+    </row>
+    <row r="73" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="21">
         <v>72</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="21">
         <v>105</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="21">
         <v>125</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="21">
         <v>5850</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="21">
         <v>204</v>
       </c>
-      <c r="G73" s="20">
+      <c r="G73" s="23">
         <f t="shared" si="4"/>
         <v>0.19428571428571428</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="24">
         <v>107812</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="21">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>100.10384615384615</v>
       </c>
-      <c r="K73" s="18" cm="1">
+      <c r="K73" s="24" cm="1">
         <f t="array" ref="K73">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>646.52549019607841</v>
       </c>
-      <c r="L73" s="18">
+      <c r="L73" s="24">
         <v>9186</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M73" s="21">
         <v>1986</v>
       </c>
-      <c r="N73" s="13" t="s">
+      <c r="N73" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O73" s="13">
+      <c r="O73" s="21">
         <v>8</v>
       </c>
-      <c r="Q73" s="13" t="s">
+      <c r="Q73" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="R73" s="13" t="str">
+      <c r="R73" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 89 'Badger' - (Brush Avocet)</v>
       </c>
-      <c r="S73" s="13">
+      <c r="S73" s="21">
         <v>92.147000000000006</v>
       </c>
-      <c r="T73" s="13">
+      <c r="T73" s="21">
         <v>1148.25</v>
       </c>
-      <c r="V73" s="13" t="s">
+      <c r="V73" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="X73" s="19" t="str">
+      <c r="X73" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V73,")")</f>
         <v>Class 89 'Badger' (Brush Avocet)</v>
       </c>
-      <c r="AB73" s="13"/>
-    </row>
-    <row r="74" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+    </row>
+    <row r="74" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="21">
         <v>73</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="21">
         <v>84</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="21">
         <v>110</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="21">
         <v>5000</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="21">
         <v>257</v>
       </c>
-      <c r="G74" s="20">
+      <c r="G74" s="23">
         <f t="shared" si="4"/>
         <v>0.30595238095238092</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="24">
         <v>73828</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="21">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J74" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>76.5</v>
       </c>
-      <c r="K74" s="18" cm="1">
+      <c r="K74" s="24" cm="1">
         <f t="array" ref="K74">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>442.7294117647059</v>
       </c>
-      <c r="L74" s="18">
+      <c r="L74" s="24">
         <v>7020</v>
       </c>
-      <c r="M74" s="13">
+      <c r="M74" s="21">
         <v>1987</v>
       </c>
-      <c r="N74" s="13" t="s">
+      <c r="N74" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O74" s="13">
+      <c r="O74" s="21">
         <v>7</v>
       </c>
-      <c r="Q74" s="13" t="s">
+      <c r="Q74" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="R74" s="13" t="str">
+      <c r="R74" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 90 - (BREL Class 90)</v>
       </c>
-      <c r="S74" s="13">
+      <c r="S74" s="21">
         <v>63.100999999999999</v>
       </c>
-      <c r="T74" s="13">
+      <c r="T74" s="21">
         <v>877.5</v>
       </c>
-      <c r="V74" s="13" t="s">
+      <c r="V74" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="X74" s="19" t="str">
+      <c r="X74" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V74,")")</f>
         <v>Class 90 (BREL Class 90)</v>
       </c>
-      <c r="AB74" s="13"/>
-    </row>
-    <row r="75" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+    </row>
+    <row r="75" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
         <v>74</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="21">
         <v>126</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="21">
         <v>90</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="21">
         <v>6700</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="21">
         <v>356</v>
       </c>
-      <c r="G75" s="20">
+      <c r="G75" s="23">
         <f t="shared" si="4"/>
         <v>0.28253968253968254</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H75" s="24">
         <v>132421</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="21">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J75" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>90.1</v>
       </c>
-      <c r="K75" s="18" cm="1">
+      <c r="K75" s="24" cm="1">
         <f t="array" ref="K75">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>794.10196078431375</v>
       </c>
-      <c r="L75" s="18">
+      <c r="L75" s="24">
         <v>8268</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M75" s="21">
         <v>1993</v>
       </c>
-      <c r="N75" s="13" t="s">
+      <c r="N75" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O75" s="13">
+      <c r="O75" s="21">
         <v>8</v>
       </c>
-      <c r="Q75" s="13" t="s">
+      <c r="Q75" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="R75" s="13" t="str">
+      <c r="R75" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 92 'Caravan' - (Brush Class 92)</v>
       </c>
-      <c r="S75" s="13">
+      <c r="S75" s="21">
         <v>113.179</v>
       </c>
-      <c r="T75" s="13">
+      <c r="T75" s="21">
         <v>1033.5</v>
       </c>
-      <c r="V75" s="13" t="s">
+      <c r="V75" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="X75" s="19" t="str">
+      <c r="X75" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V75,")")</f>
         <v>Class 92 'Caravan' (Brush Class 92)</v>
       </c>
-      <c r="AB75" s="13"/>
-    </row>
-    <row r="76" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+    </row>
+    <row r="76" spans="1:28" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="21">
         <v>75</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="21">
         <v>67</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="21">
         <v>60</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="21">
         <v>1200</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="21">
         <v>218</v>
       </c>
-      <c r="G76" s="20">
+      <c r="G76" s="23">
         <f t="shared" si="4"/>
         <v>0.32537313432835824</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76" s="24">
         <v>18750</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="21">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>15.714102564102564</v>
       </c>
-      <c r="K76" s="18" cm="1">
+      <c r="K76" s="24" cm="1">
         <f t="array" ref="K76">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>112.43921568627451</v>
       </c>
-      <c r="L76" s="18">
+      <c r="L76" s="24">
         <v>1442</v>
       </c>
-      <c r="M76" s="13">
+      <c r="M76" s="21">
         <v>2020</v>
       </c>
-      <c r="N76" s="13" t="s">
+      <c r="N76" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O76" s="13">
+      <c r="O76" s="21">
         <v>5</v>
       </c>
-      <c r="Q76" s="13" t="s">
+      <c r="Q76" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="R76" s="13" t="str">
+      <c r="R76" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Bidwell Tripworker - (Bidwell)</v>
       </c>
-      <c r="S76" s="13">
+      <c r="S76" s="21">
         <v>16.026</v>
       </c>
-      <c r="T76" s="13">
+      <c r="T76" s="21">
         <v>180.25</v>
       </c>
-      <c r="V76" s="13" t="s">
+      <c r="V76" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="X76" s="19" t="str">
+      <c r="X76" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",V76,")")</f>
         <v>Bidwell Tripworker (Bidwell)</v>
       </c>
-      <c r="AB76" s="13"/>
     </row>
     <row r="77" spans="1:28" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
@@ -12216,14 +12203,14 @@
         <v>238</v>
       </c>
       <c r="G98" s="20">
-        <f t="shared" ref="G98:G129" si="6">F98/10/C98</f>
+        <f t="shared" ref="G98:G101" si="6">F98/10/C98</f>
         <v>0.22884615384615387</v>
       </c>
       <c r="H98" s="18">
         <v>166406</v>
       </c>
       <c r="I98" s="13">
-        <f t="shared" ref="I98:I129" si="7">ROUNDDOWN(H98/1171,0)</f>
+        <f t="shared" ref="I98:I101" si="7">ROUNDDOWN(H98/1171,0)</f>
         <v>142</v>
       </c>
       <c r="J98" s="15">
@@ -12650,7 +12637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7172A816-79DD-4357-AD25-A7860CFF91DA}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M11" activeCellId="1" sqref="M14 M11"/>
     </sheetView>
   </sheetViews>

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\GRFStuff\UK Finescale Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBBFCB0-9372-453D-8CDC-6E9105EF26BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832CC4FB-C160-4DC8-844C-87A2A3B1A17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{857BF7F3-4843-4495-BC2D-6D08C3451E58}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{857BF7F3-4843-4495-BC2D-6D08C3451E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Name Stuff" sheetId="4" r:id="rId1"/>
@@ -2201,118 +2201,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="59">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2666,6 +2554,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3230,6 +3125,111 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3244,42 +3244,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7575EDDE-3AAA-4483-ACE3-DCAE8EA3E8E7}" name="Table2" displayName="Table2" ref="A1:T105" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7575EDDE-3AAA-4483-ACE3-DCAE8EA3E8E7}" name="Table2" displayName="Table2" ref="A1:T105" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:T105" xr:uid="{36D57E6B-8B33-4ACF-A7F0-0856AF37967D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T101">
     <sortCondition ref="A1:A101"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{68CBBF4D-117B-46E6-B7A4-54509CD6E6FB}" name="ID" dataDxfId="56"/>
-    <tableColumn id="19" xr3:uid="{03AC1107-CE99-4984-A642-BF90BC17A239}" name="UKRS Name" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{BF20BF4A-0C5E-449A-ACE9-902DD6F25C69}" name="Weight" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{6F02F023-E63F-47BD-8453-9990FFD54AA5}" name="Speed" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{93D71C14-746F-4DF8-A137-B414A2B01F0B}" name="Power" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{4B59892B-E1F2-4F5C-BD85-8447BA247813}" name="TE" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{AC10C65A-66CC-4985-B3F7-B0FB085872AF}" name="TE Coeff" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{68CBBF4D-117B-46E6-B7A4-54509CD6E6FB}" name="ID" dataDxfId="41"/>
+    <tableColumn id="19" xr3:uid="{03AC1107-CE99-4984-A642-BF90BC17A239}" name="UKRS Name" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{BF20BF4A-0C5E-449A-ACE9-902DD6F25C69}" name="Weight" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{6F02F023-E63F-47BD-8453-9990FFD54AA5}" name="Speed" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{93D71C14-746F-4DF8-A137-B414A2B01F0B}" name="Power" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{4B59892B-E1F2-4F5C-BD85-8447BA247813}" name="TE" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{AC10C65A-66CC-4985-B3F7-B0FB085872AF}" name="TE Coeff" dataDxfId="35">
       <calculatedColumnFormula>F2/10/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C806CAA6-3838-4674-880C-06C79D31398A}" name="Air Drag" dataDxfId="49"/>
-    <tableColumn id="23" xr3:uid="{135FB07C-1FE9-48C6-A372-142B86E05EA8}" name="Air Drag Coef." dataDxfId="48">
+    <tableColumn id="17" xr3:uid="{C806CAA6-3838-4674-880C-06C79D31398A}" name="Air Drag" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{135FB07C-1FE9-48C6-A372-142B86E05EA8}" name="Air Drag Coef." dataDxfId="33">
       <calculatedColumnFormula>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCBBFAF-1597-42B4-A0E0-8848B36F3A85}" name="Cost" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{A935D94E-3872-4036-A743-42E97F0A5706}" name="Cost Factor" dataDxfId="46">
+    <tableColumn id="8" xr3:uid="{7CCBBFAF-1597-42B4-A0E0-8848B36F3A85}" name="Cost" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{A935D94E-3872-4036-A743-42E97F0A5706}" name="Cost Factor" dataDxfId="31">
       <calculatedColumnFormula>ROUNDDOWN(J2/1171,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{025F4854-003D-4C1D-86DE-3CE439FE9C7E}" name="RC Factor?" dataDxfId="45">
+    <tableColumn id="11" xr3:uid="{025F4854-003D-4C1D-86DE-3CE439FE9C7E}" name="RC Factor?" dataDxfId="30">
       <calculatedColumnFormula>Table2[[#This Row],[RunCost]]/(23400/255)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5BCDCD29-35DE-42FD-B065-4D759BF7D38E}" name="New RC" dataDxfId="44">
+    <tableColumn id="14" xr3:uid="{5BCDCD29-35DE-42FD-B065-4D759BF7D38E}" name="New RC" dataDxfId="29">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4EF97444-7DF2-4C1C-9399-2AF176D2421D}" name="RunCost" dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{1BC97C8C-0238-41D7-8180-11A9FE8439B0}" name="Intro Year" dataDxfId="42"/>
-    <tableColumn id="13" xr3:uid="{5B6AB601-40E1-4161-8BD3-27417D3EF971}" name="Propulsion" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{3DD9EBC7-6915-4B09-94B8-EB93AD555BB9}" name="Length" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{6FAB79C9-0044-4515-B975-0FECD4FE0705}" name="Whistle" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{7544EFBE-4B04-489D-B161-77017965D88F}" name="Name" dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{AB5CB6B3-E247-433B-9AAE-1FAD1BCAC333}" name="FullName" dataDxfId="37">
+    <tableColumn id="10" xr3:uid="{4EF97444-7DF2-4C1C-9399-2AF176D2421D}" name="RunCost" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{1BC97C8C-0238-41D7-8180-11A9FE8439B0}" name="Intro Year" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{5B6AB601-40E1-4161-8BD3-27417D3EF971}" name="Propulsion" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{3DD9EBC7-6915-4B09-94B8-EB93AD555BB9}" name="Length" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{6FAB79C9-0044-4515-B975-0FECD4FE0705}" name="Whistle" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{7544EFBE-4B04-489D-B161-77017965D88F}" name="Name" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{AB5CB6B3-E247-433B-9AAE-1FAD1BCAC333}" name="FullName" dataDxfId="22">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3288,40 +3288,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86C7D809-E0DA-4679-B4A9-491D10C625C4}" name="Table1" displayName="Table1" ref="A1:S100" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86C7D809-E0DA-4679-B4A9-491D10C625C4}" name="Table1" displayName="Table1" ref="A1:S100" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:S100" xr:uid="{86C7D809-E0DA-4679-B4A9-491D10C625C4}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{F0988B62-1E4B-4DA4-AF85-98CF7A0BB62C}" name="ID" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{6C3DAFD2-B5B6-4947-BC53-A9C9458F0725}" name="Name" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{ED9D427A-4B36-45C7-A02F-8BD0DD77B5E9}" name="Weight" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{9548E84D-C4FE-46B2-9350-6028631F9F44}" name="Speed" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{20748489-081E-419D-AC6B-372FE5768A07}" name="Cost" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{6CEDAC5A-5CFC-4919-802C-D4A941BB54CE}" name="New Cost" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{F0988B62-1E4B-4DA4-AF85-98CF7A0BB62C}" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{6C3DAFD2-B5B6-4947-BC53-A9C9458F0725}" name="Name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{ED9D427A-4B36-45C7-A02F-8BD0DD77B5E9}" name="Weight" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{9548E84D-C4FE-46B2-9350-6028631F9F44}" name="Speed" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{20748489-081E-419D-AC6B-372FE5768A07}" name="Cost" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{6CEDAC5A-5CFC-4919-802C-D4A941BB54CE}" name="New Cost" dataDxfId="13">
       <calculatedColumnFormula>ROUNDDOWN((1494/255)*Table1[[#This Row],[Cost Factor]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{EF424F8F-7FA6-4793-BF3A-60DD9EEB7163}" name="Cost Factor" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{EF424F8F-7FA6-4793-BF3A-60DD9EEB7163}" name="Cost Factor" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Cost]],'Wagon Costs'!D:E,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F73465CE-43D8-4293-B6BF-5D5365C10B22}" name="RC Factor?" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{F73465CE-43D8-4293-B6BF-5D5365C10B22}" name="RC Factor?" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[RunCost]]/(124/255)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9B59C6C3-FB3F-4980-9AB3-5A1CEEC459C2}" name="New RC" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{9B59C6C3-FB3F-4980-9AB3-5A1CEEC459C2}" name="New RC" dataDxfId="10">
       <calculatedColumnFormula>IF(X2=1,Table1[[#This Row],[RC Factor?]]*(1792/255),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6DF48C41-8E9F-4153-A1C2-66E9BC9790CA}" name="RunCost" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{B2A0025E-CFA5-46F8-98DD-509D6B8E2167}" name="Intro Year" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{2E946355-C8E5-4B63-BC77-D6B0FE9522B9}" name="Length" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{0BDF56F8-A331-4829-8791-E172F6D37265}" name="Capacity (D)" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{32219701-A423-4708-8B46-93D5CBAB6AD2}" name="Capacity (2)" dataDxfId="21">
+    <tableColumn id="9" xr3:uid="{6DF48C41-8E9F-4153-A1C2-66E9BC9790CA}" name="RunCost" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{B2A0025E-CFA5-46F8-98DD-509D6B8E2167}" name="Intro Year" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{2E946355-C8E5-4B63-BC77-D6B0FE9522B9}" name="Length" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{0BDF56F8-A331-4829-8791-E172F6D37265}" name="Capacity (D)" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{32219701-A423-4708-8B46-93D5CBAB6AD2}" name="Capacity (2)" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Capacity (D)]]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{82FC54E3-BC6E-4FAD-9DB7-25D6FC06B77F}" name="Capacity (4)" dataDxfId="20">
+    <tableColumn id="19" xr3:uid="{82FC54E3-BC6E-4FAD-9DB7-25D6FC06B77F}" name="Capacity (4)" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Capacity (D)]]*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3F4C0448-F5B2-49FF-A4B0-B6C47E30AF5C}" name="Capacity (R)" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{ED1CEE75-E7B9-4CB0-9E2A-4140191C4EE4}" name="Capacity (T)" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{692F26B5-5EE4-424C-A39C-048687D2AD44}" name="Carries" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{A96C7EAA-24E2-4227-9C9D-044DD168DC44}" name="Alt Name" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{3F4C0448-F5B2-49FF-A4B0-B6C47E30AF5C}" name="Capacity (R)" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{ED1CEE75-E7B9-4CB0-9E2A-4140191C4EE4}" name="Capacity (T)" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{692F26B5-5EE4-424C-A39C-048687D2AD44}" name="Carries" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{A96C7EAA-24E2-4227-9C9D-044DD168DC44}" name="Alt Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14878,9 +14878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D8F614-8F67-461D-B4C9-7B9798EA7994}">
   <dimension ref="A1:AD105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23071,19 +23071,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P99 R102:S1048576">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="17" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="19" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23118,19 +23118,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P100">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="13" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23165,24 +23165,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P101">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q33" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -23193,9 +23196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85BF7ED-5695-4CE1-BF5A-80E789BE5EBA}">
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23710,7 +23713,9 @@
       <c r="J8" s="42">
         <v>74</v>
       </c>
-      <c r="K8" s="37"/>
+      <c r="K8" s="37">
+        <v>1948</v>
+      </c>
       <c r="L8" s="37">
         <v>8</v>
       </c>
@@ -23773,7 +23778,9 @@
       <c r="J9" s="42">
         <v>74</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="37">
+        <v>1969</v>
+      </c>
       <c r="L9" s="37">
         <v>8</v>
       </c>
@@ -23836,7 +23843,9 @@
       <c r="J10" s="42">
         <v>74</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="K10" s="37">
+        <v>1985</v>
+      </c>
       <c r="L10" s="37">
         <v>8</v>
       </c>
@@ -23964,7 +23973,9 @@
       <c r="J12" s="42">
         <v>74</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="37">
+        <v>1985</v>
+      </c>
       <c r="L12" s="37">
         <v>8</v>
       </c>
@@ -24027,7 +24038,9 @@
       <c r="J13" s="42">
         <v>74</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="37">
+        <v>2000</v>
+      </c>
       <c r="L13" s="37">
         <v>8</v>
       </c>
@@ -24415,7 +24428,9 @@
       <c r="J19" s="42">
         <v>34</v>
       </c>
-      <c r="K19" s="37"/>
+      <c r="K19" s="37">
+        <v>1969</v>
+      </c>
       <c r="L19" s="37">
         <v>7</v>
       </c>
@@ -24478,7 +24493,9 @@
       <c r="J20" s="42">
         <v>34</v>
       </c>
-      <c r="K20" s="37"/>
+      <c r="K20" s="37">
+        <v>1985</v>
+      </c>
       <c r="L20" s="37">
         <v>7</v>
       </c>
@@ -28521,7 +28538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I100">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\GRFStuff\UK Finescale Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832CC4FB-C160-4DC8-844C-87A2A3B1A17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F567D-BE40-486C-AF24-89E2AAB07AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{857BF7F3-4843-4495-BC2D-6D08C3451E58}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{857BF7F3-4843-4495-BC2D-6D08C3451E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Name Stuff" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="622">
   <si>
     <t>Propulsion</t>
   </si>
@@ -1928,6 +1928,9 @@
   </si>
   <si>
     <t>Air Drag Coef.</t>
+  </si>
+  <si>
+    <t>4-6-2 'Pacific II'</t>
   </si>
 </sst>
 </file>
@@ -2200,7 +2203,154 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2554,13 +2704,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3125,111 +3268,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3244,42 +3282,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7575EDDE-3AAA-4483-ACE3-DCAE8EA3E8E7}" name="Table2" displayName="Table2" ref="A1:T105" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:T105" xr:uid="{36D57E6B-8B33-4ACF-A7F0-0856AF37967D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T101">
-    <sortCondition ref="A1:A101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7575EDDE-3AAA-4483-ACE3-DCAE8EA3E8E7}" name="Table2" displayName="Table2" ref="A1:T108" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:T108" xr:uid="{36D57E6B-8B33-4ACF-A7F0-0856AF37967D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T104">
+    <sortCondition ref="A1:A104"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{68CBBF4D-117B-46E6-B7A4-54509CD6E6FB}" name="ID" dataDxfId="41"/>
-    <tableColumn id="19" xr3:uid="{03AC1107-CE99-4984-A642-BF90BC17A239}" name="UKRS Name" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{BF20BF4A-0C5E-449A-ACE9-902DD6F25C69}" name="Weight" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{6F02F023-E63F-47BD-8453-9990FFD54AA5}" name="Speed" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{93D71C14-746F-4DF8-A137-B414A2B01F0B}" name="Power" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{4B59892B-E1F2-4F5C-BD85-8447BA247813}" name="TE" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{AC10C65A-66CC-4985-B3F7-B0FB085872AF}" name="TE Coeff" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{68CBBF4D-117B-46E6-B7A4-54509CD6E6FB}" name="ID" dataDxfId="61"/>
+    <tableColumn id="19" xr3:uid="{03AC1107-CE99-4984-A642-BF90BC17A239}" name="UKRS Name" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{BF20BF4A-0C5E-449A-ACE9-902DD6F25C69}" name="Weight" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{6F02F023-E63F-47BD-8453-9990FFD54AA5}" name="Speed" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{93D71C14-746F-4DF8-A137-B414A2B01F0B}" name="Power" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{4B59892B-E1F2-4F5C-BD85-8447BA247813}" name="TE" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{AC10C65A-66CC-4985-B3F7-B0FB085872AF}" name="TE Coeff" dataDxfId="55">
       <calculatedColumnFormula>F2/10/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C806CAA6-3838-4674-880C-06C79D31398A}" name="Air Drag" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{135FB07C-1FE9-48C6-A372-142B86E05EA8}" name="Air Drag Coef." dataDxfId="33">
+    <tableColumn id="17" xr3:uid="{C806CAA6-3838-4674-880C-06C79D31398A}" name="Air Drag" dataDxfId="54"/>
+    <tableColumn id="23" xr3:uid="{135FB07C-1FE9-48C6-A372-142B86E05EA8}" name="Air Drag Coef." dataDxfId="53">
       <calculatedColumnFormula>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCBBFAF-1597-42B4-A0E0-8848B36F3A85}" name="Cost" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{A935D94E-3872-4036-A743-42E97F0A5706}" name="Cost Factor" dataDxfId="31">
+    <tableColumn id="8" xr3:uid="{7CCBBFAF-1597-42B4-A0E0-8848B36F3A85}" name="Cost" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{A935D94E-3872-4036-A743-42E97F0A5706}" name="Cost Factor" dataDxfId="51">
       <calculatedColumnFormula>ROUNDDOWN(J2/1171,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{025F4854-003D-4C1D-86DE-3CE439FE9C7E}" name="RC Factor?" dataDxfId="30">
+    <tableColumn id="11" xr3:uid="{025F4854-003D-4C1D-86DE-3CE439FE9C7E}" name="RC Factor?" dataDxfId="50">
       <calculatedColumnFormula>Table2[[#This Row],[RunCost]]/(23400/255)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5BCDCD29-35DE-42FD-B065-4D759BF7D38E}" name="New RC" dataDxfId="29">
+    <tableColumn id="14" xr3:uid="{5BCDCD29-35DE-42FD-B065-4D759BF7D38E}" name="New RC" dataDxfId="49">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4EF97444-7DF2-4C1C-9399-2AF176D2421D}" name="RunCost" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{1BC97C8C-0238-41D7-8180-11A9FE8439B0}" name="Intro Year" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{5B6AB601-40E1-4161-8BD3-27417D3EF971}" name="Propulsion" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{3DD9EBC7-6915-4B09-94B8-EB93AD555BB9}" name="Length" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{6FAB79C9-0044-4515-B975-0FECD4FE0705}" name="Whistle" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{7544EFBE-4B04-489D-B161-77017965D88F}" name="Name" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{AB5CB6B3-E247-433B-9AAE-1FAD1BCAC333}" name="FullName" dataDxfId="22">
+    <tableColumn id="10" xr3:uid="{4EF97444-7DF2-4C1C-9399-2AF176D2421D}" name="RunCost" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{1BC97C8C-0238-41D7-8180-11A9FE8439B0}" name="Intro Year" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{5B6AB601-40E1-4161-8BD3-27417D3EF971}" name="Propulsion" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{3DD9EBC7-6915-4B09-94B8-EB93AD555BB9}" name="Length" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{6FAB79C9-0044-4515-B975-0FECD4FE0705}" name="Whistle" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{7544EFBE-4B04-489D-B161-77017965D88F}" name="Name" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{AB5CB6B3-E247-433B-9AAE-1FAD1BCAC333}" name="FullName" dataDxfId="42">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3288,40 +3326,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86C7D809-E0DA-4679-B4A9-491D10C625C4}" name="Table1" displayName="Table1" ref="A1:S100" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86C7D809-E0DA-4679-B4A9-491D10C625C4}" name="Table1" displayName="Table1" ref="A1:S100" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:S100" xr:uid="{86C7D809-E0DA-4679-B4A9-491D10C625C4}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{F0988B62-1E4B-4DA4-AF85-98CF7A0BB62C}" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{6C3DAFD2-B5B6-4947-BC53-A9C9458F0725}" name="Name" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{ED9D427A-4B36-45C7-A02F-8BD0DD77B5E9}" name="Weight" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{9548E84D-C4FE-46B2-9350-6028631F9F44}" name="Speed" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{20748489-081E-419D-AC6B-372FE5768A07}" name="Cost" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{6CEDAC5A-5CFC-4919-802C-D4A941BB54CE}" name="New Cost" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{F0988B62-1E4B-4DA4-AF85-98CF7A0BB62C}" name="ID" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{6C3DAFD2-B5B6-4947-BC53-A9C9458F0725}" name="Name" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{ED9D427A-4B36-45C7-A02F-8BD0DD77B5E9}" name="Weight" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{9548E84D-C4FE-46B2-9350-6028631F9F44}" name="Speed" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{20748489-081E-419D-AC6B-372FE5768A07}" name="Cost" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{6CEDAC5A-5CFC-4919-802C-D4A941BB54CE}" name="New Cost" dataDxfId="34">
       <calculatedColumnFormula>ROUNDDOWN((1494/255)*Table1[[#This Row],[Cost Factor]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{EF424F8F-7FA6-4793-BF3A-60DD9EEB7163}" name="Cost Factor" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{EF424F8F-7FA6-4793-BF3A-60DD9EEB7163}" name="Cost Factor" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Cost]],'Wagon Costs'!D:E,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F73465CE-43D8-4293-B6BF-5D5365C10B22}" name="RC Factor?" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{F73465CE-43D8-4293-B6BF-5D5365C10B22}" name="RC Factor?" dataDxfId="32">
       <calculatedColumnFormula>Table1[[#This Row],[RunCost]]/(124/255)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9B59C6C3-FB3F-4980-9AB3-5A1CEEC459C2}" name="New RC" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{9B59C6C3-FB3F-4980-9AB3-5A1CEEC459C2}" name="New RC" dataDxfId="31">
       <calculatedColumnFormula>IF(X2=1,Table1[[#This Row],[RC Factor?]]*(1792/255),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6DF48C41-8E9F-4153-A1C2-66E9BC9790CA}" name="RunCost" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{B2A0025E-CFA5-46F8-98DD-509D6B8E2167}" name="Intro Year" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{2E946355-C8E5-4B63-BC77-D6B0FE9522B9}" name="Length" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{0BDF56F8-A331-4829-8791-E172F6D37265}" name="Capacity (D)" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{32219701-A423-4708-8B46-93D5CBAB6AD2}" name="Capacity (2)" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{6DF48C41-8E9F-4153-A1C2-66E9BC9790CA}" name="RunCost" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{B2A0025E-CFA5-46F8-98DD-509D6B8E2167}" name="Intro Year" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{2E946355-C8E5-4B63-BC77-D6B0FE9522B9}" name="Length" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{0BDF56F8-A331-4829-8791-E172F6D37265}" name="Capacity (D)" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{32219701-A423-4708-8B46-93D5CBAB6AD2}" name="Capacity (2)" dataDxfId="26">
       <calculatedColumnFormula>Table1[[#This Row],[Capacity (D)]]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{82FC54E3-BC6E-4FAD-9DB7-25D6FC06B77F}" name="Capacity (4)" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{82FC54E3-BC6E-4FAD-9DB7-25D6FC06B77F}" name="Capacity (4)" dataDxfId="25">
       <calculatedColumnFormula>Table1[[#This Row],[Capacity (D)]]*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3F4C0448-F5B2-49FF-A4B0-B6C47E30AF5C}" name="Capacity (R)" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{ED1CEE75-E7B9-4CB0-9E2A-4140191C4EE4}" name="Capacity (T)" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{692F26B5-5EE4-424C-A39C-048687D2AD44}" name="Carries" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{A96C7EAA-24E2-4227-9C9D-044DD168DC44}" name="Alt Name" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{3F4C0448-F5B2-49FF-A4B0-B6C47E30AF5C}" name="Capacity (R)" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{ED1CEE75-E7B9-4CB0-9E2A-4140191C4EE4}" name="Capacity (T)" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{692F26B5-5EE4-424C-A39C-048687D2AD44}" name="Carries" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{A96C7EAA-24E2-4227-9C9D-044DD168DC44}" name="Alt Name" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14876,11 +14914,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D8F614-8F67-461D-B4C9-7B9798EA7994}">
-  <dimension ref="A1:AD105"/>
+  <dimension ref="A1:AD108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17469,7 +17507,7 @@
         <v>142</v>
       </c>
       <c r="G34" s="23">
-        <f t="shared" ref="G34:G65" si="2">F34/10/C34</f>
+        <f t="shared" ref="G34:G68" si="2">F34/10/C34</f>
         <v>0.11093749999999999</v>
       </c>
       <c r="H34" s="44">
@@ -17483,7 +17521,7 @@
         <v>37500</v>
       </c>
       <c r="K34" s="21">
-        <f t="shared" ref="K34:K65" si="3">ROUNDDOWN(J34/1171,0)</f>
+        <f t="shared" ref="K34:K68" si="3">ROUNDDOWN(J34/1171,0)</f>
         <v>32</v>
       </c>
       <c r="L34" s="22">
@@ -17700,7 +17738,7 @@
         <v>132</v>
       </c>
       <c r="G37" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G37" si="4">F37/10/C37</f>
         <v>8.7417218543046349E-2</v>
       </c>
       <c r="H37" s="44">
@@ -17714,7 +17752,7 @@
         <v>44531</v>
       </c>
       <c r="K37" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K37" si="5">ROUNDDOWN(J37/1171,0)</f>
         <v>38</v>
       </c>
       <c r="L37" s="22">
@@ -17760,54 +17798,54 @@
     </row>
     <row r="38" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>309</v>
+        <v>621</v>
       </c>
       <c r="C38" s="21">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D38" s="21">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E38" s="21">
-        <v>2000</v>
+        <v>1750</v>
       </c>
       <c r="F38" s="21">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G38" s="23">
         <f t="shared" si="2"/>
-        <v>9.5180722891566275E-2</v>
+        <v>8.9403973509933773E-2</v>
       </c>
       <c r="H38" s="44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I38" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.05</v>
       </c>
       <c r="J38" s="24">
-        <v>49218</v>
+        <v>44531</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L38" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>80.09615384615384</v>
+        <v>59.347435897435894</v>
       </c>
       <c r="M38" s="24" cm="1">
         <f t="array" ref="M38">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>344.23529411764702</v>
+        <v>311.45098039215685</v>
       </c>
       <c r="N38" s="24">
-        <v>7350</v>
+        <v>5446</v>
       </c>
       <c r="O38" s="53">
-        <v>1936</v>
+        <v>1922</v>
       </c>
       <c r="P38" s="21" t="s">
         <v>8</v>
@@ -17816,230 +17854,150 @@
         <v>565</v>
       </c>
       <c r="R38" s="21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="S38" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T38" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Gresley A4 'Streak' - (4-6-2 'Streak')</v>
+        <v>Gresley A1 'Pacific' - (4-6-2 'Pacific II')</v>
       </c>
       <c r="U38" s="13">
-        <v>42.067</v>
+        <v>38.06</v>
       </c>
       <c r="V38" s="13">
-        <v>918.75</v>
+        <v>680.75</v>
       </c>
       <c r="Z38" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD38" s="13"/>
+    </row>
+    <row r="39" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="G39" s="20" t="e">
+        <f>F39/10/C39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="50">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="51">
+        <f>ROUNDDOWN(J39/1171,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="18" t="e" cm="1">
+        <f t="array" ref="M39">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v xml:space="preserve"> - ()</v>
+      </c>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="Z39" s="19"/>
+      <c r="AD39" s="13"/>
+    </row>
+    <row r="40" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="G40" s="20" t="e">
+        <f>F40/10/C40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="50">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="18"/>
+      <c r="K40" s="51">
+        <f>ROUNDDOWN(J40/1171,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="15">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="18" t="e" cm="1">
+        <f t="array" ref="M40">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N40" s="18"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v xml:space="preserve"> - ()</v>
+      </c>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="Z40" s="19"/>
+      <c r="AD40" s="13"/>
+    </row>
+    <row r="41" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>37</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="AD38" s="13"/>
-    </row>
-    <row r="39" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
-        <v>38</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="C39" s="21">
-        <v>164</v>
-      </c>
-      <c r="D39" s="21">
-        <v>110</v>
-      </c>
-      <c r="E39" s="21">
-        <v>2750</v>
-      </c>
-      <c r="F39" s="21">
-        <v>182</v>
-      </c>
-      <c r="G39" s="23">
-        <f t="shared" si="2"/>
-        <v>0.11097560975609756</v>
-      </c>
-      <c r="H39" s="44">
-        <v>14</v>
-      </c>
-      <c r="I39" s="48">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="J39" s="24">
-        <v>48046</v>
-      </c>
-      <c r="K39" s="21">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="L39" s="22">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>103.67820512820512</v>
-      </c>
-      <c r="M39" s="24" cm="1">
-        <f t="array" ref="M39">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>336.03921568627447</v>
-      </c>
-      <c r="N39" s="24">
-        <v>9514</v>
-      </c>
-      <c r="O39" s="53">
-        <v>1937</v>
-      </c>
-      <c r="P39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q39" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="R39" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="S39" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="T39" s="21" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Stanier 8P 'Coronation' - (4-6-2 'Coronation')</v>
-      </c>
-      <c r="U39" s="21">
-        <v>41.064999999999998</v>
-      </c>
-      <c r="V39" s="21">
-        <v>1189.25</v>
-      </c>
-      <c r="Z39" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>39</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="C40" s="21">
-        <v>144</v>
-      </c>
-      <c r="D40" s="21">
-        <v>110</v>
-      </c>
-      <c r="E40" s="21">
-        <v>2100</v>
-      </c>
-      <c r="F40" s="21">
-        <v>165</v>
-      </c>
-      <c r="G40" s="23">
-        <f t="shared" si="2"/>
-        <v>0.11458333333333333</v>
-      </c>
-      <c r="H40" s="44">
-        <v>14</v>
-      </c>
-      <c r="I40" s="48">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="J40" s="24">
-        <v>42187</v>
-      </c>
-      <c r="K40" s="21">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="L40" s="22">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>75.083333333333329</v>
-      </c>
-      <c r="M40" s="24" cm="1">
-        <f t="array" ref="M40">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>295.05882352941171</v>
-      </c>
-      <c r="N40" s="24">
-        <v>6890</v>
-      </c>
-      <c r="O40" s="53">
-        <v>1941</v>
-      </c>
-      <c r="P40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q40" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="R40" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="S40" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="T40" s="21" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Bulleid 'Merchant Navy' - (4-6-2 'Merchant Navy')</v>
-      </c>
-      <c r="U40" s="21">
-        <v>36.055999999999997</v>
-      </c>
-      <c r="V40" s="21">
-        <v>861.25</v>
-      </c>
-      <c r="Z40" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>40</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>312</v>
-      </c>
       <c r="C41" s="21">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D41" s="21">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E41" s="21">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="F41" s="21">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="G41" s="23">
         <f t="shared" si="2"/>
-        <v>0.10303030303030303</v>
+        <v>9.5180722891566275E-2</v>
       </c>
       <c r="H41" s="44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I41" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.05</v>
       </c>
       <c r="J41" s="24">
-        <v>38671</v>
+        <v>49218</v>
       </c>
       <c r="K41" s="21">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L41" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>75.083333333333329</v>
+        <v>80.09615384615384</v>
       </c>
       <c r="M41" s="24" cm="1">
         <f t="array" ref="M41">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>270.47058823529409</v>
+        <v>344.23529411764702</v>
       </c>
       <c r="N41" s="24">
-        <v>6890</v>
+        <v>7350</v>
       </c>
       <c r="O41" s="53">
-        <v>1945</v>
+        <v>1936</v>
       </c>
       <c r="P41" s="21" t="s">
         <v>8</v>
@@ -18048,132 +18006,132 @@
         <v>565</v>
       </c>
       <c r="R41" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S41" s="21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="T41" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Bulleid 'Light Pacific' - (4-6-2 'Light Pacific')</v>
-      </c>
-      <c r="U41" s="21">
-        <v>33.051000000000002</v>
-      </c>
-      <c r="V41" s="21">
-        <v>861.25</v>
-      </c>
-      <c r="Z41" s="25" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+        <v>Gresley A4 'Streak' - (4-6-2 'Streak')</v>
+      </c>
+      <c r="U41" s="13">
+        <v>42.067</v>
+      </c>
+      <c r="V41" s="13">
+        <v>918.75</v>
+      </c>
+      <c r="Z41" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD41" s="13"/>
+    </row>
+    <row r="42" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C42" s="21">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="D42" s="21">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E42" s="21">
-        <v>2000</v>
+        <v>2750</v>
       </c>
       <c r="F42" s="21">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G42" s="23">
         <f t="shared" si="2"/>
-        <v>0.15692307692307692</v>
+        <v>0.11097560975609756</v>
       </c>
       <c r="H42" s="44">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I42" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J42" s="24">
-        <v>45703</v>
+        <v>48046</v>
       </c>
       <c r="K42" s="21">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L42" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>49.343589743589746</v>
+        <v>103.67820512820512</v>
       </c>
       <c r="M42" s="24" cm="1">
         <f t="array" ref="M42">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>319.64705882352939</v>
+        <v>336.03921568627447</v>
       </c>
       <c r="N42" s="24">
-        <v>4528</v>
+        <v>9514</v>
       </c>
       <c r="O42" s="53">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="P42" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="21">
-        <v>8</v>
+      <c r="Q42" s="21" t="s">
+        <v>565</v>
       </c>
       <c r="R42" s="21" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="S42" s="21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="T42" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Bulleid 'Leader' - (0-6-6-0 'Leader')</v>
-      </c>
-      <c r="U42" s="13">
-        <v>39.061999999999998</v>
-      </c>
-      <c r="V42" s="13">
-        <v>566</v>
-      </c>
-      <c r="Z42" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD42" s="13"/>
-    </row>
-    <row r="43" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+        <v>Stanier 8P 'Coronation' - (4-6-2 'Coronation')</v>
+      </c>
+      <c r="U42" s="21">
+        <v>41.064999999999998</v>
+      </c>
+      <c r="V42" s="21">
+        <v>1189.25</v>
+      </c>
+      <c r="Z42" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C43" s="21">
         <v>144</v>
       </c>
       <c r="D43" s="21">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E43" s="21">
-        <v>1950</v>
+        <v>2100</v>
       </c>
       <c r="F43" s="21">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="G43" s="23">
         <f t="shared" si="2"/>
-        <v>9.9305555555555564E-2</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="H43" s="44">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I43" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="J43" s="24">
         <v>42187</v>
@@ -18184,17 +18142,17 @@
       </c>
       <c r="L43" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>59.347435897435894</v>
+        <v>75.083333333333329</v>
       </c>
       <c r="M43" s="24" cm="1">
         <f t="array" ref="M43">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>295.05882352941171</v>
       </c>
       <c r="N43" s="24">
-        <v>5446</v>
+        <v>6890</v>
       </c>
       <c r="O43" s="53">
-        <v>1951</v>
+        <v>1941</v>
       </c>
       <c r="P43" s="21" t="s">
         <v>8</v>
@@ -18206,73 +18164,72 @@
         <v>575</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="T43" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>BR Class 7 'Britannia' - (4-6-2 'Britannia')</v>
-      </c>
-      <c r="U43" s="13">
+        <v>Bulleid 'Merchant Navy' - (4-6-2 'Merchant Navy')</v>
+      </c>
+      <c r="U43" s="21">
         <v>36.055999999999997</v>
       </c>
-      <c r="V43" s="13">
-        <v>680.75</v>
-      </c>
-      <c r="Z43" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD43" s="13"/>
-    </row>
-    <row r="44" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="V43" s="21">
+        <v>861.25</v>
+      </c>
+      <c r="Z43" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C44" s="21">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D44" s="21">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E44" s="21">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="F44" s="21">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="G44" s="23">
         <f t="shared" si="2"/>
-        <v>0.12624113475177307</v>
+        <v>0.10303030303030303</v>
       </c>
       <c r="H44" s="44">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I44" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="J44" s="24">
-        <v>41015</v>
+        <v>38671</v>
       </c>
       <c r="K44" s="21">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L44" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>59.347435897435894</v>
+        <v>75.083333333333329</v>
       </c>
       <c r="M44" s="24" cm="1">
         <f t="array" ref="M44">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>286.86274509803917</v>
+        <v>270.47058823529409</v>
       </c>
       <c r="N44" s="24">
-        <v>5446</v>
+        <v>6890</v>
       </c>
       <c r="O44" s="53">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="P44" s="21" t="s">
         <v>8</v>
@@ -18284,510 +18241,509 @@
         <v>575</v>
       </c>
       <c r="S44" s="21" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="T44" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v>Bulleid 'Light Pacific' - (4-6-2 'Light Pacific')</v>
+      </c>
+      <c r="U44" s="21">
+        <v>33.051000000000002</v>
+      </c>
+      <c r="V44" s="21">
+        <v>861.25</v>
+      </c>
+      <c r="Z44" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>41</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="21">
+        <v>130</v>
+      </c>
+      <c r="D45" s="21">
+        <v>70</v>
+      </c>
+      <c r="E45" s="21">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="21">
+        <v>204</v>
+      </c>
+      <c r="G45" s="23">
+        <f t="shared" si="2"/>
+        <v>0.15692307692307692</v>
+      </c>
+      <c r="H45" s="44">
+        <v>20</v>
+      </c>
+      <c r="I45" s="48">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J45" s="24">
+        <v>45703</v>
+      </c>
+      <c r="K45" s="21">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="L45" s="22">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>49.343589743589746</v>
+      </c>
+      <c r="M45" s="24" cm="1">
+        <f t="array" ref="M45">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>319.64705882352939</v>
+      </c>
+      <c r="N45" s="24">
+        <v>4528</v>
+      </c>
+      <c r="O45" s="53">
+        <v>1949</v>
+      </c>
+      <c r="P45" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="21">
+        <v>8</v>
+      </c>
+      <c r="R45" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="S45" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="T45" s="21" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v>Bulleid 'Leader' - (0-6-6-0 'Leader')</v>
+      </c>
+      <c r="U45" s="13">
+        <v>39.061999999999998</v>
+      </c>
+      <c r="V45" s="13">
+        <v>566</v>
+      </c>
+      <c r="Z45" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD45" s="13"/>
+    </row>
+    <row r="46" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>42</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="21">
+        <v>144</v>
+      </c>
+      <c r="D46" s="21">
+        <v>100</v>
+      </c>
+      <c r="E46" s="21">
+        <v>1950</v>
+      </c>
+      <c r="F46" s="21">
+        <v>143</v>
+      </c>
+      <c r="G46" s="23">
+        <f t="shared" si="2"/>
+        <v>9.9305555555555564E-2</v>
+      </c>
+      <c r="H46" s="44">
+        <v>23</v>
+      </c>
+      <c r="I46" s="48">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="J46" s="24">
+        <v>42187</v>
+      </c>
+      <c r="K46" s="21">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="L46" s="22">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>59.347435897435894</v>
+      </c>
+      <c r="M46" s="24" cm="1">
+        <f t="array" ref="M46">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>295.05882352941171</v>
+      </c>
+      <c r="N46" s="24">
+        <v>5446</v>
+      </c>
+      <c r="O46" s="53">
+        <v>1951</v>
+      </c>
+      <c r="P46" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="R46" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="S46" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="T46" s="21" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v>BR Class 7 'Britannia' - (4-6-2 'Britannia')</v>
+      </c>
+      <c r="U46" s="13">
+        <v>36.055999999999997</v>
+      </c>
+      <c r="V46" s="13">
+        <v>680.75</v>
+      </c>
+      <c r="Z46" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD46" s="13"/>
+    </row>
+    <row r="47" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>43</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="21">
+        <v>141</v>
+      </c>
+      <c r="D47" s="21">
+        <v>70</v>
+      </c>
+      <c r="E47" s="21">
+        <v>1950</v>
+      </c>
+      <c r="F47" s="21">
+        <v>178</v>
+      </c>
+      <c r="G47" s="23">
+        <f t="shared" si="2"/>
+        <v>0.12624113475177307</v>
+      </c>
+      <c r="H47" s="44">
+        <v>23</v>
+      </c>
+      <c r="I47" s="48">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="J47" s="24">
+        <v>41015</v>
+      </c>
+      <c r="K47" s="21">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="L47" s="22">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>59.347435897435894</v>
+      </c>
+      <c r="M47" s="24" cm="1">
+        <f t="array" ref="M47">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>286.86274509803917</v>
+      </c>
+      <c r="N47" s="24">
+        <v>5446</v>
+      </c>
+      <c r="O47" s="53">
+        <v>1954</v>
+      </c>
+      <c r="P47" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="R47" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="S47" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="T47" s="21" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>BR 9F 'Star' - (2-10-0 'Star')</v>
       </c>
-      <c r="U44" s="13">
+      <c r="U47" s="13">
         <v>35.055</v>
       </c>
-      <c r="V44" s="13">
+      <c r="V47" s="13">
         <v>680.75</v>
       </c>
-      <c r="Z44" s="19" t="s">
+      <c r="Z47" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="AD44" s="13"/>
-    </row>
-    <row r="45" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
+      <c r="AD47" s="13"/>
+    </row>
+    <row r="48" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
         <v>44</v>
       </c>
-      <c r="B45" s="22" t="str">
+      <c r="B48" s="22" t="str">
         <f>Table2[[#This Row],[Name]]</f>
         <v>EE 'GT3'</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C48" s="21">
         <v>123</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D48" s="21">
         <v>90</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E48" s="21">
         <v>2750</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F48" s="21">
         <v>169</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G48" s="23">
         <f t="shared" si="2"/>
         <v>0.13739837398373983</v>
       </c>
-      <c r="H45" s="44">
+      <c r="H48" s="44">
         <v>18</v>
       </c>
-      <c r="I45" s="48">
+      <c r="I48" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.06</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J48" s="24">
         <v>72656</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K48" s="21">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L48" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>80.793589743589749</v>
       </c>
-      <c r="M45" s="24" cm="1">
-        <f t="array" ref="M45">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M48" s="24" cm="1">
+        <f t="array" ref="M48">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>472.1725490196078</v>
       </c>
-      <c r="N45" s="24">
+      <c r="N48" s="24">
         <v>7414</v>
       </c>
-      <c r="O45" s="53">
+      <c r="O48" s="53">
         <v>1958</v>
       </c>
-      <c r="P45" s="21" t="s">
+      <c r="P48" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q45" s="21" t="s">
+      <c r="Q48" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="S45" s="21" t="s">
+      <c r="S48" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="T45" s="21" t="str">
+      <c r="T48" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>EE 'GT3' - (EE 'GT3')</v>
       </c>
-      <c r="U45" s="21">
+      <c r="U48" s="21">
         <v>62.098999999999997</v>
       </c>
-      <c r="V45" s="21">
+      <c r="V48" s="21">
         <v>926.75</v>
       </c>
-      <c r="Z45" s="25" t="s">
+      <c r="Z48" s="25" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
+    <row r="49" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
         <v>45</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B49" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C49" s="21">
         <v>50</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D49" s="21">
         <v>25</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E49" s="21">
         <v>350</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F49" s="21">
         <v>155</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G49" s="23">
         <f t="shared" si="2"/>
         <v>0.31</v>
       </c>
-      <c r="H46" s="44">
+      <c r="H49" s="44">
         <v>58</v>
       </c>
-      <c r="I46" s="48">
+      <c r="I49" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J49" s="24">
         <v>8203</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K49" s="21">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L49" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>4.9910256410256411</v>
       </c>
-      <c r="M46" s="24" cm="1">
-        <f t="array" ref="M46">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M49" s="24" cm="1">
+        <f t="array" ref="M49">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>53.309803921568623</v>
       </c>
-      <c r="N46" s="24">
+      <c r="N49" s="24">
         <v>458</v>
       </c>
-      <c r="O46" s="53">
+      <c r="O49" s="53">
         <v>1939</v>
       </c>
-      <c r="P46" s="21" t="s">
+      <c r="P49" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="21">
+      <c r="Q49" s="21">
         <v>4</v>
       </c>
-      <c r="S46" s="21" t="s">
+      <c r="S49" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="T46" s="21" t="str">
+      <c r="T49" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 08 'Gronk' - (EE Shunter)</v>
       </c>
-      <c r="U46" s="21">
+      <c r="U49" s="21">
         <v>7.01</v>
       </c>
-      <c r="V46" s="21">
+      <c r="V49" s="21">
         <v>57.25</v>
       </c>
-      <c r="X46" s="21" t="s">
+      <c r="X49" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z46" s="25" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X46,")")</f>
+      <c r="Z49" s="25" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X49,")")</f>
         <v>Class 08 'Gronk' (EE Shunter)</v>
       </c>
     </row>
-    <row r="47" spans="1:30" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
+    <row r="50" spans="1:26" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
         <v>46</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B50" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C50" s="27">
         <v>48</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D50" s="27">
         <v>40</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E50" s="27">
         <v>650</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F50" s="27">
         <v>135</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G50" s="29">
         <f t="shared" si="2"/>
         <v>0.28125</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H50" s="45">
         <v>36</v>
       </c>
-      <c r="I47" s="49">
+      <c r="I50" s="49">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.12</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J50" s="30">
         <v>9375</v>
       </c>
-      <c r="K47" s="27">
+      <c r="K50" s="27">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L50" s="28">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>9.2846153846153854</v>
       </c>
-      <c r="M47" s="30" cm="1">
-        <f t="array" ref="M47">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M50" s="30" cm="1">
+        <f t="array" ref="M50">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>60.925490196078428</v>
       </c>
-      <c r="N47" s="30">
+      <c r="N50" s="30">
         <v>852</v>
       </c>
-      <c r="O47" s="54">
+      <c r="O50" s="54">
         <v>1964</v>
       </c>
-      <c r="P47" s="27" t="s">
+      <c r="P50" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="27">
+      <c r="Q50" s="27">
         <v>4</v>
       </c>
-      <c r="S47" s="27" t="s">
+      <c r="S50" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="T47" s="27" t="str">
+      <c r="T50" s="27" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 14 'Teddy Bear' - (BR Class 14)</v>
       </c>
-      <c r="U47" s="27">
+      <c r="U50" s="27">
         <v>8.0120000000000005</v>
       </c>
-      <c r="V47" s="27">
+      <c r="V50" s="27">
         <v>106.5</v>
       </c>
-      <c r="X47" s="27" t="s">
+      <c r="X50" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Z47" s="31" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X47,")")</f>
+      <c r="Z50" s="31" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X50,")")</f>
         <v>Class 14 'Teddy Bear' (BR Class 14)</v>
       </c>
     </row>
-    <row r="48" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
+    <row r="51" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
         <v>47</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B51" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C51" s="21">
         <v>73</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D51" s="21">
         <v>75</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E51" s="21">
         <v>1000</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F51" s="21">
         <v>187</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G51" s="23">
         <f t="shared" si="2"/>
         <v>0.25616438356164384</v>
-      </c>
-      <c r="H48" s="44">
-        <v>19</v>
-      </c>
-      <c r="I48" s="48">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J48" s="24">
-        <v>17578</v>
-      </c>
-      <c r="K48" s="21">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="L48" s="22">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>19.288461538461537</v>
-      </c>
-      <c r="M48" s="24" cm="1">
-        <f t="array" ref="M48">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>114.23529411764706</v>
-      </c>
-      <c r="N48" s="24">
-        <v>1770</v>
-      </c>
-      <c r="O48" s="53">
-        <v>1957</v>
-      </c>
-      <c r="P48" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q48" s="21">
-        <v>6</v>
-      </c>
-      <c r="S48" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="T48" s="21" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 20 'Chopper' - (EE Type 1)</v>
-      </c>
-      <c r="U48" s="21">
-        <v>15.023999999999999</v>
-      </c>
-      <c r="V48" s="21">
-        <v>221.25</v>
-      </c>
-      <c r="X48" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z48" s="25" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X48,")")</f>
-        <v>Class 20 'Chopper' (EE Type 1)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
-        <v>48</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="21">
-        <v>69</v>
-      </c>
-      <c r="D49" s="21">
-        <v>60</v>
-      </c>
-      <c r="E49" s="21">
-        <v>900</v>
-      </c>
-      <c r="F49" s="21">
-        <v>176</v>
-      </c>
-      <c r="G49" s="23">
-        <f t="shared" si="2"/>
-        <v>0.25507246376811599</v>
-      </c>
-      <c r="H49" s="44">
-        <v>24</v>
-      </c>
-      <c r="I49" s="48">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="J49" s="24">
-        <v>12890</v>
-      </c>
-      <c r="K49" s="21">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="L49" s="22">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>15.714102564102564</v>
-      </c>
-      <c r="M49" s="24" cm="1">
-        <f t="array" ref="M49">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>83.772549019607837</v>
-      </c>
-      <c r="N49" s="24">
-        <v>1442</v>
-      </c>
-      <c r="O49" s="53">
-        <v>1962</v>
-      </c>
-      <c r="P49" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="21">
-        <v>6</v>
-      </c>
-      <c r="S49" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="T49" s="21" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 17 - (Clayton Type 1)</v>
-      </c>
-      <c r="U49" s="21">
-        <v>11.016999999999999</v>
-      </c>
-      <c r="V49" s="21">
-        <v>180.25</v>
-      </c>
-      <c r="X49" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z49" s="25" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X49,")")</f>
-        <v>Class 17 (Clayton Type 1)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
-        <v>49</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="21">
-        <v>72</v>
-      </c>
-      <c r="D50" s="21">
-        <v>90</v>
-      </c>
-      <c r="E50" s="21">
-        <v>1250</v>
-      </c>
-      <c r="F50" s="21">
-        <v>187</v>
-      </c>
-      <c r="G50" s="23">
-        <f t="shared" si="2"/>
-        <v>0.25972222222222219</v>
-      </c>
-      <c r="H50" s="44">
-        <v>16</v>
-      </c>
-      <c r="I50" s="48">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="J50" s="24">
-        <v>21093</v>
-      </c>
-      <c r="K50" s="21">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="L50" s="22">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>25.02051282051282</v>
-      </c>
-      <c r="M50" s="24" cm="1">
-        <f t="array" ref="M50">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>137.08235294117645</v>
-      </c>
-      <c r="N50" s="24">
-        <v>2296</v>
-      </c>
-      <c r="O50" s="53">
-        <v>1958</v>
-      </c>
-      <c r="P50" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q50" s="21">
-        <v>7</v>
-      </c>
-      <c r="S50" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="T50" s="21" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 24 'Rat' - (Sulzer Type 2)</v>
-      </c>
-      <c r="U50" s="21">
-        <v>18.027000000000001</v>
-      </c>
-      <c r="V50" s="21">
-        <v>287</v>
-      </c>
-      <c r="X50" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z50" s="25" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X50,")")</f>
-        <v>Class 24 'Rat' (Sulzer Type 2)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
-        <v>50</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="21">
-        <v>74</v>
-      </c>
-      <c r="D51" s="21">
-        <v>75</v>
-      </c>
-      <c r="E51" s="21">
-        <v>1100</v>
-      </c>
-      <c r="F51" s="21">
-        <v>192</v>
-      </c>
-      <c r="G51" s="23">
-        <f t="shared" si="2"/>
-        <v>0.25945945945945947</v>
       </c>
       <c r="H51" s="44">
         <v>19</v>
@@ -18797,259 +18753,259 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J51" s="24">
-        <v>18750</v>
+        <v>17578</v>
       </c>
       <c r="K51" s="21">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L51" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>20.726923076923075</v>
+        <v>19.288461538461537</v>
       </c>
       <c r="M51" s="24" cm="1">
         <f t="array" ref="M51">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>121.85098039215686</v>
+        <v>114.23529411764706</v>
       </c>
       <c r="N51" s="24">
-        <v>1902</v>
+        <v>1770</v>
       </c>
       <c r="O51" s="53">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="P51" s="21" t="s">
         <v>6</v>
       </c>
       <c r="Q51" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S51" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T51" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 23 'Baby Deltic' - (EE Baby Deltic)</v>
+        <v>Class 20 'Chopper' - (EE Type 1)</v>
       </c>
       <c r="U51" s="21">
-        <v>16.026</v>
+        <v>15.023999999999999</v>
       </c>
       <c r="V51" s="21">
-        <v>237.75</v>
+        <v>221.25</v>
       </c>
       <c r="X51" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z51" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X51,")")</f>
-        <v>Class 23 'Baby Deltic' (EE Baby Deltic)</v>
+        <v>Class 20 'Chopper' (EE Type 1)</v>
       </c>
     </row>
     <row r="52" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C52" s="21">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="D52" s="21">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E52" s="21">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="F52" s="21">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G52" s="23">
         <f t="shared" si="2"/>
-        <v>0.14153846153846153</v>
+        <v>0.25507246376811599</v>
       </c>
       <c r="H52" s="44">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I52" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J52" s="24">
-        <v>42187</v>
+        <v>12890</v>
       </c>
       <c r="K52" s="21">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L52" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>41.475641025641025</v>
+        <v>15.714102564102564</v>
       </c>
       <c r="M52" s="24" cm="1">
         <f t="array" ref="M52">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>274.16470588235291</v>
+        <v>83.772549019607837</v>
       </c>
       <c r="N52" s="24">
-        <v>3806</v>
+        <v>1442</v>
       </c>
       <c r="O52" s="53">
-        <v>1948</v>
+        <v>1962</v>
       </c>
       <c r="P52" s="21" t="s">
         <v>6</v>
       </c>
       <c r="Q52" s="21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S52" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="T52" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class D16 'LMS 10000' - (EE 10000)</v>
+        <v>Class 17 - (Clayton Type 1)</v>
       </c>
       <c r="U52" s="21">
-        <v>36.055999999999997</v>
+        <v>11.016999999999999</v>
       </c>
       <c r="V52" s="21">
-        <v>475.75</v>
+        <v>180.25</v>
       </c>
       <c r="X52" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z52" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X52,")")</f>
-        <v>Class D16 'LMS 10000' (EE 10000)</v>
+        <v>Class 17 (Clayton Type 1)</v>
       </c>
     </row>
     <row r="53" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C53" s="21">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D53" s="21">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E53" s="21">
-        <v>1750</v>
+        <v>1250</v>
       </c>
       <c r="F53" s="21">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="G53" s="23">
         <f t="shared" si="2"/>
-        <v>0.23644859813084113</v>
+        <v>0.25972222222222219</v>
       </c>
       <c r="H53" s="44">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.06</v>
       </c>
       <c r="J53" s="24">
-        <v>32812</v>
+        <v>21093</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L53" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>32.169230769230772</v>
+        <v>25.02051282051282</v>
       </c>
       <c r="M53" s="24" cm="1">
         <f t="array" ref="M53">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>213.23921568627449</v>
+        <v>137.08235294117645</v>
       </c>
       <c r="N53" s="24">
-        <v>2952</v>
+        <v>2296</v>
       </c>
       <c r="O53" s="53">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="P53" s="21" t="s">
         <v>6</v>
       </c>
       <c r="Q53" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S53" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T53" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 37 'Tractor' - (EE Type 3)</v>
+        <v>Class 24 'Rat' - (Sulzer Type 2)</v>
       </c>
       <c r="U53" s="21">
-        <v>28.044</v>
+        <v>18.027000000000001</v>
       </c>
       <c r="V53" s="21">
-        <v>369</v>
+        <v>287</v>
       </c>
       <c r="X53" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Z53" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X53,")")</f>
-        <v>Class 37 'Tractor' (EE Type 3)</v>
+        <v>Class 24 'Rat' (Sulzer Type 2)</v>
       </c>
     </row>
     <row r="54" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C54" s="21">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D54" s="21">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E54" s="21">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="F54" s="21">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="G54" s="23">
         <f t="shared" si="2"/>
-        <v>0.27179487179487177</v>
+        <v>0.25945945945945947</v>
       </c>
       <c r="H54" s="44">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I54" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J54" s="24">
-        <v>35156</v>
+        <v>18750</v>
       </c>
       <c r="K54" s="21">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L54" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>43.611538461538458</v>
+        <v>20.726923076923075</v>
       </c>
       <c r="M54" s="24" cm="1">
         <f t="array" ref="M54">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>228.47058823529412</v>
+        <v>121.85098039215686</v>
       </c>
       <c r="N54" s="24">
-        <v>4002</v>
+        <v>1902</v>
       </c>
       <c r="O54" s="53">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="P54" s="21" t="s">
         <v>6</v>
@@ -19058,48 +19014,48 @@
         <v>7</v>
       </c>
       <c r="S54" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T54" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 41 'Warship' - (WR Warship)</v>
+        <v>Class 23 'Baby Deltic' - (EE Baby Deltic)</v>
       </c>
       <c r="U54" s="21">
-        <v>30.047999999999998</v>
+        <v>16.026</v>
       </c>
       <c r="V54" s="21">
-        <v>500.25</v>
+        <v>237.75</v>
       </c>
       <c r="X54" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z54" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X54,")")</f>
-        <v>Class 41 'Warship' (WR Warship)</v>
+        <v>Class 23 'Baby Deltic' (EE Baby Deltic)</v>
       </c>
     </row>
     <row r="55" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C55" s="21">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D55" s="21">
         <v>90</v>
       </c>
       <c r="E55" s="21">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="F55" s="21">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="G55" s="23">
         <f t="shared" si="2"/>
-        <v>0.27499999999999997</v>
+        <v>0.14153846153846153</v>
       </c>
       <c r="H55" s="44">
         <v>16</v>
@@ -19109,25 +19065,25 @@
         <v>0.06</v>
       </c>
       <c r="J55" s="24">
-        <v>59765</v>
+        <v>42187</v>
       </c>
       <c r="K55" s="21">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="L55" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>53.615384615384613</v>
+        <v>41.475641025641025</v>
       </c>
       <c r="M55" s="24" cm="1">
         <f t="array" ref="M55">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>388.4</v>
+        <v>274.16470588235291</v>
       </c>
       <c r="N55" s="24">
-        <v>4920</v>
+        <v>3806</v>
       </c>
       <c r="O55" s="53">
-        <v>1962</v>
+        <v>1948</v>
       </c>
       <c r="P55" s="21" t="s">
         <v>6</v>
@@ -19136,76 +19092,76 @@
         <v>8</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="T55" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 52 'Western' - (WR Western)</v>
+        <v>Class D16 'LMS 10000' - (EE 10000)</v>
       </c>
       <c r="U55" s="21">
-        <v>51.08</v>
+        <v>36.055999999999997</v>
       </c>
       <c r="V55" s="21">
-        <v>615</v>
+        <v>475.75</v>
       </c>
       <c r="X55" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Z55" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X55,")")</f>
-        <v>Class 52 'Western' (WR Western)</v>
+        <v>Class D16 'LMS 10000' (EE 10000)</v>
       </c>
     </row>
     <row r="56" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C56" s="21">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D56" s="21">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E56" s="21">
-        <v>2500</v>
+        <v>1750</v>
       </c>
       <c r="F56" s="21">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G56" s="23">
         <f t="shared" si="2"/>
-        <v>0.1837037037037037</v>
+        <v>0.23644859813084113</v>
       </c>
       <c r="H56" s="44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.06</v>
       </c>
       <c r="J56" s="24">
-        <v>53906</v>
+        <v>32812</v>
       </c>
       <c r="K56" s="21">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="L56" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>49.343589743589746</v>
+        <v>32.169230769230772</v>
       </c>
       <c r="M56" s="24" cm="1">
         <f t="array" ref="M56">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>350.32156862745097</v>
+        <v>213.23921568627449</v>
       </c>
       <c r="N56" s="24">
-        <v>4528</v>
+        <v>2952</v>
       </c>
       <c r="O56" s="53">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="P56" s="21" t="s">
         <v>6</v>
@@ -19214,154 +19170,154 @@
         <v>8</v>
       </c>
       <c r="S56" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="T56" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 44 'Peak' - (Sulzer Type 4)</v>
+        <v>Class 37 'Tractor' - (EE Type 3)</v>
       </c>
       <c r="U56" s="21">
-        <v>46.073999999999998</v>
+        <v>28.044</v>
       </c>
       <c r="V56" s="21">
-        <v>566</v>
+        <v>369</v>
       </c>
       <c r="X56" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Z56" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X56,")")</f>
-        <v>Class 44 'Peak' (Sulzer Type 4)</v>
+        <v>Class 37 'Tractor' (EE Type 3)</v>
       </c>
     </row>
     <row r="57" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C57" s="21">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D57" s="21">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E57" s="21">
-        <v>2580</v>
+        <v>2200</v>
       </c>
       <c r="F57" s="21">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="G57" s="23">
         <f t="shared" si="2"/>
-        <v>0.22166666666666668</v>
+        <v>0.27179487179487177</v>
       </c>
       <c r="H57" s="44">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I57" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J57" s="24">
-        <v>45703</v>
+        <v>35156</v>
       </c>
       <c r="K57" s="21">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L57" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>50.76025641025641</v>
+        <v>43.611538461538458</v>
       </c>
       <c r="M57" s="24" cm="1">
         <f t="array" ref="M57">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>297.01176470588234</v>
+        <v>228.47058823529412</v>
       </c>
       <c r="N57" s="24">
-        <v>4658</v>
+        <v>4002</v>
       </c>
       <c r="O57" s="53">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="P57" s="21" t="s">
         <v>6</v>
       </c>
       <c r="Q57" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S57" s="21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T57" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 47 'Spoon' - (Brush Type 4)</v>
+        <v>Class 41 'Warship' - (WR Warship)</v>
       </c>
       <c r="U57" s="21">
-        <v>39.061999999999998</v>
+        <v>30.047999999999998</v>
       </c>
       <c r="V57" s="21">
-        <v>582.25</v>
+        <v>500.25</v>
       </c>
       <c r="X57" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z57" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X57,")")</f>
-        <v>Class 47 'Spoon' (Brush Type 4)</v>
+        <v>Class 41 'Warship' (WR Warship)</v>
       </c>
     </row>
     <row r="58" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C58" s="21">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D58" s="21">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E58" s="21">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="F58" s="21">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="G58" s="23">
         <f t="shared" si="2"/>
-        <v>0.21782178217821782</v>
+        <v>0.27499999999999997</v>
       </c>
       <c r="H58" s="44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I58" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J58" s="24">
-        <v>78515</v>
+        <v>59765</v>
       </c>
       <c r="K58" s="21">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L58" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>75.802564102564105</v>
+        <v>53.615384615384613</v>
       </c>
       <c r="M58" s="24" cm="1">
         <f t="array" ref="M58">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>510.25098039215686</v>
+        <v>388.4</v>
       </c>
       <c r="N58" s="24">
-        <v>6956</v>
+        <v>4920</v>
       </c>
       <c r="O58" s="53">
-        <v>1956</v>
+        <v>1962</v>
       </c>
       <c r="P58" s="21" t="s">
         <v>6</v>
@@ -19370,76 +19326,76 @@
         <v>8</v>
       </c>
       <c r="S58" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="T58" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 55 'Deltic' - (EE Deltic)</v>
+        <v>Class 52 'Western' - (WR Western)</v>
       </c>
       <c r="U58" s="21">
-        <v>67.105999999999995</v>
+        <v>51.08</v>
       </c>
       <c r="V58" s="21">
-        <v>869.5</v>
+        <v>615</v>
       </c>
       <c r="X58" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Z58" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X58,")")</f>
-        <v>Class 55 'Deltic' (EE Deltic)</v>
+        <v>Class 52 'Western' (WR Western)</v>
       </c>
     </row>
     <row r="59" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C59" s="21">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D59" s="21">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E59" s="21">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="F59" s="21">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="G59" s="23">
         <f t="shared" si="2"/>
-        <v>0.21007751937984498</v>
+        <v>0.1837037037037037</v>
       </c>
       <c r="H59" s="44">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.06</v>
       </c>
       <c r="J59" s="24">
-        <v>50390</v>
+        <v>53906</v>
       </c>
       <c r="K59" s="21">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L59" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>50.041025641025641</v>
+        <v>49.343589743589746</v>
       </c>
       <c r="M59" s="24" cm="1">
         <f t="array" ref="M59">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>327.47450980392153</v>
+        <v>350.32156862745097</v>
       </c>
       <c r="N59" s="24">
-        <v>4592</v>
+        <v>4528</v>
       </c>
       <c r="O59" s="53">
-        <v>1983</v>
+        <v>1959</v>
       </c>
       <c r="P59" s="21" t="s">
         <v>6</v>
@@ -19448,76 +19404,76 @@
         <v>8</v>
       </c>
       <c r="S59" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="T59" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 58 'Bone' - (BREL Class 58)</v>
+        <v>Class 44 'Peak' - (Sulzer Type 4)</v>
       </c>
       <c r="U59" s="21">
-        <v>43.067999999999998</v>
+        <v>46.073999999999998</v>
       </c>
       <c r="V59" s="21">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="X59" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z59" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X59,")")</f>
-        <v>Class 58 'Bone' (BREL Class 58)</v>
+        <v>Class 44 'Peak' (Sulzer Type 4)</v>
       </c>
     </row>
     <row r="60" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C60" s="21">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D60" s="21">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E60" s="21">
-        <v>3100</v>
+        <v>2580</v>
       </c>
       <c r="F60" s="21">
-        <v>474</v>
+        <v>266</v>
       </c>
       <c r="G60" s="23">
         <f t="shared" si="2"/>
-        <v>0.36744186046511629</v>
+        <v>0.22166666666666668</v>
       </c>
       <c r="H60" s="44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I60" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="J60" s="24">
-        <v>46875</v>
+        <v>45703</v>
       </c>
       <c r="K60" s="21">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L60" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>40.037179487179486</v>
+        <v>50.76025641025641</v>
       </c>
       <c r="M60" s="24" cm="1">
         <f t="array" ref="M60">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>304.62745098039215</v>
+        <v>297.01176470588234</v>
       </c>
       <c r="N60" s="24">
-        <v>3674</v>
+        <v>4658</v>
       </c>
       <c r="O60" s="53">
-        <v>1990</v>
+        <v>1962</v>
       </c>
       <c r="P60" s="21" t="s">
         <v>6</v>
@@ -19526,76 +19482,76 @@
         <v>8</v>
       </c>
       <c r="S60" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T60" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 60 'Tug' - (Brush Type 5)</v>
+        <v>Class 47 'Spoon' - (Brush Type 4)</v>
       </c>
       <c r="U60" s="21">
-        <v>40.063000000000002</v>
+        <v>39.061999999999998</v>
       </c>
       <c r="V60" s="21">
-        <v>459.25</v>
+        <v>582.25</v>
       </c>
       <c r="X60" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z60" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X60,")")</f>
-        <v>Class 60 'Tug' (Brush Type 5)</v>
+        <v>Class 47 'Spoon' (Brush Type 4)</v>
       </c>
     </row>
     <row r="61" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C61" s="21">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D61" s="21">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E61" s="21">
         <v>3300</v>
       </c>
       <c r="F61" s="21">
-        <v>411</v>
+        <v>220</v>
       </c>
       <c r="G61" s="23">
         <f t="shared" si="2"/>
-        <v>0.32109375000000001</v>
+        <v>0.21782178217821782</v>
       </c>
       <c r="H61" s="44">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I61" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J61" s="24">
-        <v>49218</v>
+        <v>78515</v>
       </c>
       <c r="K61" s="21">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="L61" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>44.330769230769228</v>
+        <v>75.802564102564105</v>
       </c>
       <c r="M61" s="24" cm="1">
         <f t="array" ref="M61">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>319.85882352941172</v>
+        <v>510.25098039215686</v>
       </c>
       <c r="N61" s="24">
-        <v>4068</v>
+        <v>6956</v>
       </c>
       <c r="O61" s="53">
-        <v>1998</v>
+        <v>1956</v>
       </c>
       <c r="P61" s="21" t="s">
         <v>6</v>
@@ -19604,76 +19560,76 @@
         <v>8</v>
       </c>
       <c r="S61" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T61" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 66 - (EMD Class 66)</v>
+        <v>Class 55 'Deltic' - (EE Deltic)</v>
       </c>
       <c r="U61" s="21">
-        <v>42.067</v>
+        <v>67.105999999999995</v>
       </c>
       <c r="V61" s="21">
-        <v>508.5</v>
+        <v>869.5</v>
       </c>
       <c r="X61" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z61" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X61,")")</f>
-        <v>Class 66 (EMD Class 66)</v>
+        <v>Class 55 'Deltic' (EE Deltic)</v>
       </c>
     </row>
     <row r="62" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C62" s="21">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="D62" s="21">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E62" s="21">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F62" s="21">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="G62" s="23">
         <f t="shared" si="2"/>
-        <v>0.16363636363636364</v>
+        <v>0.21007751937984498</v>
       </c>
       <c r="H62" s="44">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I62" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J62" s="24">
-        <v>43359</v>
+        <v>50390</v>
       </c>
       <c r="K62" s="21">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L62" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>60.066666666666663</v>
+        <v>50.041025641025641</v>
       </c>
       <c r="M62" s="24" cm="1">
         <f t="array" ref="M62">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>281.78039215686272</v>
+        <v>327.47450980392153</v>
       </c>
       <c r="N62" s="24">
-        <v>5512</v>
+        <v>4592</v>
       </c>
       <c r="O62" s="53">
-        <v>1999</v>
+        <v>1983</v>
       </c>
       <c r="P62" s="21" t="s">
         <v>6</v>
@@ -19682,76 +19638,76 @@
         <v>8</v>
       </c>
       <c r="S62" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="T62" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 67 'Skip' - (EMD Class 67)</v>
+        <v>Class 58 'Bone' - (BREL Class 58)</v>
       </c>
       <c r="U62" s="21">
-        <v>37.058</v>
+        <v>43.067999999999998</v>
       </c>
       <c r="V62" s="21">
-        <v>689</v>
+        <v>574</v>
       </c>
       <c r="X62" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Z62" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X62,")")</f>
-        <v>Class 67 'Skip' (EMD Class 67)</v>
+        <v>Class 58 'Bone' (BREL Class 58)</v>
       </c>
     </row>
     <row r="63" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C63" s="21">
         <v>129</v>
       </c>
       <c r="D63" s="21">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E63" s="21">
-        <v>3700</v>
+        <v>3100</v>
       </c>
       <c r="F63" s="21">
-        <v>533</v>
+        <v>474</v>
       </c>
       <c r="G63" s="23">
         <f t="shared" si="2"/>
-        <v>0.41317829457364341</v>
+        <v>0.36744186046511629</v>
       </c>
       <c r="H63" s="44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I63" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="J63" s="24">
-        <v>56250</v>
+        <v>46875</v>
       </c>
       <c r="K63" s="21">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L63" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>50.041025641025641</v>
+        <v>40.037179487179486</v>
       </c>
       <c r="M63" s="24" cm="1">
         <f t="array" ref="M63">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>365.55294117647054</v>
+        <v>304.62745098039215</v>
       </c>
       <c r="N63" s="24">
-        <v>4592</v>
+        <v>3674</v>
       </c>
       <c r="O63" s="53">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="P63" s="21" t="s">
         <v>6</v>
@@ -19760,133 +19716,133 @@
         <v>8</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T63" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 70 (II) - (GE PowerHaul)</v>
+        <v>Class 60 'Tug' - (Brush Type 5)</v>
       </c>
       <c r="U63" s="21">
-        <v>48.076999999999998</v>
+        <v>40.063000000000002</v>
       </c>
       <c r="V63" s="21">
-        <v>574</v>
+        <v>459.25</v>
       </c>
       <c r="X63" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Z63" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X63,")")</f>
-        <v>Class 70 (II) (GE PowerHaul)</v>
+        <v>Class 60 'Tug' (Brush Type 5)</v>
       </c>
     </row>
     <row r="64" spans="1:26" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C64" s="21">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D64" s="21">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E64" s="21">
-        <v>1420</v>
+        <v>3300</v>
       </c>
       <c r="F64" s="21">
-        <v>176</v>
+        <v>411</v>
       </c>
       <c r="G64" s="23">
         <f t="shared" si="2"/>
-        <v>0.22857142857142859</v>
+        <v>0.32109375000000001</v>
       </c>
       <c r="H64" s="44">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I64" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J64" s="24">
-        <v>25781</v>
+        <v>49218</v>
       </c>
       <c r="K64" s="21">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L64" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>20.726923076923075</v>
+        <v>44.330769230769228</v>
       </c>
       <c r="M64" s="24" cm="1">
         <f t="array" ref="M64">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>154.60392156862744</v>
+        <v>319.85882352941172</v>
       </c>
       <c r="N64" s="24">
-        <v>1902</v>
+        <v>4068</v>
       </c>
       <c r="O64" s="53">
-        <v>1965</v>
-      </c>
-      <c r="P64" s="21">
-        <v>3</v>
+        <v>1998</v>
+      </c>
+      <c r="P64" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="Q64" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S64" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T64" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 73 (JB) - (BR Type JB)</v>
+        <v>Class 66 - (EMD Class 66)</v>
       </c>
       <c r="U64" s="21">
-        <v>22.033999999999999</v>
+        <v>42.067</v>
       </c>
       <c r="V64" s="21">
-        <v>237.75</v>
+        <v>508.5</v>
       </c>
       <c r="X64" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Z64" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X64,")")</f>
-        <v>Class 73 (JB) (BR Type JB)</v>
+        <v>Class 66 (EMD Class 66)</v>
       </c>
     </row>
     <row r="65" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C65" s="21">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D65" s="21">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E65" s="21">
-        <v>1470</v>
+        <v>3200</v>
       </c>
       <c r="F65" s="21">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="2"/>
-        <v>0.17524752475247524</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="H65" s="44">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I65" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J65" s="24">
         <v>43359</v>
@@ -19897,485 +19853,485 @@
       </c>
       <c r="L65" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>23.582051282051282</v>
+        <v>60.066666666666663</v>
       </c>
       <c r="M65" s="24" cm="1">
         <f t="array" ref="M65">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>260.01568627450979</v>
+        <v>281.78039215686272</v>
       </c>
       <c r="N65" s="24">
-        <v>2164</v>
+        <v>5512</v>
       </c>
       <c r="O65" s="53">
-        <v>1941</v>
-      </c>
-      <c r="P65" s="21">
-        <v>3</v>
+        <v>1999</v>
+      </c>
+      <c r="P65" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="Q65" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T65" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 70 (I) - (SR CC)</v>
+        <v>Class 67 'Skip' - (EMD Class 67)</v>
       </c>
       <c r="U65" s="21">
         <v>37.058</v>
       </c>
       <c r="V65" s="21">
-        <v>270.5</v>
+        <v>689</v>
       </c>
       <c r="X65" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z65" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X65,")")</f>
-        <v>Class 70 (I) (SR CC)</v>
+        <v>Class 67 'Skip' (EMD Class 67)</v>
       </c>
     </row>
     <row r="66" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C66" s="21">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D66" s="21">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E66" s="21">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="F66" s="21">
-        <v>194</v>
+        <v>533</v>
       </c>
       <c r="G66" s="23">
-        <f t="shared" ref="G66:G97" si="4">F66/10/C66</f>
-        <v>0.24871794871794869</v>
+        <f t="shared" si="2"/>
+        <v>0.41317829457364341</v>
       </c>
       <c r="H66" s="44">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I66" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J66" s="24">
-        <v>35156</v>
+        <v>56250</v>
       </c>
       <c r="K66" s="21">
-        <f t="shared" ref="K66:K97" si="5">ROUNDDOWN(J66/1171,0)</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
       <c r="L66" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>37.901282051282053</v>
+        <v>50.041025641025641</v>
       </c>
       <c r="M66" s="24" cm="1">
         <f t="array" ref="M66">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>210.8235294117647</v>
+        <v>365.55294117647054</v>
       </c>
       <c r="N66" s="24">
-        <v>3478</v>
+        <v>4592</v>
       </c>
       <c r="O66" s="53">
-        <v>1958</v>
-      </c>
-      <c r="P66" s="21">
-        <v>3</v>
+        <v>2010</v>
+      </c>
+      <c r="P66" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="Q66" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T66" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 71 (HA) - (BR Type HA)</v>
+        <v>Class 70 (II) - (GE PowerHaul)</v>
       </c>
       <c r="U66" s="21">
-        <v>30.047999999999998</v>
+        <v>48.076999999999998</v>
       </c>
       <c r="V66" s="21">
-        <v>434.75</v>
+        <v>574</v>
       </c>
       <c r="X66" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Z66" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X66,")")</f>
-        <v>Class 71 (HA) (BR Type HA)</v>
+        <v>Class 70 (II) (GE PowerHaul)</v>
       </c>
     </row>
     <row r="67" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C67" s="21">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D67" s="21">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E67" s="21">
-        <v>1100</v>
+        <v>1420</v>
       </c>
       <c r="F67" s="21">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="G67" s="23">
-        <f t="shared" si="4"/>
-        <v>0.15945945945945947</v>
+        <f t="shared" si="2"/>
+        <v>0.22857142857142859</v>
       </c>
       <c r="H67" s="44">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I67" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="J67" s="24">
-        <v>31640</v>
+        <v>25781</v>
       </c>
       <c r="K67" s="21">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="L67" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>15.016666666666666</v>
+        <v>20.726923076923075</v>
       </c>
       <c r="M67" s="24" cm="1">
         <f t="array" ref="M67">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>189.74117647058824</v>
+        <v>154.60392156862744</v>
       </c>
       <c r="N67" s="24">
-        <v>1378</v>
+        <v>1902</v>
       </c>
       <c r="O67" s="53">
-        <v>1914</v>
-      </c>
-      <c r="P67" s="21" t="s">
+        <v>1965</v>
+      </c>
+      <c r="P67" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q67" s="21">
         <v>7</v>
       </c>
-      <c r="Q67" s="21">
-        <v>5</v>
-      </c>
       <c r="S67" s="21" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="T67" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>NER EF1 - (NER EF1)</v>
+        <v>Class 73 (JB) - (BR Type JB)</v>
       </c>
       <c r="U67" s="21">
-        <v>27.042999999999999</v>
+        <v>22.033999999999999</v>
       </c>
       <c r="V67" s="21">
-        <v>172.25</v>
+        <v>237.75</v>
       </c>
       <c r="X67" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z67" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X67,")")</f>
-        <v>NER EF1 (NER EF1)</v>
+        <v>Class 73 (JB) (BR Type JB)</v>
       </c>
     </row>
     <row r="68" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C68" s="21">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D68" s="21">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E68" s="21">
-        <v>1800</v>
+        <v>1470</v>
       </c>
       <c r="F68" s="21">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="G68" s="23">
-        <f t="shared" si="4"/>
-        <v>0.10636363636363635</v>
+        <f t="shared" si="2"/>
+        <v>0.17524752475247524</v>
       </c>
       <c r="H68" s="44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I68" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J68" s="24">
-        <v>77343</v>
+        <v>43359</v>
       </c>
       <c r="K68" s="21">
-        <f t="shared" si="5"/>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="L68" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>32.169230769230772</v>
+        <v>23.582051282051282</v>
       </c>
       <c r="M68" s="24" cm="1">
         <f t="array" ref="M68">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>463.81176470588235</v>
+        <v>260.01568627450979</v>
       </c>
       <c r="N68" s="24">
-        <v>2952</v>
+        <v>2164</v>
       </c>
       <c r="O68" s="53">
-        <v>1920</v>
-      </c>
-      <c r="P68" s="21" t="s">
-        <v>7</v>
+        <v>1941</v>
+      </c>
+      <c r="P68" s="21">
+        <v>3</v>
       </c>
       <c r="Q68" s="21">
         <v>7</v>
       </c>
       <c r="S68" s="21" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="T68" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>NER EE1 - (NER EE1)</v>
+        <v>Class 70 (I) - (SR CC)</v>
       </c>
       <c r="U68" s="21">
-        <v>66.103999999999999</v>
+        <v>37.058</v>
       </c>
       <c r="V68" s="21">
-        <v>369</v>
+        <v>270.5</v>
       </c>
       <c r="X68" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Z68" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X68,")")</f>
-        <v>NER EE1 (NER EE1)</v>
+        <v>Class 70 (I) (SR CC)</v>
       </c>
     </row>
     <row r="69" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C69" s="21">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D69" s="21">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E69" s="21">
-        <v>1360</v>
+        <v>2300</v>
       </c>
       <c r="F69" s="21">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G69" s="23">
-        <f t="shared" si="4"/>
-        <v>0.22873563218390802</v>
+        <f t="shared" ref="G69:G100" si="6">F69/10/C69</f>
+        <v>0.24871794871794869</v>
       </c>
       <c r="H69" s="44">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I69" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="J69" s="24">
         <v>35156</v>
       </c>
       <c r="K69" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K69:K100" si="7">ROUNDDOWN(J69/1171,0)</f>
         <v>30</v>
       </c>
       <c r="L69" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>21.446153846153845</v>
+        <v>37.901282051282053</v>
       </c>
       <c r="M69" s="24" cm="1">
         <f t="array" ref="M69">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>210.8235294117647</v>
       </c>
       <c r="N69" s="24">
-        <v>1968</v>
+        <v>3478</v>
       </c>
       <c r="O69" s="53">
-        <v>1941</v>
-      </c>
-      <c r="P69" s="21" t="s">
+        <v>1958</v>
+      </c>
+      <c r="P69" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q69" s="21">
         <v>7</v>
       </c>
-      <c r="Q69" s="21">
-        <v>6</v>
-      </c>
       <c r="S69" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T69" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 76 'EM1' - (Metrovick EM1)</v>
+        <v>Class 71 (HA) - (BR Type HA)</v>
       </c>
       <c r="U69" s="21">
         <v>30.047999999999998</v>
       </c>
       <c r="V69" s="21">
-        <v>246</v>
+        <v>434.75</v>
       </c>
       <c r="X69" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Z69" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X69,")")</f>
-        <v>Class 76 'EM1' (Metrovick EM1)</v>
+        <v>Class 71 (HA) (BR Type HA)</v>
       </c>
     </row>
     <row r="70" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C70" s="21">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D70" s="21">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E70" s="21">
-        <v>2490</v>
+        <v>1100</v>
       </c>
       <c r="F70" s="21">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="G70" s="23">
-        <f t="shared" si="4"/>
-        <v>0.19134615384615383</v>
+        <f t="shared" si="6"/>
+        <v>0.15945945945945947</v>
       </c>
       <c r="H70" s="44">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I70" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="J70" s="24">
-        <v>76171</v>
+        <v>31640</v>
       </c>
       <c r="K70" s="21">
-        <f t="shared" si="5"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="L70" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>48.624358974358977</v>
+        <v>15.016666666666666</v>
       </c>
       <c r="M70" s="24" cm="1">
         <f t="array" ref="M70">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>456.78431372549016</v>
+        <v>189.74117647058824</v>
       </c>
       <c r="N70" s="24">
-        <v>4462</v>
+        <v>1378</v>
       </c>
       <c r="O70" s="53">
-        <v>1953</v>
+        <v>1914</v>
       </c>
       <c r="P70" s="21" t="s">
         <v>7</v>
       </c>
       <c r="Q70" s="21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S70" s="21" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
       <c r="T70" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 77 'EM2' - (Metrovick EM2)</v>
+        <v>NER EF1 - (NER EF1)</v>
       </c>
       <c r="U70" s="21">
-        <v>65.102999999999994</v>
+        <v>27.042999999999999</v>
       </c>
       <c r="V70" s="21">
-        <v>557.75</v>
+        <v>172.25</v>
       </c>
       <c r="X70" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z70" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X70,")")</f>
-        <v>Class 77 'EM2' (Metrovick EM2)</v>
+        <v>NER EF1 (NER EF1)</v>
       </c>
     </row>
     <row r="71" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C71" s="21">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D71" s="21">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E71" s="21">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="F71" s="21">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="G71" s="23">
-        <f t="shared" si="4"/>
-        <v>0.27848101265822783</v>
+        <f t="shared" si="6"/>
+        <v>0.10636363636363635</v>
       </c>
       <c r="H71" s="44">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I71" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J71" s="24">
-        <v>37500</v>
+        <v>77343</v>
       </c>
       <c r="K71" s="21">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>66</v>
       </c>
       <c r="L71" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>52.917948717948718</v>
+        <v>32.169230769230772</v>
       </c>
       <c r="M71" s="24" cm="1">
         <f t="array" ref="M71">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>224.87843137254902</v>
+        <v>463.81176470588235</v>
       </c>
       <c r="N71" s="24">
-        <v>4856</v>
+        <v>2952</v>
       </c>
       <c r="O71" s="53">
-        <v>1959</v>
+        <v>1920</v>
       </c>
       <c r="P71" s="21" t="s">
         <v>7</v>
@@ -20384,232 +20340,232 @@
         <v>7</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>257</v>
+        <v>63</v>
       </c>
       <c r="T71" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 81 'AL1' - (AEI AL1)</v>
+        <v>NER EE1 - (NER EE1)</v>
       </c>
       <c r="U71" s="21">
-        <v>32.051000000000002</v>
+        <v>66.103999999999999</v>
       </c>
       <c r="V71" s="21">
-        <v>607</v>
+        <v>369</v>
       </c>
       <c r="X71" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z71" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X71,")")</f>
-        <v>Class 81 'AL1' (AEI AL1)</v>
+        <v>NER EE1 (NER EE1)</v>
       </c>
     </row>
     <row r="72" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C72" s="21">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D72" s="21">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E72" s="21">
-        <v>3600</v>
+        <v>1360</v>
       </c>
       <c r="F72" s="21">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="G72" s="23">
-        <f t="shared" si="4"/>
-        <v>0.31728395061728393</v>
+        <f t="shared" si="6"/>
+        <v>0.22873563218390802</v>
       </c>
       <c r="H72" s="44">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I72" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J72" s="24">
-        <v>42187</v>
+        <v>35156</v>
       </c>
       <c r="K72" s="21">
-        <f t="shared" si="5"/>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
       <c r="L72" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>55.053846153846152</v>
+        <v>21.446153846153845</v>
       </c>
       <c r="M72" s="24" cm="1">
         <f t="array" ref="M72">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>252.98823529411766</v>
+        <v>210.8235294117647</v>
       </c>
       <c r="N72" s="24">
-        <v>5052</v>
+        <v>1968</v>
       </c>
       <c r="O72" s="53">
-        <v>1965</v>
+        <v>1941</v>
       </c>
       <c r="P72" s="21" t="s">
         <v>7</v>
       </c>
       <c r="Q72" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="T72" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 86 'AL6' - (EE AL6)</v>
+        <v>Class 76 'EM1' - (Metrovick EM1)</v>
       </c>
       <c r="U72" s="21">
-        <v>36.055999999999997</v>
+        <v>30.047999999999998</v>
       </c>
       <c r="V72" s="21">
-        <v>631.5</v>
+        <v>246</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Z72" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X72,")")</f>
-        <v>Class 86 'AL6' (EE AL6)</v>
+        <v>Class 76 'EM1' (Metrovick EM1)</v>
       </c>
     </row>
     <row r="73" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C73" s="21">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="21">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="E73" s="21">
-        <v>5850</v>
+        <v>2490</v>
       </c>
       <c r="F73" s="21">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G73" s="23">
-        <f t="shared" si="4"/>
-        <v>0.19428571428571428</v>
+        <f t="shared" si="6"/>
+        <v>0.19134615384615383</v>
       </c>
       <c r="H73" s="44">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I73" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J73" s="24">
-        <v>107812</v>
+        <v>76171</v>
       </c>
       <c r="K73" s="21">
-        <f t="shared" si="5"/>
-        <v>92</v>
+        <f t="shared" si="7"/>
+        <v>65</v>
       </c>
       <c r="L73" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>100.10384615384615</v>
+        <v>48.624358974358977</v>
       </c>
       <c r="M73" s="24" cm="1">
         <f t="array" ref="M73">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>646.52549019607841</v>
+        <v>456.78431372549016</v>
       </c>
       <c r="N73" s="24">
-        <v>9186</v>
+        <v>4462</v>
       </c>
       <c r="O73" s="53">
-        <v>1986</v>
+        <v>1953</v>
       </c>
       <c r="P73" s="21" t="s">
         <v>7</v>
       </c>
       <c r="Q73" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S73" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="T73" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 89 'Badger' - (Brush Avocet)</v>
+        <v>Class 77 'EM2' - (Metrovick EM2)</v>
       </c>
       <c r="U73" s="21">
-        <v>92.147000000000006</v>
+        <v>65.102999999999994</v>
       </c>
       <c r="V73" s="21">
-        <v>1148.25</v>
+        <v>557.75</v>
       </c>
       <c r="X73" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Z73" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X73,")")</f>
-        <v>Class 89 'Badger' (Brush Avocet)</v>
+        <v>Class 77 'EM2' (Metrovick EM2)</v>
       </c>
     </row>
     <row r="74" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C74" s="21">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D74" s="21">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E74" s="21">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="F74" s="21">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G74" s="23">
-        <f t="shared" si="4"/>
-        <v>0.30595238095238092</v>
+        <f t="shared" si="6"/>
+        <v>0.27848101265822783</v>
       </c>
       <c r="H74" s="44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I74" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J74" s="24">
-        <v>73828</v>
+        <v>37500</v>
       </c>
       <c r="K74" s="21">
-        <f t="shared" si="5"/>
-        <v>63</v>
+        <f t="shared" si="7"/>
+        <v>32</v>
       </c>
       <c r="L74" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>76.5</v>
+        <v>52.917948717948718</v>
       </c>
       <c r="M74" s="24" cm="1">
         <f t="array" ref="M74">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>442.7294117647059</v>
+        <v>224.87843137254902</v>
       </c>
       <c r="N74" s="24">
-        <v>7020</v>
+        <v>4856</v>
       </c>
       <c r="O74" s="53">
-        <v>1987</v>
+        <v>1959</v>
       </c>
       <c r="P74" s="21" t="s">
         <v>7</v>
@@ -20618,1468 +20574,1465 @@
         <v>7</v>
       </c>
       <c r="S74" s="21" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="T74" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 90 - (BREL Class 90)</v>
+        <v>Class 81 'AL1' - (AEI AL1)</v>
       </c>
       <c r="U74" s="21">
-        <v>63.100999999999999</v>
+        <v>32.051000000000002</v>
       </c>
       <c r="V74" s="21">
-        <v>877.5</v>
+        <v>607</v>
       </c>
       <c r="X74" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Z74" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X74,")")</f>
-        <v>Class 90 (BREL Class 90)</v>
+        <v>Class 81 'AL1' (AEI AL1)</v>
       </c>
     </row>
     <row r="75" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C75" s="21">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D75" s="21">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E75" s="21">
-        <v>6700</v>
+        <v>3600</v>
       </c>
       <c r="F75" s="21">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="G75" s="23">
-        <f t="shared" si="4"/>
-        <v>0.28253968253968254</v>
+        <f t="shared" si="6"/>
+        <v>0.31728395061728393</v>
       </c>
       <c r="H75" s="44">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I75" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J75" s="24">
-        <v>132421</v>
+        <v>42187</v>
       </c>
       <c r="K75" s="21">
-        <f t="shared" si="5"/>
-        <v>113</v>
+        <f t="shared" si="7"/>
+        <v>36</v>
       </c>
       <c r="L75" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>90.1</v>
+        <v>55.053846153846152</v>
       </c>
       <c r="M75" s="24" cm="1">
         <f t="array" ref="M75">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>794.10196078431375</v>
+        <v>252.98823529411766</v>
       </c>
       <c r="N75" s="24">
-        <v>8268</v>
+        <v>5052</v>
       </c>
       <c r="O75" s="53">
-        <v>1993</v>
+        <v>1965</v>
       </c>
       <c r="P75" s="21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q75" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S75" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T75" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 92 'Caravan' - (Brush Class 92)</v>
+        <v>Class 86 'AL6' - (EE AL6)</v>
       </c>
       <c r="U75" s="21">
-        <v>113.179</v>
+        <v>36.055999999999997</v>
       </c>
       <c r="V75" s="21">
-        <v>1033.5</v>
+        <v>631.5</v>
       </c>
       <c r="X75" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z75" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X75,")")</f>
-        <v>Class 92 'Caravan' (Brush Class 92)</v>
+        <v>Class 86 'AL6' (EE AL6)</v>
       </c>
     </row>
     <row r="76" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C76" s="21">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D76" s="21">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E76" s="21">
-        <v>1200</v>
+        <v>5850</v>
       </c>
       <c r="F76" s="21">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G76" s="23">
-        <f t="shared" si="4"/>
-        <v>0.32537313432835824</v>
+        <f t="shared" si="6"/>
+        <v>0.19428571428571428</v>
       </c>
       <c r="H76" s="44">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I76" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="J76" s="24">
-        <v>18750</v>
+        <v>107812</v>
       </c>
       <c r="K76" s="21">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>92</v>
       </c>
       <c r="L76" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>15.714102564102564</v>
+        <v>100.10384615384615</v>
       </c>
       <c r="M76" s="24" cm="1">
         <f t="array" ref="M76">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>112.43921568627451</v>
+        <v>646.52549019607841</v>
       </c>
       <c r="N76" s="24">
-        <v>1442</v>
+        <v>9186</v>
       </c>
       <c r="O76" s="53">
-        <v>2020</v>
+        <v>1986</v>
       </c>
       <c r="P76" s="21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q76" s="21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S76" s="21" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="T76" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Bidwell Tripworker - (Bidwell)</v>
+        <v>Class 89 'Badger' - (Brush Avocet)</v>
       </c>
       <c r="U76" s="21">
-        <v>16.026</v>
+        <v>92.147000000000006</v>
       </c>
       <c r="V76" s="21">
-        <v>180.25</v>
+        <v>1148.25</v>
       </c>
       <c r="X76" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z76" s="25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X76,")")</f>
-        <v>Bidwell Tripworker (Bidwell)</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="13">
-        <v>140</v>
-      </c>
-      <c r="D77" s="13">
-        <v>140</v>
-      </c>
-      <c r="E77" s="13">
-        <v>8000</v>
-      </c>
-      <c r="F77" s="13">
-        <v>380</v>
-      </c>
-      <c r="G77" s="20">
-        <f t="shared" si="4"/>
-        <v>0.27142857142857141</v>
-      </c>
-      <c r="H77" s="46">
-        <v>11</v>
-      </c>
-      <c r="I77" s="50">
+        <v>Class 89 'Badger' (Brush Avocet)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>73</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="21">
+        <v>84</v>
+      </c>
+      <c r="D77" s="21">
+        <v>110</v>
+      </c>
+      <c r="E77" s="21">
+        <v>5000</v>
+      </c>
+      <c r="F77" s="21">
+        <v>257</v>
+      </c>
+      <c r="G77" s="23">
+        <f t="shared" si="6"/>
+        <v>0.30595238095238092</v>
+      </c>
+      <c r="H77" s="44">
+        <v>12</v>
+      </c>
+      <c r="I77" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.04</v>
       </c>
-      <c r="J77" s="18">
+      <c r="J77" s="24">
+        <v>73828</v>
+      </c>
+      <c r="K77" s="21">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="L77" s="22">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>76.5</v>
+      </c>
+      <c r="M77" s="24" cm="1">
+        <f t="array" ref="M77">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>442.7294117647059</v>
+      </c>
+      <c r="N77" s="24">
+        <v>7020</v>
+      </c>
+      <c r="O77" s="53">
+        <v>1987</v>
+      </c>
+      <c r="P77" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q77" s="21">
+        <v>7</v>
+      </c>
+      <c r="S77" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="T77" s="21" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v>Class 90 - (BREL Class 90)</v>
+      </c>
+      <c r="U77" s="21">
+        <v>63.100999999999999</v>
+      </c>
+      <c r="V77" s="21">
+        <v>877.5</v>
+      </c>
+      <c r="X77" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z77" s="25" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X77,")")</f>
+        <v>Class 90 (BREL Class 90)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
+        <v>74</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="21">
+        <v>126</v>
+      </c>
+      <c r="D78" s="21">
+        <v>90</v>
+      </c>
+      <c r="E78" s="21">
+        <v>6700</v>
+      </c>
+      <c r="F78" s="21">
+        <v>356</v>
+      </c>
+      <c r="G78" s="23">
+        <f t="shared" si="6"/>
+        <v>0.28253968253968254</v>
+      </c>
+      <c r="H78" s="44">
+        <v>16</v>
+      </c>
+      <c r="I78" s="48">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J78" s="24">
+        <v>132421</v>
+      </c>
+      <c r="K78" s="21">
+        <f t="shared" si="7"/>
+        <v>113</v>
+      </c>
+      <c r="L78" s="22">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>90.1</v>
+      </c>
+      <c r="M78" s="24" cm="1">
+        <f t="array" ref="M78">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>794.10196078431375</v>
+      </c>
+      <c r="N78" s="24">
+        <v>8268</v>
+      </c>
+      <c r="O78" s="53">
+        <v>1993</v>
+      </c>
+      <c r="P78" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q78" s="21">
+        <v>8</v>
+      </c>
+      <c r="S78" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="T78" s="21" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v>Class 92 'Caravan' - (Brush Class 92)</v>
+      </c>
+      <c r="U78" s="21">
+        <v>113.179</v>
+      </c>
+      <c r="V78" s="21">
+        <v>1033.5</v>
+      </c>
+      <c r="X78" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z78" s="25" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X78,")")</f>
+        <v>Class 92 'Caravan' (Brush Class 92)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
+        <v>75</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="21">
+        <v>67</v>
+      </c>
+      <c r="D79" s="21">
+        <v>60</v>
+      </c>
+      <c r="E79" s="21">
+        <v>1200</v>
+      </c>
+      <c r="F79" s="21">
+        <v>218</v>
+      </c>
+      <c r="G79" s="23">
+        <f t="shared" si="6"/>
+        <v>0.32537313432835824</v>
+      </c>
+      <c r="H79" s="44">
+        <v>24</v>
+      </c>
+      <c r="I79" s="48">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="J79" s="24">
+        <v>18750</v>
+      </c>
+      <c r="K79" s="21">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="L79" s="22">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>15.714102564102564</v>
+      </c>
+      <c r="M79" s="24" cm="1">
+        <f t="array" ref="M79">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>112.43921568627451</v>
+      </c>
+      <c r="N79" s="24">
+        <v>1442</v>
+      </c>
+      <c r="O79" s="53">
+        <v>2020</v>
+      </c>
+      <c r="P79" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q79" s="21">
+        <v>5</v>
+      </c>
+      <c r="S79" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="T79" s="21" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v>Bidwell Tripworker - (Bidwell)</v>
+      </c>
+      <c r="U79" s="21">
+        <v>16.026</v>
+      </c>
+      <c r="V79" s="21">
+        <v>180.25</v>
+      </c>
+      <c r="X79" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z79" s="25" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X79,")")</f>
+        <v>Bidwell Tripworker (Bidwell)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>76</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="13">
+        <v>140</v>
+      </c>
+      <c r="D80" s="13">
+        <v>140</v>
+      </c>
+      <c r="E80" s="13">
+        <v>8000</v>
+      </c>
+      <c r="F80" s="13">
+        <v>380</v>
+      </c>
+      <c r="G80" s="20">
+        <f t="shared" si="6"/>
+        <v>0.27142857142857141</v>
+      </c>
+      <c r="H80" s="46">
+        <v>11</v>
+      </c>
+      <c r="I80" s="50">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="J80" s="18">
         <v>131250</v>
       </c>
-      <c r="K77" s="13">
-        <f t="shared" si="5"/>
+      <c r="K80" s="13">
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L80" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>208.4025641025641</v>
       </c>
-      <c r="M77" s="18" cm="1">
-        <f t="array" ref="M77">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M80" s="18" cm="1">
+        <f t="array" ref="M80">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>787.0745098039215</v>
       </c>
-      <c r="N77" s="18">
+      <c r="N80" s="18">
         <v>19124</v>
       </c>
-      <c r="O77" s="55">
+      <c r="O80" s="55">
         <v>1980</v>
       </c>
-      <c r="P77" s="13" t="s">
+      <c r="P80" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q77" s="13">
+      <c r="Q80" s="13">
         <v>8</v>
       </c>
-      <c r="S77" s="13" t="s">
+      <c r="S80" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="T77" s="13" t="str">
+      <c r="T80" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 370 'APT' - (BREL APT)</v>
       </c>
-      <c r="U77" s="13">
+      <c r="U80" s="13">
         <v>112.179</v>
       </c>
-      <c r="V77" s="13">
+      <c r="V80" s="13">
         <v>1195.25</v>
       </c>
-      <c r="X77" s="13" t="s">
+      <c r="X80" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Z77" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X77,")")</f>
+      <c r="Z80" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X80,")")</f>
         <v>Class 370 'APT' (BREL APT)</v>
       </c>
-      <c r="AD77" s="13"/>
-    </row>
-    <row r="78" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+      <c r="AD80" s="13"/>
+    </row>
+    <row r="81" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
         <v>77</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B81" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C81" s="13">
         <v>114</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D81" s="13">
         <v>140</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E81" s="13">
         <v>6300</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F81" s="13">
         <v>222</v>
       </c>
-      <c r="G78" s="20">
-        <f t="shared" si="4"/>
+      <c r="G81" s="20">
+        <f t="shared" si="6"/>
         <v>0.19473684210526315</v>
       </c>
-      <c r="H78" s="46">
+      <c r="H81" s="46">
         <v>11</v>
       </c>
-      <c r="I78" s="50">
+      <c r="I81" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.04</v>
       </c>
-      <c r="J78" s="18">
+      <c r="J81" s="18">
         <v>92578</v>
       </c>
-      <c r="K78" s="13">
-        <f t="shared" si="5"/>
+      <c r="K81" s="13">
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L81" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>122.98846153846154</v>
       </c>
-      <c r="M78" s="18" cm="1">
-        <f t="array" ref="M78">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M81" s="18" cm="1">
+        <f t="array" ref="M81">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>555.16862745098035</v>
       </c>
-      <c r="N78" s="18">
+      <c r="N81" s="18">
         <v>11286</v>
       </c>
-      <c r="O78" s="55">
+      <c r="O81" s="55">
         <v>1988</v>
       </c>
-      <c r="P78" s="13" t="s">
+      <c r="P81" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q78" s="13">
+      <c r="Q81" s="13">
         <v>8</v>
       </c>
-      <c r="S78" s="13" t="s">
+      <c r="S81" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T78" s="13" t="str">
+      <c r="T81" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 91 - (GEC Class 91)</v>
       </c>
-      <c r="U78" s="13">
+      <c r="U81" s="13">
         <v>79.126000000000005</v>
       </c>
-      <c r="V78" s="13">
+      <c r="V81" s="13">
         <v>1410.75</v>
       </c>
-      <c r="X78" s="13" t="s">
+      <c r="X81" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Z78" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X78,")")</f>
+      <c r="Z81" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X81,")")</f>
         <v>Class 91 (GEC Class 91)</v>
       </c>
-      <c r="AD78" s="13"/>
-    </row>
-    <row r="79" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
+      <c r="AD81" s="13"/>
+    </row>
+    <row r="82" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
         <v>78</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B82" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C82" s="13">
         <v>138</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D82" s="13">
         <v>186</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E82" s="13">
         <v>16400</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F82" s="13">
         <v>348</v>
       </c>
-      <c r="G79" s="20">
-        <f t="shared" si="4"/>
+      <c r="G82" s="20">
+        <f t="shared" si="6"/>
         <v>0.25217391304347825</v>
       </c>
-      <c r="H79" s="46">
+      <c r="H82" s="46">
         <v>15</v>
       </c>
-      <c r="I79" s="50">
+      <c r="I82" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.05</v>
       </c>
-      <c r="J79" s="18">
+      <c r="J82" s="18">
         <v>298828</v>
       </c>
-      <c r="K79" s="13">
-        <f t="shared" si="5"/>
+      <c r="K82" s="13">
+        <f t="shared" si="7"/>
         <v>255</v>
       </c>
-      <c r="L79" s="15">
+      <c r="L82" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>255</v>
       </c>
-      <c r="M79" s="18" cm="1">
-        <f t="array" ref="M79">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M82" s="18" cm="1">
+        <f t="array" ref="M82">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>1792</v>
       </c>
-      <c r="N79" s="18">
+      <c r="N82" s="18">
         <v>23400</v>
       </c>
-      <c r="O79" s="55">
+      <c r="O82" s="55">
         <v>1993</v>
       </c>
-      <c r="P79" s="13" t="s">
+      <c r="P82" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q79" s="13" t="s">
+      <c r="Q82" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="S79" s="13" t="s">
+      <c r="S82" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="T79" s="13" t="str">
+      <c r="T82" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 373 'Eurostar' - (Eurostar)</v>
       </c>
-      <c r="U79" s="13">
+      <c r="U82" s="13">
         <v>255.40899999999999</v>
       </c>
-      <c r="V79" s="13">
+      <c r="V82" s="13">
         <v>1462.5</v>
       </c>
-      <c r="X79" s="13" t="s">
+      <c r="X82" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Z79" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X79,")")</f>
+      <c r="Z82" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X82,")")</f>
         <v>Class 373 'Eurostar' (Eurostar)</v>
       </c>
-      <c r="AD79" s="13"/>
-    </row>
-    <row r="80" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+      <c r="AD82" s="13"/>
+    </row>
+    <row r="83" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
         <v>79</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B83" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C83" s="13">
         <v>36</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D83" s="13">
         <v>45</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E83" s="13">
         <v>150</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F83" s="13">
         <v>19</v>
       </c>
-      <c r="G80" s="20">
-        <f t="shared" si="4"/>
+      <c r="G83" s="20">
+        <f t="shared" si="6"/>
         <v>5.2777777777777778E-2</v>
       </c>
-      <c r="H80" s="46">
+      <c r="H83" s="46">
         <v>32</v>
       </c>
-      <c r="I80" s="50">
+      <c r="I83" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.11</v>
       </c>
-      <c r="J80" s="18">
+      <c r="J83" s="18">
         <v>12890</v>
       </c>
-      <c r="K80" s="13">
-        <f t="shared" si="5"/>
+      <c r="K83" s="13">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="L80" s="15">
+      <c r="L83" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>4.2717948717948717</v>
       </c>
-      <c r="M80" s="18" cm="1">
-        <f t="array" ref="M80">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M83" s="18" cm="1">
+        <f t="array" ref="M83">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>90.156862745098039</v>
       </c>
-      <c r="N80" s="18">
+      <c r="N83" s="18">
         <v>392</v>
       </c>
-      <c r="O80" s="55">
+      <c r="O83" s="55">
         <v>1903</v>
       </c>
-      <c r="P80" s="13" t="s">
+      <c r="P83" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q80" s="13">
+      <c r="Q83" s="13">
         <v>7</v>
       </c>
-      <c r="S80" s="13" t="s">
+      <c r="S83" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="T80" s="13" t="str">
+      <c r="T83" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>GWR Railmotor - (Railmotor)</v>
       </c>
-      <c r="U80" s="13">
+      <c r="U83" s="13">
         <v>11.016999999999999</v>
       </c>
-      <c r="V80" s="13">
+      <c r="V83" s="13">
         <v>49</v>
       </c>
-      <c r="X80" s="13" t="s">
+      <c r="X83" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="Z80" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X80,")")</f>
+      <c r="Z83" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X83,")")</f>
         <v>GWR Railmotor (Railmotor)</v>
       </c>
-      <c r="AD80" s="13"/>
-    </row>
-    <row r="81" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+      <c r="AD83" s="13"/>
+    </row>
+    <row r="84" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
         <v>80</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B84" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C84" s="13">
         <v>20</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D84" s="13">
         <v>50</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E84" s="13">
         <v>150</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F84" s="13">
         <v>19</v>
       </c>
-      <c r="G81" s="20">
-        <f t="shared" si="4"/>
+      <c r="G84" s="20">
+        <f t="shared" si="6"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="H81" s="46">
+      <c r="H84" s="46">
         <v>28</v>
       </c>
-      <c r="I81" s="50">
+      <c r="I84" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.1</v>
       </c>
-      <c r="J81" s="18">
+      <c r="J84" s="18">
         <v>3515</v>
       </c>
-      <c r="K81" s="13">
-        <f t="shared" si="5"/>
+      <c r="K84" s="13">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L84" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>3.5743589743589745</v>
       </c>
-      <c r="M81" s="18" cm="1">
-        <f t="array" ref="M81">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M84" s="18" cm="1">
+        <f t="array" ref="M84">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>22.847058823529409</v>
       </c>
-      <c r="N81" s="18">
+      <c r="N84" s="18">
         <v>328</v>
       </c>
-      <c r="O81" s="55">
+      <c r="O84" s="55">
         <v>1950</v>
       </c>
-      <c r="P81" s="13" t="s">
+      <c r="P84" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q81" s="13">
+      <c r="Q84" s="13">
         <v>6</v>
       </c>
-      <c r="S81" s="13" t="s">
+      <c r="S84" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="T81" s="13" t="str">
+      <c r="T84" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>AEC Railbus - (AEC Railbus)</v>
       </c>
-      <c r="U81" s="13">
+      <c r="U84" s="13">
         <v>3.0030000000000001</v>
       </c>
-      <c r="V81" s="13">
+      <c r="V84" s="13">
         <v>41</v>
       </c>
-      <c r="X81" s="13" t="s">
+      <c r="X84" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Z81" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X81,")")</f>
+      <c r="Z84" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X84,")")</f>
         <v>AEC Railbus (AEC Railbus)</v>
       </c>
-      <c r="AD81" s="13"/>
-    </row>
-    <row r="82" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
+      <c r="AD84" s="13"/>
+    </row>
+    <row r="85" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
         <v>81</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B85" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C85" s="13">
         <v>29</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D85" s="13">
         <v>60</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E85" s="13">
         <v>260</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F85" s="13">
         <v>34</v>
       </c>
-      <c r="G82" s="20">
-        <f t="shared" si="4"/>
+      <c r="G85" s="20">
+        <f t="shared" si="6"/>
         <v>0.11724137931034483</v>
       </c>
-      <c r="H82" s="46">
+      <c r="H85" s="46">
         <v>24</v>
       </c>
-      <c r="I82" s="50">
+      <c r="I85" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.08</v>
       </c>
-      <c r="J82" s="18">
+      <c r="J85" s="18">
         <v>7031</v>
       </c>
-      <c r="K82" s="13">
-        <f t="shared" si="5"/>
+      <c r="K85" s="13">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="L82" s="15">
+      <c r="L85" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>5.7102564102564104</v>
       </c>
-      <c r="M82" s="18" cm="1">
-        <f t="array" ref="M82">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M85" s="18" cm="1">
+        <f t="array" ref="M85">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>45.694117647058818</v>
       </c>
-      <c r="N82" s="18">
+      <c r="N85" s="18">
         <v>524</v>
       </c>
-      <c r="O82" s="55">
+      <c r="O85" s="55">
         <v>1935</v>
       </c>
-      <c r="P82" s="13" t="s">
+      <c r="P85" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q82" s="13">
+      <c r="Q85" s="13">
         <v>8</v>
       </c>
-      <c r="S82" s="13" t="s">
+      <c r="S85" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="T82" s="13" t="str">
+      <c r="T85" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>GWR Railcar - (AEC Railcar)</v>
       </c>
-      <c r="U82" s="13">
+      <c r="U85" s="13">
         <v>6.0090000000000003</v>
       </c>
-      <c r="V82" s="13">
+      <c r="V85" s="13">
         <v>65.5</v>
       </c>
-      <c r="X82" s="13" t="s">
+      <c r="X85" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Z82" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X82,")")</f>
+      <c r="Z85" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X85,")")</f>
         <v>GWR Railcar (AEC Railcar)</v>
       </c>
-      <c r="AD82" s="13"/>
-    </row>
-    <row r="83" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
+      <c r="AD85" s="13"/>
+    </row>
+    <row r="86" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
         <v>82</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B86" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C86" s="13">
         <v>64</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D86" s="13">
         <v>70</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E86" s="13">
         <v>600</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F86" s="13">
         <v>80</v>
       </c>
-      <c r="G83" s="20">
-        <f t="shared" si="4"/>
+      <c r="G86" s="20">
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
-      <c r="H83" s="46">
+      <c r="H86" s="46">
         <v>23</v>
       </c>
-      <c r="I83" s="50">
+      <c r="I86" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.08</v>
       </c>
-      <c r="J83" s="18">
+      <c r="J86" s="18">
         <v>22265</v>
       </c>
-      <c r="K83" s="13">
-        <f t="shared" si="5"/>
+      <c r="K86" s="13">
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="L83" s="15">
+      <c r="L86" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>13.578205128205129</v>
       </c>
-      <c r="M83" s="18" cm="1">
-        <f t="array" ref="M83">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M86" s="18" cm="1">
+        <f t="array" ref="M86">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>144.69803921568626</v>
       </c>
-      <c r="N83" s="18">
+      <c r="N86" s="18">
         <v>1246</v>
       </c>
-      <c r="O83" s="55">
+      <c r="O86" s="55">
         <v>1955</v>
       </c>
-      <c r="P83" s="13" t="s">
+      <c r="P86" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q83" s="13">
+      <c r="Q86" s="13">
         <v>7</v>
       </c>
-      <c r="S83" s="13" t="s">
+      <c r="S86" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T83" s="13" t="str">
+      <c r="T86" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 101 - (MetCam DMU)</v>
       </c>
-      <c r="U83" s="13">
+      <c r="U86" s="13">
         <v>19.029</v>
       </c>
-      <c r="V83" s="13">
+      <c r="V86" s="13">
         <v>155.75</v>
       </c>
-      <c r="X83" s="13" t="s">
+      <c r="X86" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Z83" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X83,")")</f>
+      <c r="Z86" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X86,")")</f>
         <v>Class 101 (MetCam DMU)</v>
       </c>
-      <c r="AD83" s="13"/>
-    </row>
-    <row r="84" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+      <c r="AD86" s="13"/>
+    </row>
+    <row r="87" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
         <v>83</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B87" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C87" s="13">
         <v>72</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D87" s="13">
         <v>75</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E87" s="13">
         <v>775</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F87" s="13">
         <v>90</v>
       </c>
-      <c r="G84" s="20">
-        <f t="shared" si="4"/>
+      <c r="G87" s="20">
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
-      <c r="H84" s="46">
+      <c r="H87" s="46">
         <v>22</v>
       </c>
-      <c r="I84" s="50">
+      <c r="I87" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.08</v>
       </c>
-      <c r="J84" s="18">
+      <c r="J87" s="18">
         <v>24609</v>
       </c>
-      <c r="K84" s="13">
-        <f t="shared" si="5"/>
+      <c r="K87" s="13">
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="L84" s="15">
+      <c r="L87" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>15.016666666666666</v>
       </c>
-      <c r="M84" s="18" cm="1">
-        <f t="array" ref="M84">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M87" s="18" cm="1">
+        <f t="array" ref="M87">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>159.92941176470586</v>
       </c>
-      <c r="N84" s="18">
+      <c r="N87" s="18">
         <v>1378</v>
       </c>
-      <c r="O84" s="55">
+      <c r="O87" s="55">
         <v>1984</v>
       </c>
-      <c r="P84" s="13" t="s">
+      <c r="P87" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q84" s="13">
+      <c r="Q87" s="13">
         <v>8</v>
       </c>
-      <c r="S84" s="13" t="s">
+      <c r="S87" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="T84" s="13" t="str">
+      <c r="T87" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 150 'Sprinter' - (Sprinter)</v>
       </c>
-      <c r="U84" s="13">
+      <c r="U87" s="13">
         <v>21.032</v>
       </c>
-      <c r="V84" s="13">
+      <c r="V87" s="13">
         <v>172.25</v>
       </c>
-      <c r="X84" s="13" t="s">
+      <c r="X87" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Z84" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X84,")")</f>
+      <c r="Z87" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X87,")")</f>
         <v>Class 150 'Sprinter' (Sprinter)</v>
       </c>
-      <c r="AD84" s="13"/>
-    </row>
-    <row r="85" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+      <c r="AD87" s="13"/>
+    </row>
+    <row r="88" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
         <v>84</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B88" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C88" s="13">
         <v>76</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D88" s="13">
         <v>90</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E88" s="13">
         <v>800</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F88" s="13">
         <v>98</v>
       </c>
-      <c r="G85" s="20">
-        <f t="shared" si="4"/>
+      <c r="G88" s="20">
+        <f t="shared" si="6"/>
         <v>0.12894736842105264</v>
       </c>
-      <c r="H85" s="46">
+      <c r="H88" s="46">
         <v>18</v>
       </c>
-      <c r="I85" s="50">
+      <c r="I88" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.06</v>
       </c>
-      <c r="J85" s="18">
+      <c r="J88" s="18">
         <v>26953</v>
       </c>
-      <c r="K85" s="13">
-        <f t="shared" si="5"/>
+      <c r="K88" s="13">
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="L85" s="15">
+      <c r="L88" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>17.871794871794872</v>
       </c>
-      <c r="M85" s="18" cm="1">
-        <f t="array" ref="M85">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M88" s="18" cm="1">
+        <f t="array" ref="M88">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>175.16078431372549</v>
       </c>
-      <c r="N85" s="18">
+      <c r="N88" s="18">
         <v>1640</v>
       </c>
-      <c r="O85" s="55">
+      <c r="O88" s="55">
         <v>1990</v>
       </c>
-      <c r="P85" s="13" t="s">
+      <c r="P88" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q85" s="13">
+      <c r="Q88" s="13">
         <v>8</v>
       </c>
-      <c r="S85" s="13" t="s">
+      <c r="S88" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="T85" s="13" t="str">
+      <c r="T88" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 158 'Express Sprinter' - (Expr. Sprinter)</v>
       </c>
-      <c r="U85" s="13">
+      <c r="U88" s="13">
         <v>23.036000000000001</v>
       </c>
-      <c r="V85" s="13">
+      <c r="V88" s="13">
         <v>205</v>
       </c>
-      <c r="X85" s="13" t="s">
+      <c r="X88" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Z85" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X85,")")</f>
+      <c r="Z88" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X88,")")</f>
         <v>Class 158 'Express Sprinter' (Expr. Sprinter)</v>
       </c>
-      <c r="AD85" s="13"/>
-    </row>
-    <row r="86" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+      <c r="AD88" s="13"/>
+    </row>
+    <row r="89" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
         <v>85</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B89" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C89" s="13">
         <v>90</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D89" s="13">
         <v>100</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E89" s="13">
         <v>1250</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F89" s="13">
         <v>141</v>
       </c>
-      <c r="G86" s="20">
-        <f t="shared" si="4"/>
+      <c r="G89" s="20">
+        <f t="shared" si="6"/>
         <v>0.15666666666666668</v>
       </c>
-      <c r="H86" s="46">
+      <c r="H89" s="46">
         <v>15</v>
       </c>
-      <c r="I86" s="50">
+      <c r="I89" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.05</v>
       </c>
-      <c r="J86" s="18">
+      <c r="J89" s="18">
         <v>39843</v>
       </c>
-      <c r="K86" s="13">
-        <f t="shared" si="5"/>
+      <c r="K89" s="13">
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="L86" s="15">
+      <c r="L89" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>25.02051282051282</v>
       </c>
-      <c r="M86" s="18" cm="1">
-        <f t="array" ref="M86">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M89" s="18" cm="1">
+        <f t="array" ref="M89">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>258.93333333333334</v>
       </c>
-      <c r="N86" s="18">
+      <c r="N89" s="18">
         <v>2296</v>
       </c>
-      <c r="O86" s="55">
+      <c r="O89" s="55">
         <v>1998</v>
       </c>
-      <c r="P86" s="13" t="s">
+      <c r="P89" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q86" s="13">
+      <c r="Q89" s="13">
         <v>8</v>
       </c>
-      <c r="S86" s="13" t="s">
+      <c r="S89" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="T86" s="13" t="str">
+      <c r="T89" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 170 'Turbostar' - (Turbostar)</v>
       </c>
-      <c r="U86" s="13">
+      <c r="U89" s="13">
         <v>34.052999999999997</v>
       </c>
-      <c r="V86" s="13">
+      <c r="V89" s="13">
         <v>287</v>
       </c>
-      <c r="X86" s="13" t="s">
+      <c r="X89" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Z86" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X86,")")</f>
+      <c r="Z89" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X89,")")</f>
         <v>Class 170 'Turbostar' (Turbostar)</v>
       </c>
-      <c r="AD86" s="13"/>
-    </row>
-    <row r="87" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
+      <c r="AD89" s="13"/>
+    </row>
+    <row r="90" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
         <v>86</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B90" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C90" s="13">
         <v>86</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D90" s="13">
         <v>125</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E90" s="13">
         <v>3000</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F90" s="13">
         <v>158</v>
       </c>
-      <c r="G87" s="20">
-        <f t="shared" si="4"/>
+      <c r="G90" s="20">
+        <f t="shared" si="6"/>
         <v>0.18372093023255814</v>
       </c>
-      <c r="H87" s="46">
+      <c r="H90" s="46">
         <v>13</v>
       </c>
-      <c r="I87" s="50">
+      <c r="I90" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.05</v>
       </c>
-      <c r="J87" s="18">
+      <c r="J90" s="18">
         <v>60937</v>
       </c>
-      <c r="K87" s="13">
-        <f t="shared" si="5"/>
+      <c r="K90" s="13">
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="L87" s="15">
+      <c r="L90" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>25.02051282051282</v>
       </c>
-      <c r="M87" s="18" cm="1">
-        <f t="array" ref="M87">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M90" s="18" cm="1">
+        <f t="array" ref="M90">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>396.01568627450979</v>
       </c>
-      <c r="N87" s="18">
+      <c r="N90" s="18">
         <v>2296</v>
       </c>
-      <c r="O87" s="55">
+      <c r="O90" s="55">
         <v>2001</v>
       </c>
-      <c r="P87" s="13" t="s">
+      <c r="P90" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q87" s="13">
+      <c r="Q90" s="13">
         <v>8</v>
       </c>
-      <c r="S87" s="13" t="s">
+      <c r="S90" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="T87" s="13" t="str">
+      <c r="T90" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 220 'Voyager' - (Voyager)</v>
       </c>
-      <c r="U87" s="13">
+      <c r="U90" s="13">
         <v>52.082000000000001</v>
       </c>
-      <c r="V87" s="13">
+      <c r="V90" s="13">
         <v>287</v>
       </c>
-      <c r="X87" s="13" t="s">
+      <c r="X90" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Z87" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X87,")")</f>
+      <c r="Z90" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X90,")")</f>
         <v>Class 220 'Voyager' (Voyager)</v>
       </c>
-      <c r="AD87" s="13"/>
-    </row>
-    <row r="88" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+      <c r="AD90" s="13"/>
+    </row>
+    <row r="91" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
         <v>87</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B91" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C91" s="13">
         <v>140</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D91" s="13">
         <v>125</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E91" s="13">
         <v>4500</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F91" s="13">
         <v>160</v>
       </c>
-      <c r="G88" s="20">
-        <f t="shared" si="4"/>
+      <c r="G91" s="20">
+        <f t="shared" si="6"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="H88" s="46">
+      <c r="H91" s="46">
         <v>13</v>
       </c>
-      <c r="I88" s="50">
+      <c r="I91" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.05</v>
       </c>
-      <c r="J88" s="18">
+      <c r="J91" s="18">
         <v>73828</v>
       </c>
-      <c r="K88" s="13">
-        <f t="shared" si="5"/>
+      <c r="K91" s="13">
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
-      <c r="L88" s="15">
+      <c r="L91" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>90.1</v>
       </c>
-      <c r="M88" s="18" cm="1">
-        <f t="array" ref="M88">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M91" s="18" cm="1">
+        <f t="array" ref="M91">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>479.78823529411761</v>
       </c>
-      <c r="N88" s="18">
+      <c r="N91" s="18">
         <v>8268</v>
       </c>
-      <c r="O88" s="55">
+      <c r="O91" s="55">
         <v>1976</v>
       </c>
-      <c r="P88" s="13" t="s">
+      <c r="P91" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q88" s="13">
+      <c r="Q91" s="13">
         <v>7</v>
       </c>
-      <c r="S88" s="13" t="s">
+      <c r="S91" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="T88" s="13" t="str">
+      <c r="T91" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Class 43 'HST' - (BR HST)</v>
       </c>
-      <c r="U88" s="13">
+      <c r="U91" s="13">
         <v>63.100999999999999</v>
       </c>
-      <c r="V88" s="13">
+      <c r="V91" s="13">
         <v>1033.5</v>
       </c>
-      <c r="X88" s="13" t="s">
+      <c r="X91" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Z88" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X88,")")</f>
+      <c r="Z91" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X91,")")</f>
         <v>Class 43 'HST' (BR HST)</v>
       </c>
-      <c r="AD88" s="13"/>
-    </row>
-    <row r="89" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
+      <c r="AD91" s="13"/>
+    </row>
+    <row r="92" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
         <v>88</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B92" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C92" s="13">
         <v>68</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D92" s="13">
         <v>60</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E92" s="13">
         <v>1120</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F92" s="13">
         <v>83</v>
       </c>
-      <c r="G89" s="20">
-        <f t="shared" si="4"/>
+      <c r="G92" s="20">
+        <f t="shared" si="6"/>
         <v>0.12205882352941178</v>
       </c>
-      <c r="H89" s="46">
+      <c r="H92" s="46">
         <v>27</v>
       </c>
-      <c r="I89" s="50">
+      <c r="I92" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.09</v>
       </c>
-      <c r="J89" s="18">
+      <c r="J92" s="18">
         <v>29296</v>
       </c>
-      <c r="K89" s="13">
-        <f t="shared" si="5"/>
+      <c r="K92" s="13">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="L89" s="15">
+      <c r="L92" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>20.007692307692306</v>
       </c>
-      <c r="M89" s="18" cm="1">
-        <f t="array" ref="M89">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M92" s="18" cm="1">
+        <f t="array" ref="M92">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>175.68627450980392</v>
       </c>
-      <c r="N89" s="18">
+      <c r="N92" s="18">
         <v>1836</v>
       </c>
-      <c r="O89" s="55">
+      <c r="O92" s="55">
         <v>1914</v>
       </c>
-      <c r="P89" s="13">
+      <c r="P92" s="13">
         <v>3</v>
       </c>
-      <c r="Q89" s="13">
+      <c r="Q92" s="13">
         <v>8</v>
       </c>
-      <c r="S89" s="13" t="s">
+      <c r="S92" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="T89" s="13" t="str">
+      <c r="T92" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>LNWR EMU - (MetCam EMU)</v>
       </c>
-      <c r="U89" s="13">
+      <c r="U92" s="13">
         <v>25.039000000000001</v>
       </c>
-      <c r="V89" s="13">
+      <c r="V92" s="13">
         <v>229.5</v>
       </c>
-      <c r="X89" s="13" t="s">
+      <c r="X92" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="Z89" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X89,")")</f>
-        <v>LNWR EMU (MetCam EMU)</v>
-      </c>
-      <c r="AD89" s="13"/>
-    </row>
-    <row r="90" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>89</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C90" s="13">
-        <v>76</v>
-      </c>
-      <c r="D90" s="13">
-        <v>75</v>
-      </c>
-      <c r="E90" s="13">
-        <v>900</v>
-      </c>
-      <c r="F90" s="13">
-        <v>68</v>
-      </c>
-      <c r="G90" s="20">
-        <f t="shared" si="4"/>
-        <v>8.9473684210526316E-2</v>
-      </c>
-      <c r="H90" s="46">
-        <v>22</v>
-      </c>
-      <c r="I90" s="50">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="J90" s="18">
-        <v>26953</v>
-      </c>
-      <c r="K90" s="13">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="L90" s="15">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>17.871794871794872</v>
-      </c>
-      <c r="M90" s="18" cm="1">
-        <f t="array" ref="M90">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>161.6313725490196</v>
-      </c>
-      <c r="N90" s="18">
-        <v>1640</v>
-      </c>
-      <c r="O90" s="55">
-        <v>1935</v>
-      </c>
-      <c r="P90" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q90" s="13">
-        <v>8</v>
-      </c>
-      <c r="S90" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="T90" s="13" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 404 - (Southern EMU)</v>
-      </c>
-      <c r="U90" s="13">
-        <v>23.036000000000001</v>
-      </c>
-      <c r="V90" s="13">
-        <v>205</v>
-      </c>
-      <c r="X90" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z90" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X90,")")</f>
-        <v>Class 404 (Southern EMU)</v>
-      </c>
-      <c r="AD90" s="13"/>
-    </row>
-    <row r="91" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>90</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="13">
-        <v>72</v>
-      </c>
-      <c r="D91" s="13">
-        <v>90</v>
-      </c>
-      <c r="E91" s="13">
-        <v>1000</v>
-      </c>
-      <c r="F91" s="13">
-        <v>135</v>
-      </c>
-      <c r="G91" s="20">
-        <f t="shared" si="4"/>
-        <v>0.1875</v>
-      </c>
-      <c r="H91" s="46">
-        <v>18</v>
-      </c>
-      <c r="I91" s="50">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="J91" s="18">
-        <v>24609</v>
-      </c>
-      <c r="K91" s="13">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="L91" s="15">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>19.288461538461537</v>
-      </c>
-      <c r="M91" s="18" cm="1">
-        <f t="array" ref="M91">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>147.57647058823528</v>
-      </c>
-      <c r="N91" s="18">
-        <v>1770</v>
-      </c>
-      <c r="O91" s="55">
-        <v>1964</v>
-      </c>
-      <c r="P91" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="13">
-        <v>8</v>
-      </c>
-      <c r="S91" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="T91" s="13" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 421 - (Renewal EMU)</v>
-      </c>
-      <c r="U91" s="13">
-        <v>21.032</v>
-      </c>
-      <c r="V91" s="13">
-        <v>221.25</v>
-      </c>
-      <c r="X91" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z91" s="19" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X91,")")</f>
-        <v>Class 421 (Renewal EMU)</v>
-      </c>
-      <c r="AD91" s="13"/>
-    </row>
-    <row r="92" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>91</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" s="13">
-        <v>78</v>
-      </c>
-      <c r="D92" s="13">
-        <v>100</v>
-      </c>
-      <c r="E92" s="13">
-        <v>1210</v>
-      </c>
-      <c r="F92" s="13">
-        <v>140</v>
-      </c>
-      <c r="G92" s="20">
-        <f t="shared" si="4"/>
-        <v>0.17948717948717949</v>
-      </c>
-      <c r="H92" s="46">
-        <v>15</v>
-      </c>
-      <c r="I92" s="50">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="J92" s="18">
-        <v>31640</v>
-      </c>
-      <c r="K92" s="13">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="L92" s="15">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>24.301282051282051</v>
-      </c>
-      <c r="M92" s="18" cm="1">
-        <f t="array" ref="M92">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>189.74117647058824</v>
-      </c>
-      <c r="N92" s="18">
-        <v>2230</v>
-      </c>
-      <c r="O92" s="55">
-        <v>1988</v>
-      </c>
-      <c r="P92" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q92" s="13">
-        <v>8</v>
-      </c>
-      <c r="S92" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="T92" s="13" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 442 'Wessex Express' - (Wessex EMU)</v>
-      </c>
-      <c r="U92" s="13">
-        <v>27.042999999999999</v>
-      </c>
-      <c r="V92" s="13">
-        <v>278.75</v>
-      </c>
-      <c r="X92" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="Z92" s="19" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X92,")")</f>
-        <v>Class 442 'Wessex Express' (Wessex EMU)</v>
+        <v>LNWR EMU (MetCam EMU)</v>
       </c>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C93" s="13">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D93" s="13">
         <v>75</v>
       </c>
       <c r="E93" s="13">
-        <v>1080</v>
+        <v>900</v>
       </c>
       <c r="F93" s="13">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="G93" s="20">
-        <f t="shared" si="4"/>
-        <v>0.14130434782608695</v>
+        <f t="shared" si="6"/>
+        <v>8.9473684210526316E-2</v>
       </c>
       <c r="H93" s="46">
         <v>22</v>
@@ -22092,7 +22045,7 @@
         <v>26953</v>
       </c>
       <c r="K93" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="L93" s="15">
@@ -22107,20 +22060,20 @@
         <v>1640</v>
       </c>
       <c r="O93" s="55">
-        <v>1965</v>
-      </c>
-      <c r="P93" s="13" t="s">
-        <v>7</v>
+        <v>1935</v>
+      </c>
+      <c r="P93" s="13">
+        <v>3</v>
       </c>
       <c r="Q93" s="13">
         <v>8</v>
       </c>
       <c r="S93" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T93" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 310 'AM10' - (AM10)</v>
+        <v>Class 404 - (Southern EMU)</v>
       </c>
       <c r="U93" s="13">
         <v>23.036000000000001</v>
@@ -22129,115 +22082,115 @@
         <v>205</v>
       </c>
       <c r="X93" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z93" s="19" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X93,")")</f>
-        <v>Class 310 'AM10' (AM10)</v>
+        <v>Class 404 (Southern EMU)</v>
       </c>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C94" s="13">
         <v>72</v>
       </c>
       <c r="D94" s="13">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E94" s="13">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="F94" s="13">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G94" s="20">
-        <f t="shared" si="4"/>
-        <v>0.17499999999999999</v>
+        <f t="shared" si="6"/>
+        <v>0.1875</v>
       </c>
       <c r="H94" s="46">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I94" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J94" s="18">
-        <v>21093</v>
+        <v>24609</v>
       </c>
       <c r="K94" s="13">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="L94" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>15.714102564102564</v>
+        <v>19.288461538461537</v>
       </c>
       <c r="M94" s="18" cm="1">
         <f t="array" ref="M94">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>126.49411764705883</v>
+        <v>147.57647058823528</v>
       </c>
       <c r="N94" s="18">
-        <v>1442</v>
+        <v>1770</v>
       </c>
       <c r="O94" s="55">
-        <v>1976</v>
-      </c>
-      <c r="P94" s="13" t="s">
-        <v>9</v>
+        <v>1964</v>
+      </c>
+      <c r="P94" s="13">
+        <v>3</v>
       </c>
       <c r="Q94" s="13">
         <v>8</v>
       </c>
       <c r="S94" s="13" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="T94" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 313 - (Class 313)</v>
+        <v>Class 421 - (Renewal EMU)</v>
       </c>
       <c r="U94" s="13">
-        <v>18.027000000000001</v>
+        <v>21.032</v>
       </c>
       <c r="V94" s="13">
-        <v>180.25</v>
+        <v>221.25</v>
       </c>
       <c r="X94" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Z94" s="19" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X94,")")</f>
-        <v>Class 313 (Class 313)</v>
+        <v>Class 421 (Renewal EMU)</v>
       </c>
       <c r="AD94" s="13"/>
     </row>
     <row r="95" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C95" s="13">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D95" s="13">
         <v>100</v>
       </c>
       <c r="E95" s="13">
-        <v>1400</v>
+        <v>1210</v>
       </c>
       <c r="F95" s="13">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G95" s="20">
-        <f t="shared" si="4"/>
-        <v>0.17926829268292682</v>
+        <f t="shared" si="6"/>
+        <v>0.17948717948717949</v>
       </c>
       <c r="H95" s="46">
         <v>15</v>
@@ -22247,183 +22200,183 @@
         <v>0.05</v>
       </c>
       <c r="J95" s="18">
-        <v>29296</v>
+        <v>31640</v>
       </c>
       <c r="K95" s="13">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="L95" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>25.02051282051282</v>
+        <v>24.301282051282051</v>
       </c>
       <c r="M95" s="18" cm="1">
         <f t="array" ref="M95">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>175.68627450980392</v>
+        <v>189.74117647058824</v>
       </c>
       <c r="N95" s="18">
-        <v>2296</v>
+        <v>2230</v>
       </c>
       <c r="O95" s="55">
         <v>1988</v>
       </c>
-      <c r="P95" s="13" t="s">
-        <v>7</v>
+      <c r="P95" s="13">
+        <v>3</v>
       </c>
       <c r="Q95" s="13">
         <v>8</v>
       </c>
       <c r="S95" s="13" t="s">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="T95" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 321 - (Class 321)</v>
+        <v>Class 442 'Wessex Express' - (Wessex EMU)</v>
       </c>
       <c r="U95" s="13">
-        <v>25.039000000000001</v>
+        <v>27.042999999999999</v>
       </c>
       <c r="V95" s="13">
-        <v>287</v>
+        <v>278.75</v>
       </c>
       <c r="X95" s="13" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="Z95" s="19" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X95,")")</f>
-        <v>Class 321 (Class 321)</v>
+        <v>Class 442 'Wessex Express' (Wessex EMU)</v>
       </c>
       <c r="AD95" s="13"/>
     </row>
     <row r="96" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C96" s="13">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D96" s="13">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E96" s="13">
-        <v>1300</v>
+        <v>1080</v>
       </c>
       <c r="F96" s="13">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G96" s="20">
-        <f t="shared" si="4"/>
-        <v>0.15975609756097561</v>
+        <f t="shared" si="6"/>
+        <v>0.14130434782608695</v>
       </c>
       <c r="H96" s="46">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I96" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J96" s="18">
-        <v>24609</v>
+        <v>26953</v>
       </c>
       <c r="K96" s="13">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="L96" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>21.446153846153845</v>
+        <v>17.871794871794872</v>
       </c>
       <c r="M96" s="18" cm="1">
         <f t="array" ref="M96">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>147.57647058823528</v>
+        <v>161.6313725490196</v>
       </c>
       <c r="N96" s="18">
-        <v>1968</v>
+        <v>1640</v>
       </c>
       <c r="O96" s="55">
-        <v>1995</v>
+        <v>1965</v>
       </c>
       <c r="P96" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q96" s="13">
         <v>8</v>
       </c>
       <c r="S96" s="13" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="T96" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 325 - (Class 325)</v>
+        <v>Class 310 'AM10' - (AM10)</v>
       </c>
       <c r="U96" s="13">
-        <v>21.032</v>
+        <v>23.036000000000001</v>
       </c>
       <c r="V96" s="13">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="X96" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z96" s="19" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X96,")")</f>
-        <v>Class 325 (Class 325)</v>
+        <v>Class 310 'AM10' (AM10)</v>
       </c>
       <c r="AD96" s="13"/>
     </row>
-    <row r="97" spans="1:30" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C97" s="13">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D97" s="13">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E97" s="13">
-        <v>1500</v>
+        <v>880</v>
       </c>
       <c r="F97" s="13">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="G97" s="20">
-        <f t="shared" si="4"/>
-        <v>0.17899999999999999</v>
+        <f t="shared" si="6"/>
+        <v>0.17499999999999999</v>
       </c>
       <c r="H97" s="46">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I97" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J97" s="18">
-        <v>35156</v>
+        <v>21093</v>
       </c>
       <c r="K97" s="13">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="L97" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>23.582051282051282</v>
+        <v>15.714102564102564</v>
       </c>
       <c r="M97" s="18" cm="1">
         <f t="array" ref="M97">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>210.8235294117647</v>
+        <v>126.49411764705883</v>
       </c>
       <c r="N97" s="18">
-        <v>2164</v>
+        <v>1442</v>
       </c>
       <c r="O97" s="55">
-        <v>1999</v>
+        <v>1976</v>
       </c>
       <c r="P97" s="13" t="s">
         <v>9</v>
@@ -22431,78 +22384,78 @@
       <c r="Q97" s="13">
         <v>8</v>
       </c>
-      <c r="R97" s="13"/>
       <c r="S97" s="13" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="T97" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 357 'Electrostar' - (Electrostar)</v>
-      </c>
-      <c r="U97" s="21">
-        <v>30.047999999999998</v>
-      </c>
-      <c r="V97" s="21">
-        <v>270.5</v>
-      </c>
-      <c r="X97" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z97" s="25" t="str">
+        <v>Class 313 - (Class 313)</v>
+      </c>
+      <c r="U97" s="13">
+        <v>18.027000000000001</v>
+      </c>
+      <c r="V97" s="13">
+        <v>180.25</v>
+      </c>
+      <c r="X97" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z97" s="19" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X97,")")</f>
-        <v>Class 357 'Electrostar' (Electrostar)</v>
-      </c>
+        <v>Class 313 (Class 313)</v>
+      </c>
+      <c r="AD97" s="13"/>
     </row>
     <row r="98" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C98" s="13">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D98" s="13">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E98" s="13">
-        <v>6840</v>
+        <v>1400</v>
       </c>
       <c r="F98" s="13">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="G98" s="20">
-        <f t="shared" ref="G98:G101" si="6">F98/10/C98</f>
-        <v>0.22884615384615387</v>
+        <f t="shared" si="6"/>
+        <v>0.17926829268292682</v>
       </c>
       <c r="H98" s="46">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I98" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J98" s="18">
-        <v>166406</v>
+        <v>29296</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K101" si="7">ROUNDDOWN(J98/1171,0)</f>
-        <v>142</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="L98" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>125.86538461538461</v>
+        <v>25.02051282051282</v>
       </c>
       <c r="M98" s="18" cm="1">
         <f t="array" ref="M98">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>997.89803921568625</v>
+        <v>175.68627450980392</v>
       </c>
       <c r="N98" s="18">
-        <v>11550</v>
+        <v>2296</v>
       </c>
       <c r="O98" s="55">
-        <v>2002</v>
+        <v>1988</v>
       </c>
       <c r="P98" s="13" t="s">
         <v>7</v>
@@ -22511,49 +22464,49 @@
         <v>8</v>
       </c>
       <c r="S98" s="13" t="s">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c r="T98" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 390 'Pendolino' - (Pendolino)</v>
+        <v>Class 321 - (Class 321)</v>
       </c>
       <c r="U98" s="13">
-        <v>142.227</v>
+        <v>25.039000000000001</v>
       </c>
       <c r="V98" s="13">
-        <v>1443.75</v>
+        <v>287</v>
       </c>
       <c r="X98" s="13" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="Z98" s="19" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X98,")")</f>
-        <v>Class 390 'Pendolino' (Pendolino)</v>
+        <v>Class 321 (Class 321)</v>
       </c>
       <c r="AD98" s="13"/>
     </row>
     <row r="99" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C99" s="13">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D99" s="13">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="E99" s="13">
-        <v>6500</v>
+        <v>1300</v>
       </c>
       <c r="F99" s="13">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="G99" s="20">
         <f t="shared" si="6"/>
-        <v>0.23265306122448981</v>
+        <v>0.15975609756097561</v>
       </c>
       <c r="H99" s="46">
         <v>15</v>
@@ -22563,25 +22516,25 @@
         <v>0.05</v>
       </c>
       <c r="J99" s="18">
-        <v>203906</v>
+        <v>24609</v>
       </c>
       <c r="K99" s="13">
         <f t="shared" si="7"/>
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="L99" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>124.42692307692307</v>
+        <v>21.446153846153845</v>
       </c>
       <c r="M99" s="18" cm="1">
         <f t="array" ref="M99">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>1222.7764705882353</v>
+        <v>147.57647058823528</v>
       </c>
       <c r="N99" s="18">
-        <v>11418</v>
+        <v>1968</v>
       </c>
       <c r="O99" s="55">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="P99" s="13" t="s">
         <v>9</v>
@@ -22590,410 +22543,455 @@
         <v>8</v>
       </c>
       <c r="S99" s="13" t="s">
-        <v>273</v>
+        <v>90</v>
       </c>
       <c r="T99" s="13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v>Class 395 'A-Train' - (Hitachi A-Train)</v>
+        <v>Class 325 - (Class 325)</v>
       </c>
       <c r="U99" s="13">
-        <v>174.279</v>
+        <v>21.032</v>
       </c>
       <c r="V99" s="13">
-        <v>1427.25</v>
+        <v>246</v>
       </c>
       <c r="X99" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Z99" s="19" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X99,")")</f>
-        <v>Class 395 'A-Train' (Hitachi A-Train)</v>
+        <v>Class 325 (Class 325)</v>
       </c>
       <c r="AD99" s="13"/>
     </row>
-    <row r="100" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="21">
-        <v>99</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>569</v>
-      </c>
-      <c r="C100" s="21">
-        <v>142</v>
-      </c>
-      <c r="D100" s="21">
-        <v>115</v>
-      </c>
-      <c r="E100" s="21">
-        <v>3000</v>
-      </c>
-      <c r="F100" s="21">
-        <v>119</v>
-      </c>
-      <c r="G100" s="23">
+    <row r="100" spans="1:30" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
+        <v>96</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="13">
+        <v>100</v>
+      </c>
+      <c r="D100" s="13">
+        <v>100</v>
+      </c>
+      <c r="E100" s="13">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="13">
+        <v>179</v>
+      </c>
+      <c r="G100" s="20">
         <f t="shared" si="6"/>
-        <v>8.380281690140845E-2</v>
-      </c>
-      <c r="H100" s="44">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H100" s="46">
         <v>15</v>
       </c>
-      <c r="I100" s="48">
+      <c r="I100" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.05</v>
       </c>
-      <c r="J100" s="24">
+      <c r="J100" s="18">
+        <v>35156</v>
+      </c>
+      <c r="K100" s="13">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="L100" s="15">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>23.582051282051282</v>
+      </c>
+      <c r="M100" s="18" cm="1">
+        <f t="array" ref="M100">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>210.8235294117647</v>
+      </c>
+      <c r="N100" s="18">
+        <v>2164</v>
+      </c>
+      <c r="O100" s="55">
+        <v>1999</v>
+      </c>
+      <c r="P100" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q100" s="13">
+        <v>8</v>
+      </c>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="T100" s="13" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v>Class 357 'Electrostar' - (Electrostar)</v>
+      </c>
+      <c r="U100" s="21">
+        <v>30.047999999999998</v>
+      </c>
+      <c r="V100" s="21">
+        <v>270.5</v>
+      </c>
+      <c r="X100" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z100" s="25" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X100,")")</f>
+        <v>Class 357 'Electrostar' (Electrostar)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13">
+        <v>97</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="13">
+        <v>104</v>
+      </c>
+      <c r="D101" s="13">
+        <v>140</v>
+      </c>
+      <c r="E101" s="13">
+        <v>6840</v>
+      </c>
+      <c r="F101" s="13">
+        <v>238</v>
+      </c>
+      <c r="G101" s="20">
+        <f t="shared" ref="G101:G104" si="8">F101/10/C101</f>
+        <v>0.22884615384615387</v>
+      </c>
+      <c r="H101" s="46">
+        <v>11</v>
+      </c>
+      <c r="I101" s="50">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="J101" s="18">
+        <v>166406</v>
+      </c>
+      <c r="K101" s="13">
+        <f t="shared" ref="K101:K104" si="9">ROUNDDOWN(J101/1171,0)</f>
+        <v>142</v>
+      </c>
+      <c r="L101" s="15">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>125.86538461538461</v>
+      </c>
+      <c r="M101" s="18" cm="1">
+        <f t="array" ref="M101">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>997.89803921568625</v>
+      </c>
+      <c r="N101" s="18">
+        <v>11550</v>
+      </c>
+      <c r="O101" s="55">
+        <v>2002</v>
+      </c>
+      <c r="P101" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q101" s="13">
+        <v>8</v>
+      </c>
+      <c r="S101" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="T101" s="13" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v>Class 390 'Pendolino' - (Pendolino)</v>
+      </c>
+      <c r="U101" s="13">
+        <v>142.227</v>
+      </c>
+      <c r="V101" s="13">
+        <v>1443.75</v>
+      </c>
+      <c r="X101" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z101" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X101,")")</f>
+        <v>Class 390 'Pendolino' (Pendolino)</v>
+      </c>
+      <c r="AD101" s="13"/>
+    </row>
+    <row r="102" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
+        <v>98</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="13">
+        <v>98</v>
+      </c>
+      <c r="D102" s="13">
+        <v>155</v>
+      </c>
+      <c r="E102" s="13">
+        <v>6500</v>
+      </c>
+      <c r="F102" s="13">
+        <v>228</v>
+      </c>
+      <c r="G102" s="20">
+        <f t="shared" si="8"/>
+        <v>0.23265306122448981</v>
+      </c>
+      <c r="H102" s="46">
+        <v>15</v>
+      </c>
+      <c r="I102" s="50">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J102" s="18">
+        <v>203906</v>
+      </c>
+      <c r="K102" s="13">
+        <f t="shared" si="9"/>
+        <v>174</v>
+      </c>
+      <c r="L102" s="15">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>124.42692307692307</v>
+      </c>
+      <c r="M102" s="18" cm="1">
+        <f t="array" ref="M102">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>1222.7764705882353</v>
+      </c>
+      <c r="N102" s="18">
+        <v>11418</v>
+      </c>
+      <c r="O102" s="55">
+        <v>2016</v>
+      </c>
+      <c r="P102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q102" s="13">
+        <v>8</v>
+      </c>
+      <c r="S102" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="T102" s="13" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v>Class 395 'A-Train' - (Hitachi A-Train)</v>
+      </c>
+      <c r="U102" s="13">
+        <v>174.279</v>
+      </c>
+      <c r="V102" s="13">
+        <v>1427.25</v>
+      </c>
+      <c r="X102" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z102" s="19" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," (",X102,")")</f>
+        <v>Class 395 'A-Train' (Hitachi A-Train)</v>
+      </c>
+      <c r="AD102" s="13"/>
+    </row>
+    <row r="103" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="21">
+        <v>99</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="C103" s="21">
+        <v>142</v>
+      </c>
+      <c r="D103" s="21">
+        <v>115</v>
+      </c>
+      <c r="E103" s="21">
+        <v>3000</v>
+      </c>
+      <c r="F103" s="21">
+        <v>119</v>
+      </c>
+      <c r="G103" s="23">
+        <f t="shared" si="8"/>
+        <v>8.380281690140845E-2</v>
+      </c>
+      <c r="H103" s="44">
+        <v>15</v>
+      </c>
+      <c r="I103" s="48">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J103" s="24">
         <v>37500</v>
       </c>
-      <c r="K100" s="21">
-        <f t="shared" si="7"/>
+      <c r="K103" s="21">
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="L100" s="22">
+      <c r="L103" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>54.705128205128204</v>
       </c>
-      <c r="M100" s="24" cm="1">
-        <f t="array" ref="M100">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M103" s="24" cm="1">
+        <f t="array" ref="M103">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>262.27450980392155</v>
       </c>
-      <c r="N100" s="24">
+      <c r="N103" s="24">
         <v>5020</v>
       </c>
-      <c r="O100" s="53">
+      <c r="O103" s="53">
         <v>2010</v>
       </c>
-      <c r="P100" s="21" t="s">
+      <c r="P103" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Q100" s="21" t="s">
+      <c r="Q103" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="R100" s="21" t="s">
+      <c r="R103" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="S100" s="21" t="s">
+      <c r="S103" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="T100" s="21" t="str">
+      <c r="T103" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>5AT - (Wardale '5AT')</v>
       </c>
-      <c r="U100" s="13"/>
-      <c r="V100" s="13"/>
-      <c r="Z100" s="19"/>
-      <c r="AD100" s="13"/>
-    </row>
-    <row r="101" spans="1:30" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="21">
+      <c r="U103" s="13"/>
+      <c r="V103" s="13"/>
+      <c r="Z103" s="19"/>
+      <c r="AD103" s="13"/>
+    </row>
+    <row r="104" spans="1:30" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="21">
         <v>100</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B104" s="22" t="s">
         <v>570</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C104" s="21">
         <v>155</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D104" s="21">
         <v>150</v>
       </c>
-      <c r="E101" s="21">
+      <c r="E104" s="21">
         <v>4000</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F104" s="21">
         <v>172</v>
       </c>
-      <c r="G101" s="23">
-        <f t="shared" si="6"/>
+      <c r="G104" s="23">
+        <f t="shared" si="8"/>
         <v>0.11096774193548387</v>
       </c>
-      <c r="H101" s="44">
+      <c r="H104" s="44">
         <v>14</v>
       </c>
-      <c r="I101" s="48">
+      <c r="I104" s="48">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.05</v>
       </c>
-      <c r="J101" s="24">
+      <c r="J104" s="24">
         <v>42187</v>
       </c>
-      <c r="K101" s="21">
-        <f t="shared" si="7"/>
+      <c r="K104" s="21">
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="L101" s="22">
+      <c r="L104" s="22">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>61.134615384615387</v>
       </c>
-      <c r="M101" s="24" cm="1">
-        <f t="array" ref="M101">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+      <c r="M104" s="24" cm="1">
+        <f t="array" ref="M104">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
         <v>295.05882352941171</v>
       </c>
-      <c r="N101" s="24">
+      <c r="N104" s="24">
         <v>5610</v>
       </c>
-      <c r="O101" s="53">
+      <c r="O104" s="53">
         <v>2032</v>
       </c>
-      <c r="P101" s="21" t="s">
+      <c r="P104" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="21" t="s">
+      <c r="Q104" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="R101" s="21" t="s">
+      <c r="R104" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="S101" s="21" t="s">
+      <c r="S104" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="T101" s="21" t="str">
+      <c r="T104" s="21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v>Wardale '604' - (Wardale '604')</v>
       </c>
-      <c r="Z101" s="25"/>
-    </row>
-    <row r="102" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
+      <c r="Z104" s="25"/>
+    </row>
+    <row r="105" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="13">
         <v>101</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B105" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C105" s="13">
         <v>46</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D105" s="13">
         <v>40</v>
       </c>
-      <c r="E102" s="13">
+      <c r="E105" s="13">
         <v>300</v>
       </c>
-      <c r="F102" s="13">
+      <c r="F105" s="13">
         <v>54</v>
       </c>
-      <c r="G102" s="20">
-        <f>F102/10/C102</f>
+      <c r="G105" s="20">
+        <f>F105/10/C105</f>
         <v>0.11739130434782609</v>
       </c>
-      <c r="H102" s="46">
+      <c r="H105" s="46">
         <v>41</v>
       </c>
-      <c r="I102" s="50">
+      <c r="I105" s="50">
         <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="J102" s="18">
+      <c r="J105" s="18">
         <v>7031</v>
       </c>
-      <c r="K102" s="51">
-        <f>ROUNDDOWN(J102/1171,0)</f>
+      <c r="K105" s="51">
+        <f>ROUNDDOWN(J105/1171,0)</f>
         <v>6</v>
       </c>
-      <c r="L102" s="15">
+      <c r="L105" s="15">
         <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
         <v>6.4294871794871797</v>
       </c>
-      <c r="M102" s="18" cm="1">
-        <f t="array" ref="M102">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>42.164705882352941</v>
-      </c>
-      <c r="N102" s="18">
-        <v>590</v>
-      </c>
-      <c r="O102" s="55">
-        <v>1903</v>
-      </c>
-      <c r="P102" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="13">
-        <v>7</v>
-      </c>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
-      <c r="T102" s="15" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v xml:space="preserve"> - (Gate Tube)</v>
-      </c>
-    </row>
-    <row r="103" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13">
-        <v>102</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="C103" s="13">
-        <v>48</v>
-      </c>
-      <c r="D103" s="13">
-        <v>45</v>
-      </c>
-      <c r="E103" s="13">
-        <v>400</v>
-      </c>
-      <c r="F103" s="13">
-        <v>64</v>
-      </c>
-      <c r="G103" s="20">
-        <f>F103/10/C103</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="H103" s="46">
-        <v>36</v>
-      </c>
-      <c r="I103" s="50">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.12</v>
-      </c>
-      <c r="J103" s="18">
-        <v>9375</v>
-      </c>
-      <c r="K103" s="51">
-        <f>ROUNDDOWN(J103/1171,0)</f>
-        <v>8</v>
-      </c>
-      <c r="L103" s="15">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>7.8461538461538458</v>
-      </c>
-      <c r="M103" s="18" cm="1">
-        <f t="array" ref="M103">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>56.219607843137254</v>
-      </c>
-      <c r="N103" s="18">
-        <v>720</v>
-      </c>
-      <c r="O103" s="55">
-        <v>1938</v>
-      </c>
-      <c r="P103" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q103" s="13">
-        <v>7</v>
-      </c>
-      <c r="R103" s="15"/>
-      <c r="S103" s="15"/>
-      <c r="T103" s="15" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v xml:space="preserve"> - (New Works Tube)</v>
-      </c>
-    </row>
-    <row r="104" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
-        <v>103</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>618</v>
-      </c>
-      <c r="C104" s="13">
-        <v>44</v>
-      </c>
-      <c r="D104" s="13">
-        <v>50</v>
-      </c>
-      <c r="E104" s="13">
-        <v>500</v>
-      </c>
-      <c r="F104" s="13">
-        <v>79</v>
-      </c>
-      <c r="G104" s="20">
-        <f>F104/10/C104</f>
-        <v>0.17954545454545456</v>
-      </c>
-      <c r="H104" s="46">
-        <v>32</v>
-      </c>
-      <c r="I104" s="50">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.11</v>
-      </c>
-      <c r="J104" s="18">
-        <v>10546</v>
-      </c>
-      <c r="K104" s="51">
-        <f>ROUNDDOWN(J104/1171,0)</f>
-        <v>9</v>
-      </c>
-      <c r="L104" s="15">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>9.2846153846153854</v>
-      </c>
-      <c r="M104" s="18" cm="1">
-        <f t="array" ref="M104">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>63.247058823529414</v>
-      </c>
-      <c r="N104" s="18">
-        <v>852</v>
-      </c>
-      <c r="O104" s="55">
-        <v>1967</v>
-      </c>
-      <c r="P104" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q104" s="13">
-        <v>7</v>
-      </c>
-      <c r="R104" s="15"/>
-      <c r="S104" s="15"/>
-      <c r="T104" s="15" t="str">
-        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
-        <v xml:space="preserve"> - (Victoria Tube)</v>
-      </c>
-    </row>
-    <row r="105" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
-        <v>104</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="C105" s="13">
-        <v>46</v>
-      </c>
-      <c r="D105" s="13">
-        <v>60</v>
-      </c>
-      <c r="E105" s="13">
-        <v>600</v>
-      </c>
-      <c r="F105" s="13">
-        <v>79</v>
-      </c>
-      <c r="G105" s="20">
-        <f>F105/10/C105</f>
-        <v>0.17173913043478262</v>
-      </c>
-      <c r="H105" s="46">
-        <v>27</v>
-      </c>
-      <c r="I105" s="50">
-        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="J105" s="18">
-        <v>12890</v>
-      </c>
-      <c r="K105" s="51">
-        <f>ROUNDDOWN(J105/1171,0)</f>
-        <v>11</v>
-      </c>
-      <c r="L105" s="15">
-        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
-        <v>10.723076923076922</v>
-      </c>
       <c r="M105" s="18" cm="1">
         <f t="array" ref="M105">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
-        <v>77.301960784313721</v>
+        <v>42.164705882352941</v>
       </c>
       <c r="N105" s="18">
-        <v>984</v>
+        <v>590</v>
       </c>
       <c r="O105" s="55">
-        <v>1992</v>
+        <v>1903</v>
       </c>
       <c r="P105" s="13">
         <v>3</v>
@@ -23005,12 +23003,244 @@
       <c r="S105" s="15"/>
       <c r="T105" s="15" t="str">
         <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v xml:space="preserve"> - (Gate Tube)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
+        <v>102</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="C106" s="13">
+        <v>48</v>
+      </c>
+      <c r="D106" s="13">
+        <v>45</v>
+      </c>
+      <c r="E106" s="13">
+        <v>400</v>
+      </c>
+      <c r="F106" s="13">
+        <v>64</v>
+      </c>
+      <c r="G106" s="20">
+        <f>F106/10/C106</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H106" s="46">
+        <v>36</v>
+      </c>
+      <c r="I106" s="50">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="J106" s="18">
+        <v>9375</v>
+      </c>
+      <c r="K106" s="51">
+        <f>ROUNDDOWN(J106/1171,0)</f>
+        <v>8</v>
+      </c>
+      <c r="L106" s="15">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>7.8461538461538458</v>
+      </c>
+      <c r="M106" s="18" cm="1">
+        <f t="array" ref="M106">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>56.219607843137254</v>
+      </c>
+      <c r="N106" s="18">
+        <v>720</v>
+      </c>
+      <c r="O106" s="55">
+        <v>1938</v>
+      </c>
+      <c r="P106" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q106" s="13">
+        <v>7</v>
+      </c>
+      <c r="R106" s="15"/>
+      <c r="S106" s="15"/>
+      <c r="T106" s="15" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v xml:space="preserve"> - (New Works Tube)</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13">
+        <v>103</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="C107" s="13">
+        <v>44</v>
+      </c>
+      <c r="D107" s="13">
+        <v>50</v>
+      </c>
+      <c r="E107" s="13">
+        <v>500</v>
+      </c>
+      <c r="F107" s="13">
+        <v>79</v>
+      </c>
+      <c r="G107" s="20">
+        <f>F107/10/C107</f>
+        <v>0.17954545454545456</v>
+      </c>
+      <c r="H107" s="46">
+        <v>32</v>
+      </c>
+      <c r="I107" s="50">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="J107" s="18">
+        <v>10546</v>
+      </c>
+      <c r="K107" s="51">
+        <f>ROUNDDOWN(J107/1171,0)</f>
+        <v>9</v>
+      </c>
+      <c r="L107" s="15">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>9.2846153846153854</v>
+      </c>
+      <c r="M107" s="18" cm="1">
+        <f t="array" ref="M107">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>63.247058823529414</v>
+      </c>
+      <c r="N107" s="18">
+        <v>852</v>
+      </c>
+      <c r="O107" s="55">
+        <v>1967</v>
+      </c>
+      <c r="P107" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q107" s="13">
+        <v>7</v>
+      </c>
+      <c r="R107" s="15"/>
+      <c r="S107" s="15"/>
+      <c r="T107" s="15" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
+        <v xml:space="preserve"> - (Victoria Tube)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="13">
+        <v>104</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="C108" s="13">
+        <v>46</v>
+      </c>
+      <c r="D108" s="13">
+        <v>60</v>
+      </c>
+      <c r="E108" s="13">
+        <v>600</v>
+      </c>
+      <c r="F108" s="13">
+        <v>79</v>
+      </c>
+      <c r="G108" s="20">
+        <f>F108/10/C108</f>
+        <v>0.17173913043478262</v>
+      </c>
+      <c r="H108" s="46">
+        <v>27</v>
+      </c>
+      <c r="I108" s="50">
+        <f>ROUND((Table2[[#This Row],[Air Drag]]+0.3504)/293.4,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="J108" s="18">
+        <v>12890</v>
+      </c>
+      <c r="K108" s="51">
+        <f>ROUNDDOWN(J108/1171,0)</f>
+        <v>11</v>
+      </c>
+      <c r="L108" s="15">
+        <f>Table2[[#This Row],[RunCost]]/(23400/255)</f>
+        <v>10.723076923076922</v>
+      </c>
+      <c r="M108" s="18" cm="1">
+        <f t="array" ref="M108">_xlfn.SWITCH(Table2[[#This Row],[Propulsion]],"S",Table2[[#This Row],[Cost Factor]]*(2090/255),"D",Table2[[#This Row],[Cost Factor]]*(1942/255),"E",Table2[[#This Row],[Cost Factor]]*(1792/255),"M",Table2[[#This Row],[Cost Factor]]*(1792/255),3,Table2[[#This Row],[Cost Factor]]*(1792/255))</f>
+        <v>77.301960784313721</v>
+      </c>
+      <c r="N108" s="18">
+        <v>984</v>
+      </c>
+      <c r="O108" s="55">
+        <v>1992</v>
+      </c>
+      <c r="P108" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q108" s="13">
+        <v>7</v>
+      </c>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="15" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[Name]]," - (",Table2[[#This Row],[UKRS Name]],")")</f>
         <v xml:space="preserve"> - (Adtranz Tube)</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="J2:J76">
+  <conditionalFormatting sqref="J2:J36 J38:J79">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N36 N38:N79">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J80:J102">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N80:N102">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M36 M38:M79">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -23020,8 +23250,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N76">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="M80:M102">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23030,27 +23260,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77:J99">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
+  <conditionalFormatting sqref="P2:P36 R105:S1048576 P38:P102">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
+      <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N77:N99">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-        <color rgb="FFC00000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M76">
+  <conditionalFormatting sqref="J103">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -23060,7 +23287,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M77:M99">
+  <conditionalFormatting sqref="N103">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M103">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -23070,24 +23307,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P99 R102:S1048576">
-    <cfRule type="cellIs" dxfId="58" priority="17" operator="equal">
+  <conditionalFormatting sqref="P103">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J100">
+  <conditionalFormatting sqref="J104">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -23097,7 +23334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N100">
+  <conditionalFormatting sqref="N104">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -23107,7 +23344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M100">
+  <conditionalFormatting sqref="M104">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -23117,24 +23354,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P100">
-    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
+  <conditionalFormatting sqref="P104">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J101">
+  <conditionalFormatting sqref="J37">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -23144,7 +23381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N101">
+  <conditionalFormatting sqref="N37">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -23154,7 +23391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M101">
+  <conditionalFormatting sqref="M37">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -23164,20 +23401,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P101">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+  <conditionalFormatting sqref="P37">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23196,7 +23433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85BF7ED-5695-4CE1-BF5A-80E789BE5EBA}">
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
@@ -28538,7 +28775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I100">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
